--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_7.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_7.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4282 +417,4762 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>100.5</v>
+        <v>92.8</v>
       </c>
       <c r="B2">
-        <v>45272.56373616541</v>
+        <v>60048.57973671159</v>
       </c>
       <c r="C2">
-        <v>15635.176572673</v>
+        <v>2864.12708533876</v>
       </c>
       <c r="D2">
-        <v>54053.65809447911</v>
+        <v>19722.54663877576</v>
       </c>
       <c r="E2">
-        <v>5221.87162710938</v>
+        <v>3740.821007679687</v>
       </c>
       <c r="F2">
-        <v>6023.066850663698</v>
+        <v>3878.902344507419</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>102.9</v>
+        <v>92.8</v>
       </c>
       <c r="B3">
-        <v>47878.3817154971</v>
+        <v>21648.57973671159</v>
       </c>
       <c r="C3">
-        <v>15643.09137058812</v>
+        <v>3544.12708533876</v>
       </c>
       <c r="D3">
-        <v>57596.72903700081</v>
+        <v>19752.54663877576</v>
       </c>
       <c r="E3">
-        <v>6086.493873578979</v>
+        <v>3400.821007679687</v>
       </c>
       <c r="F3">
-        <v>5520.156587709886</v>
+        <v>2608.902344507419</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>106</v>
+        <v>92.8</v>
       </c>
       <c r="B4">
-        <v>48673.39660546699</v>
+        <v>10348.57973671159</v>
       </c>
       <c r="C4">
-        <v>11646.23131789516</v>
+        <v>4454.12708533876</v>
       </c>
       <c r="D4">
-        <v>56754.86233775799</v>
+        <v>17542.54663877576</v>
       </c>
       <c r="E4">
-        <v>5411.630941935548</v>
+        <v>3200.821007679687</v>
       </c>
       <c r="F4">
-        <v>4662.647498061213</v>
+        <v>3058.902344507419</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>108.4</v>
+        <v>92.8</v>
       </c>
       <c r="B5">
-        <v>42079.21458479868</v>
+        <v>9248.579736711592</v>
       </c>
       <c r="C5">
-        <v>6414.146115810282</v>
+        <v>3504.12708533876</v>
       </c>
       <c r="D5">
-        <v>56767.93328027967</v>
+        <v>20702.54663877576</v>
       </c>
       <c r="E5">
-        <v>5396.253188405147</v>
+        <v>3670.821007679687</v>
       </c>
       <c r="F5">
-        <v>3399.737235107401</v>
+        <v>2828.902344507419</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>111.5</v>
+        <v>92.8</v>
       </c>
       <c r="B6">
-        <v>43174.2294747687</v>
+        <v>18048.57973671159</v>
       </c>
       <c r="C6">
-        <v>4987.286063117323</v>
+        <v>5014.12708533876</v>
       </c>
       <c r="D6">
-        <v>53816.06658103687</v>
+        <v>20152.54663877576</v>
       </c>
       <c r="E6">
-        <v>4241.390256761715</v>
+        <v>3860.821007679687</v>
       </c>
       <c r="F6">
-        <v>2472.228145458727</v>
+        <v>2068.902344507419</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>114.2</v>
+        <v>92.7</v>
       </c>
       <c r="B7">
-        <v>49118.27470151678</v>
+        <v>15946.68865071299</v>
       </c>
       <c r="C7">
-        <v>4327.440210771842</v>
+        <v>6157.379689400511</v>
       </c>
       <c r="D7">
-        <v>49057.02139137374</v>
+        <v>19939.58436012429</v>
       </c>
       <c r="E7">
-        <v>4899.090284040023</v>
+        <v>2867.175878030903</v>
       </c>
       <c r="F7">
-        <v>1810.204099635689</v>
+        <v>2675.975561015499</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>116.9</v>
+        <v>92.8</v>
       </c>
       <c r="B8">
-        <v>33162.31992826474</v>
+        <v>11148.57973671159</v>
       </c>
       <c r="C8">
-        <v>3277.59435842636</v>
+        <v>6754.12708533876</v>
       </c>
       <c r="D8">
-        <v>42717.97620171066</v>
+        <v>19582.54663877576</v>
       </c>
       <c r="E8">
-        <v>3696.790311318323</v>
+        <v>4100.821007679687</v>
       </c>
       <c r="F8">
-        <v>1698.18005381265</v>
+        <v>2168.902344507419</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>119.7</v>
+        <v>92.8</v>
       </c>
       <c r="B9">
-        <v>28819.10757081836</v>
+        <v>14648.57973671159</v>
       </c>
       <c r="C9">
-        <v>2078.494955994003</v>
+        <v>5924.12708533876</v>
       </c>
       <c r="D9">
-        <v>35558.22563465261</v>
+        <v>20542.54663877576</v>
       </c>
       <c r="E9">
-        <v>4038.849598866191</v>
+        <v>3690.821007679687</v>
       </c>
       <c r="F9">
-        <v>959.7847470332035</v>
+        <v>2298.902344507419</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>122.1</v>
+        <v>92.8</v>
       </c>
       <c r="B10">
-        <v>27624.92555014994</v>
+        <v>17348.57973671159</v>
       </c>
       <c r="C10">
-        <v>1706.40975390914</v>
+        <v>7144.12708533876</v>
       </c>
       <c r="D10">
-        <v>35211.29657717431</v>
+        <v>18142.54663877576</v>
       </c>
       <c r="E10">
-        <v>3273.47184533579</v>
+        <v>3360.821007679687</v>
       </c>
       <c r="F10">
-        <v>776.8744840793916</v>
+        <v>1638.902344507419</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>124.5</v>
+        <v>92.7</v>
       </c>
       <c r="B11">
-        <v>21030.74352948152</v>
+        <v>14846.68865071299</v>
       </c>
       <c r="C11">
-        <v>1044.324551824262</v>
+        <v>7827.379689400511</v>
       </c>
       <c r="D11">
-        <v>29894.36751969601</v>
+        <v>18929.58436012429</v>
       </c>
       <c r="E11">
-        <v>3438.09409180539</v>
+        <v>3837.175878030903</v>
       </c>
       <c r="F11">
-        <v>163.9642211255796</v>
+        <v>1015.975561015499</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>126.6</v>
+        <v>92.8</v>
       </c>
       <c r="B12">
-        <v>12398.3342613967</v>
+        <v>14948.57973671159</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>6974.12708533876</v>
       </c>
       <c r="D12">
-        <v>25039.55459440247</v>
+        <v>20242.54663877576</v>
       </c>
       <c r="E12">
-        <v>3639.638557466296</v>
+        <v>4360.821007679687</v>
       </c>
       <c r="F12">
-        <v>750.1677410409939</v>
+        <v>1118.902344507419</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>128.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="B13">
-        <v>9678.667409117435</v>
+        <v>14450.47082271031</v>
       </c>
       <c r="C13">
-        <v>596.4218980888618</v>
+        <v>9160.874481277007</v>
       </c>
       <c r="D13">
-        <v>22914.03629171401</v>
+        <v>28855.50891742723</v>
       </c>
       <c r="E13">
-        <v>3375.542283396761</v>
+        <v>4494.466137328478</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>771.82912799934</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>130.9</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="B14">
-        <v>4546.258141032507</v>
+        <v>20954.25299470763</v>
       </c>
       <c r="C14">
-        <v>702.0973462645998</v>
+        <v>14414.36927315352</v>
       </c>
       <c r="D14">
-        <v>21059.2233664205</v>
+        <v>49691.43347473016</v>
       </c>
       <c r="E14">
-        <v>2767.08674905766</v>
+        <v>9931.756396626051</v>
       </c>
       <c r="F14">
-        <v>556.2035199154143</v>
+        <v>14047.68269498318</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>133.4</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="B15">
-        <v>4664.818536169623</v>
+        <v>44463.70842470074</v>
       </c>
       <c r="C15">
-        <v>1070.758594092844</v>
+        <v>19938.10625284479</v>
       </c>
       <c r="D15">
-        <v>20991.58893154725</v>
+        <v>49386.24486798748</v>
       </c>
       <c r="E15">
-        <v>2646.068255796834</v>
+        <v>6719.982044869992</v>
       </c>
       <c r="F15">
-        <v>906.9219960051942</v>
+        <v>5032.316612442783</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>135.5</v>
+        <v>94.2</v>
       </c>
       <c r="B16">
-        <v>5132.409268084797</v>
+        <v>48675.05494069269</v>
       </c>
       <c r="C16">
-        <v>2926.434042268585</v>
+        <v>23998.5906284743</v>
       </c>
       <c r="D16">
-        <v>21076.77600625374</v>
+        <v>61094.01853989629</v>
       </c>
       <c r="E16">
-        <v>2407.612721457733</v>
+        <v>8411.852822762716</v>
       </c>
       <c r="F16">
-        <v>343.1255159206084</v>
+        <v>3759.877313394304</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>137.6</v>
+        <v>95.3</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>54595.85688667776</v>
       </c>
       <c r="C17">
-        <v>2712.109490444323</v>
+        <v>22072.81198379509</v>
       </c>
       <c r="D17">
-        <v>20041.96308096019</v>
+        <v>72616.60360506247</v>
       </c>
       <c r="E17">
-        <v>3749.157187118632</v>
+        <v>7821.94924889938</v>
       </c>
       <c r="F17">
-        <v>579.3290358360236</v>
+        <v>3182.071931805428</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>139.8</v>
+        <v>96.7</v>
       </c>
       <c r="B18">
-        <v>9580.333147720608</v>
+        <v>58722.33209065875</v>
       </c>
       <c r="C18">
-        <v>2548.531388533185</v>
+        <v>20757.27552693063</v>
       </c>
       <c r="D18">
-        <v>19996.44477827174</v>
+        <v>83838.07550618301</v>
       </c>
       <c r="E18">
-        <v>4395.060913049105</v>
+        <v>7722.981063982403</v>
       </c>
       <c r="F18">
-        <v>809.1612947950289</v>
+        <v>3643.046900692321</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>142.1</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="B19">
-        <v>9373.408711246753</v>
+        <v>74754.48055263565</v>
       </c>
       <c r="C19">
-        <v>1915.699736535185</v>
+        <v>21771.98125788093</v>
       </c>
       <c r="D19">
-        <v>20230.22109818835</v>
+        <v>91678.43424325796</v>
       </c>
       <c r="E19">
-        <v>4115.323899249137</v>
+        <v>7814.948268011798</v>
       </c>
       <c r="F19">
-        <v>1152.622292797626</v>
+        <v>6022.802220054974</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>144.6</v>
+        <v>100.5</v>
       </c>
       <c r="B20">
-        <v>6891.969106383869</v>
+        <v>82994.19335860718</v>
       </c>
       <c r="C20">
-        <v>2794.360984363444</v>
+        <v>27813.67657258425</v>
       </c>
       <c r="D20">
-        <v>22122.58666331514</v>
+        <v>94380.64209493878</v>
       </c>
       <c r="E20">
-        <v>3914.305405988304</v>
+        <v>6951.495990636335</v>
       </c>
       <c r="F20">
-        <v>1543.340768887405</v>
+        <v>6994.264673385302</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>146.5</v>
+        <v>102.9</v>
       </c>
       <c r="B21">
-        <v>10534.07500668798</v>
+        <v>85339.57942257452</v>
       </c>
       <c r="C21">
-        <v>4448.543532712923</v>
+        <v>27725.61407510232</v>
       </c>
       <c r="D21">
-        <v>19379.18449281147</v>
+        <v>97531.73678257402</v>
       </c>
       <c r="E21">
-        <v>4127.131351110076</v>
+        <v>7798.979102207239</v>
       </c>
       <c r="F21">
-        <v>3602.286810715638</v>
+        <v>6474.507477191398</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>149.1</v>
+        <v>106</v>
       </c>
       <c r="B22">
-        <v>11965.37781763064</v>
+        <v>85798.20308853254</v>
       </c>
       <c r="C22">
-        <v>5167.951230454306</v>
+        <v>23604.78334918816</v>
       </c>
       <c r="D22">
-        <v>17310.8446805433</v>
+        <v>96183.56742076956</v>
       </c>
       <c r="E22">
-        <v>4590.472118118809</v>
+        <v>7101.978121319657</v>
       </c>
       <c r="F22">
-        <v>6256.634025849008</v>
+        <v>5595.237765440937</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>151.4</v>
+        <v>108.4</v>
       </c>
       <c r="B23">
-        <v>7558.453381156782</v>
+        <v>78943.58915249987</v>
       </c>
       <c r="C23">
-        <v>6215.119578456303</v>
+        <v>18276.72085170623</v>
       </c>
       <c r="D23">
-        <v>14614.62100045991</v>
+        <v>95804.66210840475</v>
       </c>
       <c r="E23">
-        <v>5800.735104318842</v>
+        <v>7069.461232890559</v>
       </c>
       <c r="F23">
-        <v>12090.09502385161</v>
+        <v>4315.480569247025</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>153.7</v>
+        <v>111.5</v>
       </c>
       <c r="B24">
-        <v>12451.52894468282</v>
+        <v>79702.21281845788</v>
       </c>
       <c r="C24">
-        <v>9502.287926458288</v>
+        <v>16725.89012579207</v>
       </c>
       <c r="D24">
-        <v>21198.39732037653</v>
+        <v>92346.49274660028</v>
       </c>
       <c r="E24">
-        <v>8780.998090518882</v>
+        <v>5892.460252002977</v>
       </c>
       <c r="F24">
-        <v>21113.5560218542</v>
+        <v>3366.210857496564</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>156</v>
+        <v>114.2</v>
       </c>
       <c r="B25">
-        <v>21544.60450820897</v>
+        <v>85353.27214042113</v>
       </c>
       <c r="C25">
-        <v>15629.45627446029</v>
+        <v>15958.0698161249</v>
       </c>
       <c r="D25">
-        <v>23672.17364029316</v>
+        <v>87146.47427018992</v>
       </c>
       <c r="E25">
-        <v>10111.26107671891</v>
+        <v>6530.878752520244</v>
       </c>
       <c r="F25">
-        <v>33687.01701985679</v>
+        <v>2685.234011778421</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>158.6</v>
+        <v>116.9</v>
       </c>
       <c r="B26">
-        <v>22775.90731915162</v>
+        <v>69104.33146238451</v>
       </c>
       <c r="C26">
-        <v>24578.86397220167</v>
+        <v>14800.24950645773</v>
       </c>
       <c r="D26">
-        <v>30413.83382802498</v>
+        <v>80366.45579377955</v>
       </c>
       <c r="E26">
-        <v>13164.60184372765</v>
+        <v>5309.297253037506</v>
       </c>
       <c r="F26">
-        <v>51281.36423499016</v>
+        <v>2554.257166060278</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>160.9</v>
+        <v>119.7</v>
       </c>
       <c r="B27">
-        <v>53968.98288267766</v>
+        <v>64457.28187034659</v>
       </c>
       <c r="C27">
-        <v>38066.03232020368</v>
+        <v>13489.17659272883</v>
       </c>
       <c r="D27">
-        <v>37647.61014794157</v>
+        <v>72749.39959602067</v>
       </c>
       <c r="E27">
-        <v>19004.86482992769</v>
+        <v>5631.360883203566</v>
       </c>
       <c r="F27">
-        <v>69364.82523299278</v>
+        <v>1796.207103834055</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>163.2</v>
+        <v>122.1</v>
       </c>
       <c r="B28">
-        <v>67462.05844620382</v>
+        <v>63002.66793431393</v>
       </c>
       <c r="C28">
-        <v>48093.20066820567</v>
+        <v>13021.1140952469</v>
       </c>
       <c r="D28">
-        <v>40131.38646785819</v>
+        <v>72010.49428365591</v>
       </c>
       <c r="E28">
-        <v>18615.12781612772</v>
+        <v>4848.843994774468</v>
       </c>
       <c r="F28">
-        <v>58888.28623099536</v>
+        <v>1596.449907640144</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>165.5</v>
+        <v>124.5</v>
       </c>
       <c r="B29">
-        <v>73055.13400972995</v>
+        <v>56148.05399828138</v>
       </c>
       <c r="C29">
-        <v>45540.36901620765</v>
+        <v>12263.05159776497</v>
       </c>
       <c r="D29">
-        <v>33285.16278777481</v>
+        <v>66301.58897129114</v>
       </c>
       <c r="E29">
-        <v>14335.39080232775</v>
+        <v>4996.327106345371</v>
       </c>
       <c r="F29">
-        <v>37521.74722899797</v>
+        <v>966.6927114462396</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>167.7</v>
+        <v>126.6</v>
       </c>
       <c r="B30">
-        <v>62235.46715745059</v>
+        <v>47287.76680425293</v>
       </c>
       <c r="C30">
-        <v>40006.79091429653</v>
+        <v>11134.74691246829</v>
       </c>
       <c r="D30">
-        <v>29659.64448508636</v>
+        <v>61103.79682297197</v>
       </c>
       <c r="E30">
-        <v>13251.29452825823</v>
+        <v>5182.874828969909</v>
       </c>
       <c r="F30">
-        <v>36341.57948795696</v>
+        <v>1538.155164776575</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>170</v>
+        <v>128.8</v>
       </c>
       <c r="B31">
-        <v>48928.54272097674</v>
+        <v>44329.37069622306</v>
       </c>
       <c r="C31">
-        <v>45283.95926229854</v>
+        <v>11643.18962310985</v>
       </c>
       <c r="D31">
-        <v>25013.42080500297</v>
+        <v>58618.96695330426</v>
       </c>
       <c r="E31">
-        <v>13911.55751445826</v>
+        <v>4903.067681243237</v>
       </c>
       <c r="F31">
-        <v>39805.04048595956</v>
+        <v>772.5444015988223</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>172.2</v>
+        <v>130.9</v>
       </c>
       <c r="B32">
-        <v>60708.87586869733</v>
+        <v>38969.08350219448</v>
       </c>
       <c r="C32">
-        <v>48530.38116038739</v>
+        <v>11664.88493781316</v>
       </c>
       <c r="D32">
-        <v>28467.90250231454</v>
+        <v>56421.1748049851</v>
       </c>
       <c r="E32">
-        <v>14877.46124038872</v>
+        <v>4279.615403867781</v>
       </c>
       <c r="F32">
-        <v>48144.87274491856</v>
+        <v>1314.006854929158</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>174.5</v>
+        <v>133.4</v>
       </c>
       <c r="B33">
-        <v>54501.95143222349</v>
+        <v>38816.36065216053</v>
       </c>
       <c r="C33">
-        <v>53347.54950838941</v>
+        <v>11933.5698362695</v>
       </c>
       <c r="D33">
-        <v>29971.67882223116</v>
+        <v>55945.23177127178</v>
       </c>
       <c r="E33">
-        <v>15357.72422658876</v>
+        <v>4140.743645087467</v>
       </c>
       <c r="F33">
-        <v>43418.33374292118</v>
+        <v>1647.176442227174</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>177.1</v>
+        <v>135.5</v>
       </c>
       <c r="B34">
-        <v>63733.25424316616</v>
+        <v>39056.07345813207</v>
       </c>
       <c r="C34">
-        <v>51766.95720613077</v>
+        <v>13705.26515097281</v>
       </c>
       <c r="D34">
-        <v>26653.33900996299</v>
+        <v>55687.4396229526</v>
       </c>
       <c r="E34">
-        <v>12571.06499359749</v>
+        <v>3887.291367712012</v>
       </c>
       <c r="F34">
-        <v>28872.68095805454</v>
+        <v>1068.638895557502</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>179.3</v>
+        <v>137.6</v>
       </c>
       <c r="B35">
-        <v>65113.58739088677</v>
+        <v>33695.78626410361</v>
       </c>
       <c r="C35">
-        <v>46603.37910421965</v>
+        <v>13406.96046567612</v>
       </c>
       <c r="D35">
-        <v>20297.82070727453</v>
+        <v>54309.64747463344</v>
       </c>
       <c r="E35">
-        <v>9316.968719527962</v>
+        <v>5213.83909033655</v>
       </c>
       <c r="F35">
-        <v>22422.51321701354</v>
+        <v>1290.101348887837</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>181.6</v>
+        <v>139.8</v>
       </c>
       <c r="B36">
-        <v>49106.66295441292</v>
+        <v>43037.39015607375</v>
       </c>
       <c r="C36">
-        <v>41410.54745222164</v>
+        <v>13155.40317631768</v>
       </c>
       <c r="D36">
-        <v>17201.59702719115</v>
+        <v>53904.81760496573</v>
       </c>
       <c r="E36">
-        <v>9507.231705727998</v>
+        <v>5844.031942609878</v>
       </c>
       <c r="F36">
-        <v>19135.97421501614</v>
+        <v>1504.490585710092</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>183.8</v>
+        <v>142.1</v>
       </c>
       <c r="B37">
-        <v>37886.99610213353</v>
+        <v>42580.88513404249</v>
       </c>
       <c r="C37">
-        <v>39916.96935031051</v>
+        <v>12430.5932828975</v>
       </c>
       <c r="D37">
-        <v>16246.07872450269</v>
+        <v>53762.95001394951</v>
       </c>
       <c r="E37">
-        <v>8413.135431658462</v>
+        <v>5547.869924531997</v>
       </c>
       <c r="F37">
-        <v>15625.80647397514</v>
+        <v>1831.80660602426</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>186.4</v>
+        <v>144.6</v>
       </c>
       <c r="B38">
-        <v>35918.29891307607</v>
+        <v>39828.16228400854</v>
       </c>
       <c r="C38">
-        <v>38876.3770480519</v>
+        <v>13209.27818135383</v>
       </c>
       <c r="D38">
-        <v>13717.73891223452</v>
+        <v>55247.00698023621</v>
       </c>
       <c r="E38">
-        <v>8416.476198667202</v>
+        <v>5328.998165751684</v>
       </c>
       <c r="F38">
-        <v>13570.15368910852</v>
+        <v>2204.976193322277</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>188.7</v>
+        <v>146.5</v>
       </c>
       <c r="B39">
-        <v>31511.37447660221</v>
+        <v>43264.09291798276</v>
       </c>
       <c r="C39">
-        <v>37573.54539605389</v>
+        <v>14787.47870418063</v>
       </c>
       <c r="D39">
-        <v>12461.51523215114</v>
+        <v>52193.2902746141</v>
       </c>
       <c r="E39">
-        <v>7506.739184867235</v>
+        <v>5528.255629078654</v>
       </c>
       <c r="F39">
-        <v>12383.61468711111</v>
+        <v>4250.585079668771</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>190.9</v>
+        <v>149.1</v>
       </c>
       <c r="B40">
-        <v>30891.70762432295</v>
+        <v>44413.26115394753</v>
       </c>
       <c r="C40">
-        <v>36519.96729414276</v>
+        <v>15402.91099857521</v>
       </c>
       <c r="D40">
-        <v>12555.99692946268</v>
+        <v>49700.30951955228</v>
       </c>
       <c r="E40">
-        <v>6902.642910797701</v>
+        <v>5973.028999947132</v>
       </c>
       <c r="F40">
-        <v>10803.44694607012</v>
+        <v>6886.6814504587</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>193.2</v>
+        <v>151.4</v>
       </c>
       <c r="B41">
-        <v>23984.78318784898</v>
+        <v>39756.75613191627</v>
       </c>
       <c r="C41">
-        <v>36197.13564214475</v>
+        <v>16358.10110515504</v>
       </c>
       <c r="D41">
-        <v>10709.7732493793</v>
+        <v>46628.44192853604</v>
       </c>
       <c r="E41">
-        <v>6142.90589699774</v>
+        <v>7166.866981869243</v>
       </c>
       <c r="F41">
-        <v>9816.907944072716</v>
+        <v>12703.99747077288</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>195.5</v>
+        <v>153.7</v>
       </c>
       <c r="B42">
-        <v>25877.85875137514</v>
+        <v>44400.25110988512</v>
       </c>
       <c r="C42">
-        <v>38024.30399014673</v>
+        <v>19553.29121173486</v>
       </c>
       <c r="D42">
-        <v>8263.549569295916</v>
+        <v>52836.57433751982</v>
       </c>
       <c r="E42">
-        <v>6363.168883197774</v>
+        <v>10130.70496379136</v>
       </c>
       <c r="F42">
-        <v>10340.36894207531</v>
+        <v>21711.31349108705</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>198.1</v>
+        <v>156</v>
       </c>
       <c r="B43">
-        <v>23309.16156231779</v>
+        <v>53243.74608785385</v>
       </c>
       <c r="C43">
-        <v>35253.71168788814</v>
+        <v>25588.48131831467</v>
       </c>
       <c r="D43">
-        <v>8405.209757027747</v>
+        <v>54934.70674650358</v>
       </c>
       <c r="E43">
-        <v>6676.509650206507</v>
+        <v>11444.54294571347</v>
       </c>
       <c r="F43">
-        <v>9924.716157208682</v>
+        <v>34268.62951140122</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>200.4</v>
+        <v>158.6</v>
       </c>
       <c r="B44">
-        <v>17802.23712584382</v>
+        <v>54192.91432381852</v>
       </c>
       <c r="C44">
-        <v>34560.88003589011</v>
+        <v>34433.91361270925</v>
       </c>
       <c r="D44">
-        <v>9538.986076944362</v>
+        <v>61251.72599144174</v>
       </c>
       <c r="E44">
-        <v>6876.772636406547</v>
+        <v>14479.31631658196</v>
       </c>
       <c r="F44">
-        <v>9128.17715521128</v>
+        <v>51844.72588219117</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>202.6</v>
+        <v>160.9</v>
       </c>
       <c r="B45">
-        <v>19982.57027356455</v>
+        <v>85136.40930178737</v>
       </c>
       <c r="C45">
-        <v>34697.30193397899</v>
+        <v>47829.10371928909</v>
       </c>
       <c r="D45">
-        <v>8003.467774255907</v>
+        <v>68109.8584004255</v>
       </c>
       <c r="E45">
-        <v>5812.676362337013</v>
+        <v>20303.15429850407</v>
       </c>
       <c r="F45">
-        <v>9158.009414170287</v>
+        <v>69912.04190250533</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>204.9</v>
+        <v>163.2</v>
       </c>
       <c r="B46">
-        <v>18275.64583709059</v>
+        <v>98379.9042797561</v>
       </c>
       <c r="C46">
-        <v>34314.47028198098</v>
+        <v>57764.2938258689</v>
       </c>
       <c r="D46">
-        <v>6097.244094172522</v>
+        <v>70217.99080940927</v>
       </c>
       <c r="E46">
-        <v>5652.939348537045</v>
+        <v>19896.99228042618</v>
       </c>
       <c r="F46">
-        <v>9111.470412172883</v>
+        <v>59419.3579228195</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>207.2</v>
+        <v>165.5</v>
       </c>
       <c r="B47">
-        <v>19068.72140061675</v>
+        <v>103723.399257725</v>
       </c>
       <c r="C47">
-        <v>34321.63862998299</v>
+        <v>55119.4839324487</v>
       </c>
       <c r="D47">
-        <v>5441.020414089144</v>
+        <v>62996.12321839304</v>
       </c>
       <c r="E47">
-        <v>6133.202334737085</v>
+        <v>15600.8302623483</v>
       </c>
       <c r="F47">
-        <v>8994.931410175479</v>
+        <v>38036.67394313368</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>209.8</v>
+        <v>167.7</v>
       </c>
       <c r="B48">
-        <v>19500.0242115594</v>
+        <v>92665.0031496951</v>
       </c>
       <c r="C48">
-        <v>32011.04632772436</v>
+        <v>49497.92664309029</v>
       </c>
       <c r="D48">
-        <v>7852.680601820975</v>
+        <v>59011.29334872533</v>
       </c>
       <c r="E48">
-        <v>5256.543101745811</v>
+        <v>14501.02311462163</v>
       </c>
       <c r="F48">
-        <v>8459.278625308851</v>
+        <v>36841.06317995593</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>211.7</v>
+        <v>170</v>
       </c>
       <c r="B49">
-        <v>25542.1301118635</v>
+        <v>79108.49812766384</v>
       </c>
       <c r="C49">
-        <v>32415.22887607385</v>
+        <v>54683.1167496701</v>
       </c>
       <c r="D49">
-        <v>7119.278431317303</v>
+        <v>53989.4257577091</v>
       </c>
       <c r="E49">
-        <v>5459.369046867583</v>
+        <v>15144.86109654375</v>
       </c>
       <c r="F49">
-        <v>8158.224667137083</v>
+        <v>40288.3792002701</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>214.3</v>
+        <v>172.2</v>
       </c>
       <c r="B50">
-        <v>34973.43292280615</v>
+        <v>90650.10201963398</v>
       </c>
       <c r="C50">
-        <v>32524.63657381522</v>
+        <v>57841.55946031166</v>
       </c>
       <c r="D50">
-        <v>6250.938619049135</v>
+        <v>57084.59588804141</v>
       </c>
       <c r="E50">
-        <v>5532.709813876317</v>
+        <v>16095.05394881708</v>
       </c>
       <c r="F50">
-        <v>8492.571882270453</v>
+        <v>48612.76843709236</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>216.6</v>
+        <v>174.5</v>
       </c>
       <c r="B51">
-        <v>48966.50848633231</v>
+        <v>84193.59699760271</v>
       </c>
       <c r="C51">
-        <v>32361.80492181723</v>
+        <v>62566.74956689149</v>
       </c>
       <c r="D51">
-        <v>6794.71493896575</v>
+        <v>58212.72829702517</v>
       </c>
       <c r="E51">
-        <v>4862.972800076357</v>
+        <v>16558.89193073919</v>
       </c>
       <c r="F51">
-        <v>7906.03288027305</v>
+        <v>43870.08445740653</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>218.8</v>
+        <v>177.1</v>
       </c>
       <c r="B52">
-        <v>62946.84163405292</v>
+        <v>93142.76523356748</v>
       </c>
       <c r="C52">
-        <v>33808.22681990608</v>
+        <v>60882.18186128608</v>
       </c>
       <c r="D52">
-        <v>6289.196636277295</v>
+        <v>54469.74754196336</v>
       </c>
       <c r="E52">
-        <v>5248.876526006822</v>
+        <v>13753.66530160767</v>
       </c>
       <c r="F52">
-        <v>8095.865139232055</v>
+        <v>29306.18082819647</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>221.2</v>
+        <v>179.3</v>
       </c>
       <c r="B53">
-        <v>93752.65961338452</v>
+        <v>94284.36912553762</v>
       </c>
       <c r="C53">
-        <v>33636.14161782122</v>
+        <v>55630.62457192763</v>
       </c>
       <c r="D53">
-        <v>5782.267578798987</v>
+        <v>47754.91767229565</v>
       </c>
       <c r="E53">
-        <v>6583.498772476422</v>
+        <v>10483.85815388099</v>
       </c>
       <c r="F53">
-        <v>8072.954876278244</v>
+        <v>22840.57006501872</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>223.7</v>
+        <v>181.6</v>
       </c>
       <c r="B54">
-        <v>111171.2200085216</v>
+        <v>78027.86410350636</v>
       </c>
       <c r="C54">
-        <v>31404.80286564949</v>
+        <v>50345.81467850744</v>
       </c>
       <c r="D54">
-        <v>5244.633143925741</v>
+        <v>44283.05008127942</v>
       </c>
       <c r="E54">
-        <v>5352.480279215589</v>
+        <v>10657.69613580311</v>
       </c>
       <c r="F54">
-        <v>8053.673352368023</v>
+        <v>19537.88608533289</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>226</v>
+        <v>183.8</v>
       </c>
       <c r="B55">
-        <v>146364.2955720478</v>
+        <v>66569.4679954765</v>
       </c>
       <c r="C55">
-        <v>32841.97121365147</v>
+        <v>48764.257389149</v>
       </c>
       <c r="D55">
-        <v>6678.409463842356</v>
+        <v>42968.22021161168</v>
       </c>
       <c r="E55">
-        <v>3912.743265415628</v>
+        <v>9547.888988076435</v>
       </c>
       <c r="F55">
-        <v>7137.13435037062</v>
+        <v>16012.27532215515</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>228.3</v>
+        <v>186.4</v>
       </c>
       <c r="B56">
-        <v>195257.3711355739</v>
+        <v>64318.63623144127</v>
       </c>
       <c r="C56">
-        <v>29219.13956165345</v>
+        <v>47619.68968354358</v>
       </c>
       <c r="D56">
-        <v>5332.185783758978</v>
+        <v>40015.23945654986</v>
       </c>
       <c r="E56">
-        <v>4273.006251615661</v>
+        <v>9532.662358944919</v>
       </c>
       <c r="F56">
-        <v>7030.595348373225</v>
+        <v>13938.37169294508</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>230.5</v>
+        <v>188.7</v>
       </c>
       <c r="B57">
-        <v>230237.7042832946</v>
+        <v>59662.13120941</v>
       </c>
       <c r="C57">
-        <v>28485.56145974233</v>
+        <v>46224.87979012343</v>
       </c>
       <c r="D57">
-        <v>4636.667481070523</v>
+        <v>38383.37186553363</v>
       </c>
       <c r="E57">
-        <v>4728.909977546127</v>
+        <v>8606.500340867038</v>
       </c>
       <c r="F57">
-        <v>7150.427607332223</v>
+        <v>12735.68771325925</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>232.8</v>
+        <v>190.9</v>
       </c>
       <c r="B58">
-        <v>271730.7798468207</v>
+        <v>58803.73510138014</v>
       </c>
       <c r="C58">
-        <v>28922.72980774432</v>
+        <v>45083.32250076498</v>
       </c>
       <c r="D58">
-        <v>4440.443800987137</v>
+        <v>38118.54199586593</v>
       </c>
       <c r="E58">
-        <v>4639.172963746167</v>
+        <v>7986.69319314036</v>
       </c>
       <c r="F58">
-        <v>6513.888605334827</v>
+        <v>11140.07695008151</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>235.4</v>
+        <v>193.2</v>
       </c>
       <c r="B59">
-        <v>324962.0826577632</v>
+        <v>51647.230079349</v>
       </c>
       <c r="C59">
-        <v>30702.13750548572</v>
+        <v>44668.51260734479</v>
       </c>
       <c r="D59">
-        <v>3732.103988718969</v>
+        <v>35896.6744048497</v>
       </c>
       <c r="E59">
-        <v>4842.5137307549</v>
+        <v>7210.531175062479</v>
       </c>
       <c r="F59">
-        <v>6998.235820468198</v>
+        <v>10137.39297039568</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>237.4</v>
+        <v>195.5</v>
       </c>
       <c r="B60">
-        <v>365716.9309738729</v>
+        <v>53290.72505731773</v>
       </c>
       <c r="C60">
-        <v>30307.06650374832</v>
+        <v>46403.70271392463</v>
       </c>
       <c r="D60">
-        <v>4677.996440820381</v>
+        <v>33074.80681383346</v>
       </c>
       <c r="E60">
-        <v>4499.698936146232</v>
+        <v>7414.369156984591</v>
       </c>
       <c r="F60">
-        <v>6540.810601340021</v>
+        <v>10644.70899070985</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>240</v>
+        <v>198.1</v>
       </c>
       <c r="B61">
-        <v>409448.2337848155</v>
+        <v>50439.8932932824</v>
       </c>
       <c r="C61">
-        <v>31086.47420148971</v>
+        <v>43529.13500831921</v>
       </c>
       <c r="D61">
-        <v>4799.656628552206</v>
+        <v>32791.82605877164</v>
       </c>
       <c r="E61">
-        <v>4383.039703154973</v>
+        <v>7709.142527853068</v>
       </c>
       <c r="F61">
-        <v>6525.157816473392</v>
+        <v>10210.80536149979</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>242.3</v>
+        <v>200.4</v>
       </c>
       <c r="B62">
-        <v>451141.3093483416</v>
+        <v>44683.38827125124</v>
       </c>
       <c r="C62">
-        <v>28783.64254949169</v>
+        <v>42744.32511489902</v>
       </c>
       <c r="D62">
-        <v>4533.432948468828</v>
+        <v>33549.95846775538</v>
       </c>
       <c r="E62">
-        <v>4853.302689355005</v>
+        <v>7892.980509775187</v>
       </c>
       <c r="F62">
-        <v>6218.618814475989</v>
+        <v>9398.121381813962</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>244.5</v>
+        <v>202.6</v>
       </c>
       <c r="B63">
-        <v>492521.6424960623</v>
+        <v>46624.99216322138</v>
       </c>
       <c r="C63">
-        <v>29800.06444758057</v>
+        <v>42792.76782554058</v>
       </c>
       <c r="D63">
-        <v>3207.914645780365</v>
+        <v>31655.12859808768</v>
       </c>
       <c r="E63">
-        <v>4089.206415285471</v>
+        <v>6813.173362048516</v>
       </c>
       <c r="F63">
-        <v>5838.451073434995</v>
+        <v>9412.51061863621</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>247.1</v>
+        <v>204.9</v>
       </c>
       <c r="B64">
-        <v>523652.9453070049</v>
+        <v>44668.48714119012</v>
       </c>
       <c r="C64">
-        <v>31889.47214532194</v>
+        <v>42317.95793212041</v>
       </c>
       <c r="D64">
-        <v>2199.574833512197</v>
+        <v>29373.26100707145</v>
       </c>
       <c r="E64">
-        <v>3992.547182294212</v>
+        <v>6637.011343970635</v>
       </c>
       <c r="F64">
-        <v>5342.798288568365</v>
+        <v>9349.826638950386</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>249.1</v>
+        <v>207.2</v>
       </c>
       <c r="B65">
-        <v>562407.7936231147</v>
+        <v>45211.98211915897</v>
       </c>
       <c r="C65">
-        <v>26454.40114358457</v>
+        <v>42233.14803870022</v>
       </c>
       <c r="D65">
-        <v>4355.467285613602</v>
+        <v>28341.39341605522</v>
       </c>
       <c r="E65">
-        <v>4679.732387685543</v>
+        <v>7100.849325892746</v>
       </c>
       <c r="F65">
-        <v>5915.373069440189</v>
+        <v>9217.142659264562</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>251.7</v>
+        <v>209.8</v>
       </c>
       <c r="B66">
-        <v>600139.096434057</v>
+        <v>45361.15035512363</v>
       </c>
       <c r="C66">
-        <v>27553.80884132594</v>
+        <v>39818.5803330948</v>
       </c>
       <c r="D66">
-        <v>3007.127473345434</v>
+        <v>30328.4126609934</v>
       </c>
       <c r="E66">
-        <v>3613.073154694277</v>
+        <v>6205.622696761224</v>
       </c>
       <c r="F66">
-        <v>5269.720284573559</v>
+        <v>8663.239030054498</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>254</v>
+        <v>211.7</v>
       </c>
       <c r="B67">
-        <v>654532.1719975832</v>
+        <v>51197.08098909786</v>
       </c>
       <c r="C67">
-        <v>29410.97718932795</v>
+        <v>40146.78085592162</v>
       </c>
       <c r="D67">
-        <v>3350.903793262056</v>
+        <v>29284.69595537129</v>
       </c>
       <c r="E67">
-        <v>3783.33614089431</v>
+        <v>6394.880160088194</v>
       </c>
       <c r="F67">
-        <v>4903.181282576156</v>
+        <v>8348.847916400986</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>256.6</v>
+        <v>214.3</v>
       </c>
       <c r="B68">
-        <v>684863.4748085258</v>
+        <v>60346.24922506262</v>
       </c>
       <c r="C68">
-        <v>26350.38488706932</v>
+        <v>40152.21315031617</v>
       </c>
       <c r="D68">
-        <v>1262.563980993888</v>
+        <v>27991.71520030946</v>
       </c>
       <c r="E68">
-        <v>3296.676907903043</v>
+        <v>6449.653530956672</v>
       </c>
       <c r="F68">
-        <v>4207.528497709526</v>
+        <v>8664.944287190921</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>258.8</v>
+        <v>216.6</v>
       </c>
       <c r="B69">
-        <v>701143.8079562467</v>
+        <v>74089.74420303135</v>
       </c>
       <c r="C69">
-        <v>26416.80678515819</v>
+        <v>39897.40325689601</v>
       </c>
       <c r="D69">
-        <v>1417.045678305425</v>
+        <v>28159.84760929323</v>
       </c>
       <c r="E69">
-        <v>3042.580633833516</v>
+        <v>5763.491512878783</v>
       </c>
       <c r="F69">
-        <v>4517.360756668532</v>
+        <v>8062.260307505097</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>261.1</v>
+        <v>218.8</v>
       </c>
       <c r="B70">
-        <v>740236.8835197727</v>
+        <v>87831.34809500149</v>
       </c>
       <c r="C70">
-        <v>26253.97513316018</v>
+        <v>41255.84596753756</v>
       </c>
       <c r="D70">
-        <v>2710.821998222047</v>
+        <v>27295.01773962553</v>
       </c>
       <c r="E70">
-        <v>2862.843620033549</v>
+        <v>6133.684365152112</v>
       </c>
       <c r="F70">
-        <v>4200.821754671129</v>
+        <v>8236.649544327352</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>263.4</v>
+        <v>221.2</v>
       </c>
       <c r="B71">
-        <v>770429.9590832987</v>
+        <v>118376.734158969</v>
       </c>
       <c r="C71">
-        <v>24541.14348116219</v>
+        <v>40987.78347005566</v>
       </c>
       <c r="D71">
-        <v>1424.598318138655</v>
+        <v>26396.11242726077</v>
       </c>
       <c r="E71">
-        <v>3333.106606233589</v>
+        <v>7451.167476723014</v>
       </c>
       <c r="F71">
-        <v>3464.282752673727</v>
+        <v>8196.892348133442</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>265.7</v>
+        <v>223.7</v>
       </c>
       <c r="B72">
-        <v>780723.0346468247</v>
+        <v>135524.011308935</v>
       </c>
       <c r="C72">
-        <v>24938.31182916418</v>
+        <v>38656.46836851199</v>
       </c>
       <c r="D72">
-        <v>1788.374638055277</v>
+        <v>25450.16939354745</v>
       </c>
       <c r="E72">
-        <v>2713.369592433622</v>
+        <v>6202.295717942709</v>
       </c>
       <c r="F72">
-        <v>3407.743750676324</v>
+        <v>8160.061935431459</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="B73">
-        <v>772416.1102103509</v>
+        <v>170467.5062869038</v>
       </c>
       <c r="C73">
-        <v>20905.48017716616</v>
+        <v>40001.6584750918</v>
       </c>
       <c r="D73">
-        <v>722.1509579718695</v>
+        <v>26508.30180253122</v>
       </c>
       <c r="E73">
-        <v>2393.632578633654</v>
+        <v>4746.13369986482</v>
       </c>
       <c r="F73">
-        <v>3321.204748678921</v>
+        <v>7227.377955745634</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>270.6</v>
+        <v>228.3</v>
       </c>
       <c r="B74">
-        <v>744947.4130212937</v>
+        <v>219111.0012648726</v>
       </c>
       <c r="C74">
-        <v>24604.88787490756</v>
+        <v>36286.84858167161</v>
       </c>
       <c r="D74">
-        <v>1183.811145703701</v>
+        <v>24786.43421151498</v>
       </c>
       <c r="E74">
-        <v>2816.973345642387</v>
+        <v>5089.971681786939</v>
       </c>
       <c r="F74">
-        <v>2805.551963812291</v>
+        <v>7104.693976059802</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>272.8</v>
+        <v>230.5</v>
       </c>
       <c r="B75">
-        <v>690227.7461690144</v>
+        <v>253852.6051568427</v>
       </c>
       <c r="C75">
-        <v>20351.30977299644</v>
+        <v>35465.2912923132</v>
       </c>
       <c r="D75">
-        <v>2128.292843015268</v>
+        <v>23731.60434184728</v>
       </c>
       <c r="E75">
-        <v>1312.877071572861</v>
+        <v>5530.164534060268</v>
       </c>
       <c r="F75">
-        <v>3135.384222771297</v>
+        <v>7209.083212882057</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>275.1</v>
+        <v>232.8</v>
       </c>
       <c r="B76">
-        <v>648820.8217325404</v>
+        <v>295096.1001348115</v>
       </c>
       <c r="C76">
-        <v>20538.47812099842</v>
+        <v>35810.481398893</v>
       </c>
       <c r="D76">
-        <v>1992.06916293189</v>
+        <v>23159.73675083105</v>
       </c>
       <c r="E76">
-        <v>3323.140057772893</v>
+        <v>5424.00251598238</v>
       </c>
       <c r="F76">
-        <v>2698.845220773893</v>
+        <v>6556.399233196233</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>277.3</v>
+        <v>235.4</v>
       </c>
       <c r="B77">
-        <v>589101.154880261</v>
+        <v>348045.2683707761</v>
       </c>
       <c r="C77">
-        <v>20274.90001908729</v>
+        <v>37485.91369328758</v>
       </c>
       <c r="D77">
-        <v>3346.550860243427</v>
+        <v>22026.75599576923</v>
       </c>
       <c r="E77">
-        <v>2059.043783703359</v>
+        <v>5608.775886850864</v>
       </c>
       <c r="F77">
-        <v>2318.677479732899</v>
+        <v>7022.495603986163</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>279.6</v>
+        <v>237.4</v>
       </c>
       <c r="B78">
-        <v>526394.2304437871</v>
+        <v>388583.0900907491</v>
       </c>
       <c r="C78">
-        <v>19022.06836708928</v>
+        <v>37010.86161205264</v>
       </c>
       <c r="D78">
-        <v>2610.327180160049</v>
+        <v>22646.00156879859</v>
       </c>
       <c r="E78">
-        <v>2909.306769903399</v>
+        <v>5251.678479826611</v>
       </c>
       <c r="F78">
-        <v>2192.138477735496</v>
+        <v>6551.031273824577</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>281.9</v>
+        <v>240</v>
       </c>
       <c r="B79">
-        <v>487487.3060073133</v>
+        <v>432032.2583267138</v>
       </c>
       <c r="C79">
-        <v>19029.23671509129</v>
+        <v>37686.29390644722</v>
       </c>
       <c r="D79">
-        <v>2174.103500076671</v>
+        <v>22343.02081373677</v>
       </c>
       <c r="E79">
-        <v>2919.569756103431</v>
+        <v>5116.451850695095</v>
       </c>
       <c r="F79">
-        <v>2225.599475738094</v>
+        <v>6517.127644614513</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>284.5</v>
+        <v>242.3</v>
       </c>
       <c r="B80">
-        <v>459218.6088182559</v>
+        <v>473475.7533046826</v>
       </c>
       <c r="C80">
-        <v>21428.64441283266</v>
+        <v>35291.48401302703</v>
       </c>
       <c r="D80">
-        <v>3835.763687808496</v>
+        <v>21701.15322272053</v>
       </c>
       <c r="E80">
-        <v>2242.910523112165</v>
+        <v>5570.289832617207</v>
       </c>
       <c r="F80">
-        <v>1809.946690871464</v>
+        <v>6194.443664928682</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>286.5</v>
+        <v>244.5</v>
       </c>
       <c r="B81">
-        <v>428173.4571343656</v>
+        <v>514617.3571966527</v>
       </c>
       <c r="C81">
-        <v>20203.57341109526</v>
+        <v>36219.92672366861</v>
       </c>
       <c r="D81">
-        <v>4131.656139909879</v>
+        <v>20016.32335305281</v>
       </c>
       <c r="E81">
-        <v>1680.095728503504</v>
+        <v>4790.482684890536</v>
       </c>
       <c r="F81">
-        <v>2352.521471743287</v>
+        <v>5798.832901750938</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>289.1</v>
+        <v>247.1</v>
       </c>
       <c r="B82">
-        <v>410204.7599453081</v>
+        <v>545466.5254326175</v>
       </c>
       <c r="C82">
-        <v>20912.98110883666</v>
+        <v>38205.35901806317</v>
       </c>
       <c r="D82">
-        <v>3913.316327641704</v>
+        <v>18583.34259799098</v>
       </c>
       <c r="E82">
-        <v>2373.43649551223</v>
+        <v>4675.256055759013</v>
       </c>
       <c r="F82">
-        <v>1556.868686876658</v>
+        <v>5284.929272540874</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>291.4</v>
+        <v>249.1</v>
       </c>
       <c r="B83">
-        <v>386997.8355088343</v>
+        <v>584004.3471525902</v>
       </c>
       <c r="C83">
-        <v>21010.14945683867</v>
+        <v>32690.30693682824</v>
       </c>
       <c r="D83">
-        <v>3557.092647558326</v>
+        <v>20412.58817102034</v>
       </c>
       <c r="E83">
-        <v>2083.69948171227</v>
+        <v>5348.158648734767</v>
       </c>
       <c r="F83">
-        <v>1920.329684879255</v>
+        <v>5843.464942379282</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>293.7</v>
+        <v>251.7</v>
       </c>
       <c r="B84">
-        <v>355890.9110723604</v>
+        <v>621453.515388555</v>
       </c>
       <c r="C84">
-        <v>21147.31780484066</v>
+        <v>33685.73923122283</v>
       </c>
       <c r="D84">
-        <v>3490.868967474948</v>
+        <v>18639.60741595852</v>
       </c>
       <c r="E84">
-        <v>1743.96246791231</v>
+        <v>4262.932019603244</v>
       </c>
       <c r="F84">
-        <v>1833.790682881852</v>
+        <v>5179.561313169218</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>295.9</v>
+        <v>254</v>
       </c>
       <c r="B85">
-        <v>335671.244220081</v>
+        <v>675597.0103665238</v>
       </c>
       <c r="C85">
-        <v>25713.73970292954</v>
+        <v>35450.92933780264</v>
       </c>
       <c r="D85">
-        <v>2835.350664786514</v>
+        <v>18607.73982494229</v>
       </c>
       <c r="E85">
-        <v>2229.866193842776</v>
+        <v>4416.770001525363</v>
       </c>
       <c r="F85">
-        <v>2193.622941840858</v>
+        <v>4796.877333483394</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>298.3</v>
+        <v>256.6</v>
       </c>
       <c r="B86">
-        <v>316677.0621994126</v>
+        <v>705646.1786024885</v>
       </c>
       <c r="C86">
-        <v>25591.65450084466</v>
+        <v>32286.36163219721</v>
       </c>
       <c r="D86">
-        <v>2428.421607308184</v>
+        <v>16094.75906988046</v>
       </c>
       <c r="E86">
-        <v>1764.488440312375</v>
+        <v>3911.543372393841</v>
       </c>
       <c r="F86">
-        <v>4070.712678887046</v>
+        <v>4082.97370427333</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>300.9</v>
+        <v>258.8</v>
       </c>
       <c r="B87">
-        <v>310408.3650103552</v>
+        <v>721687.7824944586</v>
       </c>
       <c r="C87">
-        <v>23201.06219858602</v>
+        <v>32264.80434283878</v>
       </c>
       <c r="D87">
-        <v>2110.081795040009</v>
+        <v>15889.92920021276</v>
       </c>
       <c r="E87">
-        <v>1557.829207321109</v>
+        <v>3641.736224667169</v>
       </c>
       <c r="F87">
-        <v>1475.059894020417</v>
+        <v>4377.362941095585</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>303.1</v>
+        <v>261.1</v>
       </c>
       <c r="B88">
-        <v>287788.6981580759</v>
+        <v>760531.2774724273</v>
       </c>
       <c r="C88">
-        <v>27417.4840966749</v>
+        <v>32009.99444941861</v>
       </c>
       <c r="D88">
-        <v>2844.563492351554</v>
+        <v>16808.0616091965</v>
       </c>
       <c r="E88">
-        <v>2133.732933251574</v>
+        <v>3445.574206589281</v>
       </c>
       <c r="F88">
-        <v>1494.892152979422</v>
+        <v>4044.678961409753</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>305.7</v>
+        <v>263.4</v>
       </c>
       <c r="B89">
-        <v>271120.0009690184</v>
+        <v>790474.7724503961</v>
       </c>
       <c r="C89">
-        <v>26686.8917944163</v>
+        <v>30205.18455599843</v>
       </c>
       <c r="D89">
-        <v>1056.223680083407</v>
+        <v>15146.19401818027</v>
       </c>
       <c r="E89">
-        <v>1497.073700260315</v>
+        <v>3899.4121885114</v>
       </c>
       <c r="F89">
-        <v>1499.239368112793</v>
+        <v>3291.994981723923</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>308</v>
+        <v>265.7</v>
       </c>
       <c r="B90">
-        <v>265613.0765325446</v>
+        <v>800518.2674283648</v>
       </c>
       <c r="C90">
-        <v>26954.06014241828</v>
+        <v>30510.37466257825</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>15134.32642716404</v>
       </c>
       <c r="E90">
-        <v>1217.336686460348</v>
+        <v>3263.25017043352</v>
       </c>
       <c r="F90">
-        <v>1332.700366115389</v>
+        <v>3219.311002038098</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>310.2</v>
+        <v>268</v>
       </c>
       <c r="B91">
-        <v>253693.4096802652</v>
+        <v>791961.7624063338</v>
       </c>
       <c r="C91">
-        <v>29900.48204050716</v>
+        <v>26385.56476915806</v>
       </c>
       <c r="D91">
-        <v>2704.481697311567</v>
+        <v>13692.45883614781</v>
       </c>
       <c r="E91">
-        <v>1793.240412390814</v>
+        <v>2927.088152355631</v>
       </c>
       <c r="F91">
-        <v>1552.532625074396</v>
+        <v>3116.627022352273</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>312.5</v>
+        <v>270.6</v>
       </c>
       <c r="B92">
-        <v>239686.4852437913</v>
+        <v>764210.9306422983</v>
       </c>
       <c r="C92">
-        <v>27117.65038850914</v>
+        <v>29980.99706355264</v>
       </c>
       <c r="D92">
-        <v>758.2580172281596</v>
+        <v>13729.47808108598</v>
       </c>
       <c r="E92">
-        <v>1143.503398590853</v>
+        <v>3331.861523224109</v>
       </c>
       <c r="F92">
-        <v>1595.993623076993</v>
+        <v>2582.72339314221</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>314.8</v>
+        <v>272.8</v>
       </c>
       <c r="B93">
-        <v>236779.5608073175</v>
+        <v>709252.5345342684</v>
       </c>
       <c r="C93">
-        <v>26254.81873651113</v>
+        <v>25639.4397741942</v>
       </c>
       <c r="D93">
-        <v>1382.034337144782</v>
+        <v>14314.64821141828</v>
       </c>
       <c r="E93">
-        <v>1413.766384790886</v>
+        <v>1812.054375497437</v>
       </c>
       <c r="F93">
-        <v>1489.454621079589</v>
+        <v>2897.112629964466</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>317</v>
+        <v>275.1</v>
       </c>
       <c r="B94">
-        <v>218159.8939550381</v>
+        <v>667596.0295122374</v>
       </c>
       <c r="C94">
-        <v>21621.2406346</v>
+        <v>25734.62988077404</v>
       </c>
       <c r="D94">
-        <v>666.5160344563483</v>
+        <v>13802.78062040205</v>
       </c>
       <c r="E94">
-        <v>1339.670110721351</v>
+        <v>3805.892357419556</v>
       </c>
       <c r="F94">
-        <v>1169.286880038595</v>
+        <v>2444.428650278634</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>319.7</v>
+        <v>277.3</v>
       </c>
       <c r="B95">
-        <v>215003.9391817861</v>
+        <v>607637.6334042075</v>
       </c>
       <c r="C95">
-        <v>19801.39478225454</v>
+        <v>25383.0725914156</v>
       </c>
       <c r="D95">
-        <v>1597.470844793228</v>
+        <v>14797.95075073435</v>
       </c>
       <c r="E95">
-        <v>1177.370137999659</v>
+        <v>2526.085209692884</v>
       </c>
       <c r="F95">
-        <v>1217.262834215557</v>
+        <v>2048.817887100889</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>321.9</v>
+        <v>279.6</v>
       </c>
       <c r="B96">
-        <v>201284.2723295068</v>
+        <v>544681.1283821763</v>
       </c>
       <c r="C96">
-        <v>20197.81668034339</v>
+        <v>24038.2626979954</v>
       </c>
       <c r="D96">
-        <v>61.9525421047947</v>
+        <v>13686.08315971812</v>
       </c>
       <c r="E96">
-        <v>993.2738639301251</v>
+        <v>3359.923191614996</v>
       </c>
       <c r="F96">
-        <v>1537.095093174563</v>
+        <v>1906.133907415064</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>324.2</v>
+        <v>281.9</v>
       </c>
       <c r="B97">
-        <v>198977.3478930329</v>
+        <v>505524.623360145</v>
       </c>
       <c r="C97">
-        <v>18244.9850283454</v>
+        <v>23953.45280457524</v>
       </c>
       <c r="D97">
-        <v>2225.728862021417</v>
+        <v>12874.21556870189</v>
       </c>
       <c r="E97">
-        <v>1553.536850130158</v>
+        <v>3353.761173537116</v>
       </c>
       <c r="F97">
-        <v>1560.55609117716</v>
+        <v>1923.449927729234</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>326.5</v>
+        <v>284.5</v>
       </c>
       <c r="B98">
-        <v>194570.4234565591</v>
+        <v>476973.7915961098</v>
       </c>
       <c r="C98">
-        <v>15252.15337634738</v>
+        <v>26248.88509896983</v>
       </c>
       <c r="D98">
-        <v>1979.505181938002</v>
+        <v>14111.23481364004</v>
       </c>
       <c r="E98">
-        <v>1313.799836330198</v>
+        <v>2658.534544405593</v>
       </c>
       <c r="F98">
-        <v>1554.017089179757</v>
+        <v>1489.54629851917</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>328.7</v>
+        <v>286.5</v>
       </c>
       <c r="B99">
-        <v>193850.7566042797</v>
+        <v>445711.6133160825</v>
       </c>
       <c r="C99">
-        <v>13298.57527443624</v>
+        <v>24943.83301773489</v>
       </c>
       <c r="D99">
-        <v>613.9868792495763</v>
+        <v>14080.48038666939</v>
       </c>
       <c r="E99">
-        <v>499.7035622606636</v>
+        <v>2081.437137381346</v>
       </c>
       <c r="F99">
-        <v>1663.849348138763</v>
+        <v>2018.081968357584</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>331.3</v>
+        <v>289.1</v>
       </c>
       <c r="B100">
-        <v>181782.0594152223</v>
+        <v>427460.7815520473</v>
       </c>
       <c r="C100">
-        <v>14447.98297217763</v>
+        <v>25549.26531212945</v>
       </c>
       <c r="D100">
-        <v>1285.647066981372</v>
+        <v>13437.49963160757</v>
       </c>
       <c r="E100">
-        <v>1723.044329269397</v>
+        <v>2756.210508249824</v>
       </c>
       <c r="F100">
-        <v>1458.196563272133</v>
+        <v>1204.178339147513</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>333.3</v>
+        <v>291.4</v>
       </c>
       <c r="B101">
-        <v>194636.907731332</v>
+        <v>404004.2765300162</v>
       </c>
       <c r="C101">
-        <v>15802.91197044023</v>
+        <v>25554.45541870928</v>
       </c>
       <c r="D101">
-        <v>1951.539519082784</v>
+        <v>12705.63204059134</v>
       </c>
       <c r="E101">
-        <v>1160.229534660735</v>
+        <v>2450.048490171944</v>
       </c>
       <c r="F101">
-        <v>1520.771344143956</v>
+        <v>1551.49435946169</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>335.9</v>
+        <v>293.7</v>
       </c>
       <c r="B102">
-        <v>196168.2105422745</v>
+        <v>372647.7715079849</v>
       </c>
       <c r="C102">
-        <v>15322.31966818163</v>
+        <v>25599.6455252891</v>
       </c>
       <c r="D102">
-        <v>1003.199706814616</v>
+        <v>12263.76444957511</v>
       </c>
       <c r="E102">
-        <v>1423.57030166947</v>
+        <v>2093.886472094056</v>
       </c>
       <c r="F102">
-        <v>1595.118559277327</v>
+        <v>1448.810379775865</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>338.1</v>
+        <v>295.9</v>
       </c>
       <c r="B103">
-        <v>180848.5436899952</v>
+        <v>352189.375399955</v>
       </c>
       <c r="C103">
-        <v>15118.74156627048</v>
+        <v>30078.08823593067</v>
       </c>
       <c r="D103">
-        <v>2437.681404126182</v>
+        <v>11248.93457990741</v>
       </c>
       <c r="E103">
-        <v>1569.474027599935</v>
+        <v>2564.079324367384</v>
       </c>
       <c r="F103">
-        <v>1364.950818236332</v>
+        <v>1793.199616598113</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>340.4</v>
+        <v>298.3</v>
       </c>
       <c r="B104">
-        <v>174141.6192535213</v>
+        <v>332934.7614639225</v>
       </c>
       <c r="C104">
-        <v>13975.90991427248</v>
+        <v>29860.02573844873</v>
       </c>
       <c r="D104">
-        <v>1281.457724042804</v>
+        <v>10450.02926754265</v>
       </c>
       <c r="E104">
-        <v>769.7370137999751</v>
+        <v>2081.562435938286</v>
       </c>
       <c r="F104">
-        <v>928.4118162389304</v>
+        <v>3653.442420404209</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>342.7</v>
+        <v>300.9</v>
       </c>
       <c r="B105">
-        <v>172334.6948170474</v>
+        <v>326383.9296998871</v>
       </c>
       <c r="C105">
-        <v>16223.0782622745</v>
+        <v>27365.45803284331</v>
       </c>
       <c r="D105">
-        <v>1715.234043959426</v>
+        <v>9707.048512480826</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1856.335806806764</v>
       </c>
       <c r="F105">
-        <v>1331.872814241527</v>
+        <v>1039.538791194146</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>345</v>
+        <v>303.1</v>
       </c>
       <c r="B106">
-        <v>171227.7703805736</v>
+        <v>303525.5335918573</v>
       </c>
       <c r="C106">
-        <v>12670.24661027648</v>
+        <v>31493.90074348487</v>
       </c>
       <c r="D106">
-        <v>469.0103638760338</v>
+        <v>10082.21864281309</v>
       </c>
       <c r="E106">
-        <v>280.2629862000404</v>
+        <v>2416.528659080092</v>
       </c>
       <c r="F106">
-        <v>1725.333812244124</v>
+        <v>1043.9280280164</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>347.6</v>
+        <v>305.7</v>
       </c>
       <c r="B107">
-        <v>160959.0731915162</v>
+        <v>286574.701827822</v>
       </c>
       <c r="C107">
-        <v>15289.65430801785</v>
+        <v>30659.33303787946</v>
       </c>
       <c r="D107">
-        <v>2730.670551607844</v>
+        <v>7869.237887751271</v>
       </c>
       <c r="E107">
-        <v>653.6037532087739</v>
+        <v>1761.30202994857</v>
       </c>
       <c r="F107">
-        <v>1609.681027377494</v>
+        <v>1030.02439880633</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>349.9</v>
+        <v>308</v>
       </c>
       <c r="B108">
-        <v>175852.1487550423</v>
+        <v>280818.1968057908</v>
       </c>
       <c r="C108">
-        <v>14236.82265601986</v>
+        <v>30834.52314445928</v>
       </c>
       <c r="D108">
-        <v>1954.446871524458</v>
+        <v>6437.37029673504</v>
       </c>
       <c r="E108">
-        <v>553.8667394088061</v>
+        <v>1465.140011870689</v>
       </c>
       <c r="F108">
-        <v>1263.142025380092</v>
+        <v>847.3404191205063</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>352.2</v>
+        <v>310.2</v>
       </c>
       <c r="B109">
-        <v>169545.2243185684</v>
+        <v>268659.8006977609</v>
       </c>
       <c r="C109">
-        <v>13973.99100402185</v>
+        <v>33692.96585510085</v>
       </c>
       <c r="D109">
-        <v>1018.22319144108</v>
+        <v>8782.540427067339</v>
       </c>
       <c r="E109">
-        <v>1294.129725608846</v>
+        <v>2025.332864144017</v>
       </c>
       <c r="F109">
-        <v>976.6030233826887</v>
+        <v>1051.729655942761</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>354.4</v>
+        <v>312.5</v>
       </c>
       <c r="B110">
-        <v>160125.5574662891</v>
+        <v>254403.2956757298</v>
       </c>
       <c r="C110">
-        <v>13350.41290211073</v>
+        <v>30818.15596168066</v>
       </c>
       <c r="D110">
-        <v>1842.704888752618</v>
+        <v>6460.672836051108</v>
       </c>
       <c r="E110">
-        <v>120.0334515393115</v>
+        <v>1359.170846066136</v>
       </c>
       <c r="F110">
-        <v>976.4352823416939</v>
+        <v>1079.045676256937</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>356.7</v>
+        <v>314.8</v>
       </c>
       <c r="B111">
-        <v>163018.6330298152</v>
+        <v>251246.7906536985</v>
       </c>
       <c r="C111">
-        <v>13227.58125011271</v>
+        <v>29863.34606826048</v>
       </c>
       <c r="D111">
-        <v>1516.481208669255</v>
+        <v>6708.805245034873</v>
       </c>
       <c r="E111">
-        <v>130.2964377393446</v>
+        <v>1613.008827988248</v>
       </c>
       <c r="F111">
-        <v>1359.896280344291</v>
+        <v>956.3616965711053</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="B112">
-        <v>158111.7085933413</v>
+        <v>232388.3945456686</v>
       </c>
       <c r="C112">
-        <v>14484.74959811469</v>
+        <v>25141.78877890205</v>
       </c>
       <c r="D112">
-        <v>4260.257528585862</v>
+        <v>5633.975375367176</v>
       </c>
       <c r="E112">
-        <v>1060.559423939384</v>
+        <v>1523.201680261576</v>
       </c>
       <c r="F112">
-        <v>843.3572783468881</v>
+        <v>620.7509333933604</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>361.6</v>
+        <v>319.7</v>
       </c>
       <c r="B113">
-        <v>160043.0114042839</v>
+        <v>228939.453867632</v>
       </c>
       <c r="C113">
-        <v>11144.15729585609</v>
+        <v>23213.96846923489</v>
       </c>
       <c r="D113">
-        <v>4541.917716317694</v>
+        <v>6123.956898956822</v>
       </c>
       <c r="E113">
-        <v>883.9001909481103</v>
+        <v>1341.620180778837</v>
       </c>
       <c r="F113">
-        <v>1917.704493480258</v>
+        <v>649.7740876752177</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>363.9</v>
+        <v>321.9</v>
       </c>
       <c r="B114">
-        <v>170736.0869678101</v>
+        <v>214981.0577596021</v>
       </c>
       <c r="C114">
-        <v>14511.3256438581</v>
+        <v>23522.41117987645</v>
       </c>
       <c r="D114">
-        <v>3725.694036234308</v>
+        <v>4229.127029289106</v>
       </c>
       <c r="E114">
-        <v>364.1631771481507</v>
+        <v>1141.813033052166</v>
       </c>
       <c r="F114">
-        <v>931.1654914828559</v>
+        <v>954.1633244974655</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>366.1</v>
+        <v>324.2</v>
       </c>
       <c r="B115">
-        <v>162016.4201155307</v>
+        <v>212424.5527375709</v>
       </c>
       <c r="C115">
-        <v>15057.74754194695</v>
+        <v>21477.60128645628</v>
       </c>
       <c r="D115">
-        <v>5830.175733545853</v>
+        <v>6017.259438272889</v>
       </c>
       <c r="E115">
-        <v>2280.066903078623</v>
+        <v>1685.651014974285</v>
       </c>
       <c r="F115">
-        <v>1040.997750441861</v>
+        <v>961.4793448116416</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>368.7</v>
+        <v>326.5</v>
       </c>
       <c r="B116">
-        <v>163147.7229264733</v>
+        <v>207768.0477155398</v>
       </c>
       <c r="C116">
-        <v>15467.15523968835</v>
+        <v>18392.79139303609</v>
       </c>
       <c r="D116">
-        <v>6621.835921277678</v>
+        <v>5395.391847256629</v>
       </c>
       <c r="E116">
-        <v>2753.407670087357</v>
+        <v>1429.488996896404</v>
       </c>
       <c r="F116">
-        <v>1855.344965575232</v>
+        <v>938.7953651258167</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>371</v>
+        <v>328.7</v>
       </c>
       <c r="B117">
-        <v>150640.7984899995</v>
+        <v>206809.6516075099</v>
       </c>
       <c r="C117">
-        <v>14404.32358769033</v>
+        <v>16351.23410367765</v>
       </c>
       <c r="D117">
-        <v>6145.612241194292</v>
+        <v>3670.561977588943</v>
       </c>
       <c r="E117">
-        <v>3003.67065628739</v>
+        <v>599.6818491697322</v>
       </c>
       <c r="F117">
-        <v>1268.805963577829</v>
+        <v>1033.184601948064</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>373.3</v>
+        <v>331.3</v>
       </c>
       <c r="B118">
-        <v>157733.8740535255</v>
+        <v>194458.8198434745</v>
       </c>
       <c r="C118">
-        <v>15091.49193569235</v>
+        <v>17396.66639807223</v>
       </c>
       <c r="D118">
-        <v>8459.388561110914</v>
+        <v>3917.581222527104</v>
       </c>
       <c r="E118">
-        <v>3773.933642487429</v>
+        <v>1804.45522003821</v>
       </c>
       <c r="F118">
-        <v>1802.266961580425</v>
+        <v>809.2809727380009</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>375.6</v>
+        <v>333.3</v>
       </c>
       <c r="B119">
-        <v>161326.9496170517</v>
+        <v>207096.6415634475</v>
       </c>
       <c r="C119">
-        <v>16828.66028369433</v>
+        <v>18671.61431683729</v>
       </c>
       <c r="D119">
-        <v>9443.164881027536</v>
+        <v>4256.826795556462</v>
       </c>
       <c r="E119">
-        <v>4454.196628687455</v>
+        <v>1227.357813013956</v>
       </c>
       <c r="F119">
-        <v>1615.727959583022</v>
+        <v>857.8166425764157</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>377.9</v>
+        <v>335.9</v>
       </c>
       <c r="B120">
-        <v>163220.0251805778</v>
+        <v>208345.8097994121</v>
       </c>
       <c r="C120">
-        <v>13105.82863169635</v>
+        <v>18087.04661123188</v>
       </c>
       <c r="D120">
-        <v>12526.94120094416</v>
+        <v>2883.846040494642</v>
       </c>
       <c r="E120">
-        <v>4944.459614887495</v>
+        <v>1472.131183882441</v>
       </c>
       <c r="F120">
-        <v>1329.18895758562</v>
+        <v>913.9130133663457</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>380.5</v>
+        <v>338.1</v>
       </c>
       <c r="B121">
-        <v>179351.3279915203</v>
+        <v>192787.4136913823</v>
       </c>
       <c r="C121">
-        <v>15885.23632943771</v>
+        <v>17795.48932187343</v>
       </c>
       <c r="D121">
-        <v>13518.60138867598</v>
+        <v>3959.016170826937</v>
       </c>
       <c r="E121">
-        <v>6137.800381896228</v>
+        <v>1602.324036155761</v>
       </c>
       <c r="F121">
-        <v>1813.53617271899</v>
+        <v>668.3022501885998</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>382.7</v>
+        <v>340.4</v>
       </c>
       <c r="B122">
-        <v>168131.6611392411</v>
+        <v>185830.908669351</v>
       </c>
       <c r="C122">
-        <v>14991.65822752659</v>
+        <v>16560.67942845327</v>
       </c>
       <c r="D122">
-        <v>18923.08308598753</v>
+        <v>2427.14857981071</v>
       </c>
       <c r="E122">
-        <v>7963.704107826694</v>
+        <v>786.1620180778882</v>
       </c>
       <c r="F122">
-        <v>1373.368431677996</v>
+        <v>215.6182705027768</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>385</v>
+        <v>342.7</v>
       </c>
       <c r="B123">
-        <v>174124.7367027672</v>
+        <v>183774.4036473199</v>
       </c>
       <c r="C123">
-        <v>13438.82657552857</v>
+        <v>18715.86953503308</v>
       </c>
       <c r="D123">
-        <v>20436.85940590414</v>
+        <v>2485.280988794479</v>
       </c>
       <c r="E123">
-        <v>11653.96709402674</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1446.829429680593</v>
+        <v>602.9342908169447</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>387.2</v>
+        <v>345</v>
       </c>
       <c r="B124">
-        <v>188305.0698504879</v>
+        <v>182417.8986252886</v>
       </c>
       <c r="C124">
-        <v>14975.24847361745</v>
+        <v>15071.0596416129</v>
       </c>
       <c r="D124">
-        <v>21771.34110321569</v>
+        <v>863.4133977782294</v>
       </c>
       <c r="E124">
-        <v>11719.8708199572</v>
+        <v>263.8379819221118</v>
       </c>
       <c r="F124">
-        <v>2006.661688639599</v>
+        <v>980.2503111311198</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>389.5</v>
+        <v>347.6</v>
       </c>
       <c r="B125">
-        <v>191498.145414014</v>
+        <v>171867.0668612534</v>
       </c>
       <c r="C125">
-        <v>12902.41682161943</v>
+        <v>17586.49193600747</v>
       </c>
       <c r="D125">
-        <v>27755.1174231323</v>
+        <v>2700.432642716391</v>
       </c>
       <c r="E125">
-        <v>14330.13380615723</v>
+        <v>618.6113527905891</v>
       </c>
       <c r="F125">
-        <v>1940.122686642196</v>
+        <v>846.3466819210562</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>391.8</v>
+        <v>349.9</v>
       </c>
       <c r="B126">
-        <v>193191.22097754</v>
+        <v>186510.5618392221</v>
       </c>
       <c r="C126">
-        <v>13319.58516962142</v>
+        <v>16441.68204258731</v>
       </c>
       <c r="D126">
-        <v>31748.89374304892</v>
+        <v>1548.565051700163</v>
       </c>
       <c r="E126">
-        <v>19350.39679235727</v>
+        <v>502.4493347127091</v>
       </c>
       <c r="F126">
-        <v>2443.583684644793</v>
+        <v>483.6627022352259</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>394.1</v>
+        <v>352.2</v>
       </c>
       <c r="B127">
-        <v>216784.2965410662</v>
+        <v>179954.0568171908</v>
       </c>
       <c r="C127">
-        <v>15986.75351762343</v>
+        <v>16086.87214916712</v>
       </c>
       <c r="D127">
-        <v>38212.67006296554</v>
+        <v>236.6974606839321</v>
       </c>
       <c r="E127">
-        <v>24320.6597785573</v>
+        <v>1226.287316634828</v>
       </c>
       <c r="F127">
-        <v>1537.04468264739</v>
+        <v>180.978722549401</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>396.3</v>
+        <v>354.4</v>
       </c>
       <c r="B128">
-        <v>235864.6296887869</v>
+        <v>170295.660709161</v>
       </c>
       <c r="C128">
-        <v>15073.17541571228</v>
+        <v>15375.31485980869</v>
       </c>
       <c r="D128">
-        <v>42627.15176027708</v>
+        <v>701.867591016231</v>
       </c>
       <c r="E128">
-        <v>28516.56350448777</v>
+        <v>36.48016890815643</v>
       </c>
       <c r="F128">
-        <v>2086.876941606395</v>
+        <v>165.3679593716561</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>399</v>
+        <v>356.7</v>
       </c>
       <c r="B129">
-        <v>254008.6749155349</v>
+        <v>172939.1556871299</v>
       </c>
       <c r="C129">
-        <v>15033.32956336681</v>
+        <v>15160.50496638851</v>
       </c>
       <c r="D129">
-        <v>50098.10657061399</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>33294.26353176608</v>
+        <v>30.31815083026822</v>
       </c>
       <c r="F129">
-        <v>1434.852895783357</v>
+        <v>532.6839796858249</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>401.2</v>
+        <v>359</v>
       </c>
       <c r="B130">
-        <v>274389.0080632556</v>
+        <v>167782.6506650986</v>
       </c>
       <c r="C130">
-        <v>14019.75146145569</v>
+        <v>16325.69507296832</v>
       </c>
       <c r="D130">
-        <v>56572.58826792553</v>
+        <v>2368.132408983765</v>
       </c>
       <c r="E130">
-        <v>41650.16725769655</v>
+        <v>944.15613275238</v>
       </c>
       <c r="F130">
-        <v>1984.685154742363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>403.5</v>
+        <v>361.6</v>
       </c>
       <c r="B131">
-        <v>298182.0836267818</v>
+        <v>169431.8189010634</v>
       </c>
       <c r="C131">
-        <v>14876.91980945767</v>
+        <v>12881.1273673629</v>
       </c>
       <c r="D131">
-        <v>66846.36458784215</v>
+        <v>2225.151653921945</v>
       </c>
       <c r="E131">
-        <v>48710.43024389658</v>
+        <v>748.9295036208573</v>
       </c>
       <c r="F131">
-        <v>2158.14615274496</v>
+        <v>1056.096370789936</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>406.1</v>
+        <v>363.9</v>
       </c>
       <c r="B132">
-        <v>335613.3864377243</v>
+        <v>179875.3138790321</v>
       </c>
       <c r="C132">
-        <v>15306.32750719907</v>
+        <v>16156.31747394273</v>
       </c>
       <c r="D132">
-        <v>78148.02477557398</v>
+        <v>1033.284062905703</v>
       </c>
       <c r="E132">
-        <v>56723.77101090532</v>
+        <v>212.7674855429841</v>
       </c>
       <c r="F132">
-        <v>2102.49336787833</v>
+        <v>53.41239110410515</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>408</v>
+        <v>366.1</v>
       </c>
       <c r="B133">
-        <v>360055.4923380285</v>
+        <v>170916.9177710022</v>
       </c>
       <c r="C133">
-        <v>12970.51005554853</v>
+        <v>16614.76018458428</v>
       </c>
       <c r="D133">
-        <v>86764.62260507031</v>
+        <v>2778.45419323798</v>
       </c>
       <c r="E133">
-        <v>64936.59695602708</v>
+        <v>2112.960337816305</v>
       </c>
       <c r="F133">
-        <v>2111.439409706563</v>
+        <v>147.8016279263675</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>410.7</v>
+        <v>368.7</v>
       </c>
       <c r="B134">
-        <v>409299.5375647766</v>
+        <v>171766.086006967</v>
       </c>
       <c r="C134">
-        <v>15580.66420320307</v>
+        <v>16920.19247897888</v>
       </c>
       <c r="D134">
-        <v>104325.5774154072</v>
+        <v>3145.473438176159</v>
       </c>
       <c r="E134">
-        <v>76654.29698330536</v>
+        <v>2567.73370868479</v>
       </c>
       <c r="F134">
-        <v>1729.415363883525</v>
+        <v>943.8979987162975</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>412.9</v>
+        <v>371</v>
       </c>
       <c r="B135">
-        <v>473279.8707124971</v>
+        <v>159009.5809849357</v>
       </c>
       <c r="C135">
-        <v>14997.08610129192</v>
+        <v>15765.38258555869</v>
       </c>
       <c r="D135">
-        <v>119440.0591127188</v>
+        <v>2293.605847159924</v>
       </c>
       <c r="E135">
-        <v>93000.20070923584</v>
+        <v>2801.571690606901</v>
       </c>
       <c r="F135">
-        <v>2169.24762284253</v>
+        <v>341.2140190304726</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>415.2</v>
+        <v>373.3</v>
       </c>
       <c r="B136">
-        <v>534172.9462760233</v>
+        <v>165853.0759629045</v>
       </c>
       <c r="C136">
-        <v>15704.25444929393</v>
+        <v>16360.5726921385</v>
       </c>
       <c r="D136">
-        <v>138093.8354326354</v>
+        <v>4231.738256143697</v>
       </c>
       <c r="E136">
-        <v>109770.4636954359</v>
+        <v>3555.409672529013</v>
       </c>
       <c r="F136">
-        <v>2082.708620845127</v>
+        <v>858.5300393446478</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>417.4</v>
+        <v>375.6</v>
       </c>
       <c r="B137">
-        <v>631253.279423744</v>
+        <v>169196.5709408733</v>
       </c>
       <c r="C137">
-        <v>15020.67634738277</v>
+        <v>18005.76279871833</v>
       </c>
       <c r="D137">
-        <v>162868.3171299469</v>
+        <v>4839.870665127462</v>
       </c>
       <c r="E137">
-        <v>137006.3674213664</v>
+        <v>4219.247654451125</v>
       </c>
       <c r="F137">
-        <v>2082.540879804134</v>
+        <v>655.8460596588166</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>420</v>
+        <v>377.9</v>
       </c>
       <c r="B138">
-        <v>755984.5822346867</v>
+        <v>170840.0659188421</v>
       </c>
       <c r="C138">
-        <v>17300.08404512417</v>
+        <v>14190.95290529814</v>
       </c>
       <c r="D138">
-        <v>196669.9773176787</v>
+        <v>7548.003074111235</v>
       </c>
       <c r="E138">
-        <v>177709.7081883751</v>
+        <v>4693.085636373252</v>
       </c>
       <c r="F138">
-        <v>2156.888094937503</v>
+        <v>353.1620799729926</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>422.3</v>
+        <v>380.5</v>
       </c>
       <c r="B139">
-        <v>934777.6577982127</v>
+        <v>186689.2341548069</v>
       </c>
       <c r="C139">
-        <v>16267.25239312615</v>
+        <v>16866.38519969272</v>
       </c>
       <c r="D139">
-        <v>233493.7536375953</v>
+        <v>8115.022319049407</v>
       </c>
       <c r="E139">
-        <v>237269.9711745751</v>
+        <v>5867.859007241729</v>
       </c>
       <c r="F139">
-        <v>2600.3490929401</v>
+        <v>819.258450762929</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>424.5</v>
+        <v>382.7</v>
       </c>
       <c r="B140">
-        <v>1212457.990945933</v>
+        <v>175230.838046777</v>
       </c>
       <c r="C140">
-        <v>15553.67429121503</v>
+        <v>15884.8279103343</v>
       </c>
       <c r="D140">
-        <v>290538.235334907</v>
+        <v>13160.19244938171</v>
       </c>
       <c r="E140">
-        <v>362245.8749005055</v>
+        <v>7678.051859515057</v>
       </c>
       <c r="F140">
-        <v>2800.181351899107</v>
+        <v>363.6476875851768</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>426.8</v>
+        <v>385</v>
       </c>
       <c r="B141">
-        <v>1763651.066509459</v>
+        <v>180974.3330247457</v>
       </c>
       <c r="C141">
-        <v>19630.84263921701</v>
+        <v>14240.01801691411</v>
       </c>
       <c r="D141">
-        <v>361542.0116548236</v>
+        <v>14298.32485836545</v>
       </c>
       <c r="E141">
-        <v>706866.1378867056</v>
+        <v>11351.88984143717</v>
       </c>
       <c r="F141">
-        <v>3853.642349901704</v>
+        <v>420.9637078993528</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>429.1</v>
+        <v>387.2</v>
       </c>
       <c r="B142">
-        <v>2850744.142072985</v>
+        <v>194915.9369167158</v>
       </c>
       <c r="C142">
-        <v>17618.010987219</v>
+        <v>15688.46072755568</v>
       </c>
       <c r="D142">
-        <v>438485.7879747401</v>
+        <v>15273.49498869778</v>
       </c>
       <c r="E142">
-        <v>1424376.400872906</v>
+        <v>11402.0826937105</v>
       </c>
       <c r="F142">
-        <v>4637.1033479043</v>
+        <v>965.3529447216079</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>431.3</v>
+        <v>389.5</v>
       </c>
       <c r="B143">
-        <v>4484024.475220706</v>
+        <v>197859.4318946846</v>
       </c>
       <c r="C143">
-        <v>21324.43288530788</v>
+        <v>13523.6508341355</v>
       </c>
       <c r="D143">
-        <v>517880.2696720517</v>
+        <v>20881.62739768151</v>
       </c>
       <c r="E143">
-        <v>1146352.304598836</v>
+        <v>13995.92067563261</v>
       </c>
       <c r="F143">
-        <v>4686.935606863306</v>
+        <v>882.6689650357766</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>433.9</v>
+        <v>391.8</v>
       </c>
       <c r="B144">
-        <v>3578455.778031648</v>
+        <v>199302.9268726535</v>
       </c>
       <c r="C144">
-        <v>21763.84058304927</v>
+        <v>13848.84094071531</v>
       </c>
       <c r="D144">
-        <v>499321.9298597836</v>
+        <v>24499.75980666529</v>
       </c>
       <c r="E144">
-        <v>508625.6453658449</v>
+        <v>18999.75865755473</v>
       </c>
       <c r="F144">
-        <v>2921.282821996677</v>
+        <v>1369.984985349952</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>436.2</v>
+        <v>394.1</v>
       </c>
       <c r="B145">
-        <v>1890548.853595175</v>
+        <v>222646.4218506222</v>
       </c>
       <c r="C145">
-        <v>18241.00893105126</v>
+        <v>16424.03104729513</v>
       </c>
       <c r="D145">
-        <v>429885.7061797002</v>
+        <v>30587.89221564905</v>
       </c>
       <c r="E145">
-        <v>202755.9083520449</v>
+        <v>23953.59663947685</v>
       </c>
       <c r="F145">
-        <v>2694.743819999274</v>
+        <v>447.3010056641269</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>438.4</v>
+        <v>396.3</v>
       </c>
       <c r="B146">
-        <v>1133029.186742895</v>
+        <v>241488.0257425923</v>
       </c>
       <c r="C146">
-        <v>17307.43082914014</v>
+        <v>15422.4737579367</v>
       </c>
       <c r="D146">
-        <v>376670.1878770118</v>
+        <v>34643.06234598135</v>
       </c>
       <c r="E146">
-        <v>138771.8120779754</v>
+        <v>28133.78949175018</v>
       </c>
       <c r="F146">
-        <v>2734.57607895828</v>
+        <v>981.6902424863756</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>440.7</v>
+        <v>399</v>
       </c>
       <c r="B147">
-        <v>891322.2623064218</v>
+        <v>259339.0850645557</v>
       </c>
       <c r="C147">
-        <v>19764.59917714212</v>
+        <v>15274.65344826954</v>
       </c>
       <c r="D147">
-        <v>329183.9641969284</v>
+        <v>41673.043869571</v>
       </c>
       <c r="E147">
-        <v>108382.0750641754</v>
+        <v>32892.20799226744</v>
       </c>
       <c r="F147">
-        <v>2798.037076960876</v>
+        <v>310.713396768233</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>443</v>
+        <v>401.2</v>
       </c>
       <c r="B148">
-        <v>764115.337869948</v>
+        <v>279480.6889565258</v>
       </c>
       <c r="C148">
-        <v>19281.76752514413</v>
+        <v>14173.09615891111</v>
       </c>
       <c r="D148">
-        <v>283847.740516845</v>
+        <v>47788.2139999033</v>
       </c>
       <c r="E148">
-        <v>92752.33805037543</v>
+        <v>41232.40084454076</v>
       </c>
       <c r="F148">
-        <v>2291.498074963473</v>
+        <v>845.102633590488</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>445.2</v>
+        <v>403.5</v>
       </c>
       <c r="B149">
-        <v>678695.6710176684</v>
+        <v>303024.1839344947</v>
       </c>
       <c r="C149">
-        <v>17958.18942323298</v>
+        <v>14938.28626549092</v>
       </c>
       <c r="D149">
-        <v>247012.2222141565</v>
+        <v>57686.34640888707</v>
       </c>
       <c r="E149">
-        <v>82998.24177630589</v>
+        <v>48276.23882646288</v>
       </c>
       <c r="F149">
-        <v>2581.330333922479</v>
+        <v>1002.418653904656</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>447.8</v>
+        <v>406.1</v>
       </c>
       <c r="B150">
-        <v>602826.973828611</v>
+        <v>340173.3521704593</v>
       </c>
       <c r="C150">
-        <v>19427.59712097438</v>
+        <v>15263.7185598855</v>
       </c>
       <c r="D150">
-        <v>212683.8824018883</v>
+        <v>68563.36565382521</v>
       </c>
       <c r="E150">
-        <v>73251.58254331462</v>
+        <v>56271.01219733137</v>
       </c>
       <c r="F150">
-        <v>2535.677549055849</v>
+        <v>928.5150246945996</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>450.1</v>
+        <v>408</v>
       </c>
       <c r="B151">
-        <v>561020.0493921372</v>
+        <v>364409.2828044335</v>
       </c>
       <c r="C151">
-        <v>17614.76546897636</v>
+        <v>12851.91908271231</v>
       </c>
       <c r="D151">
-        <v>184167.6587218049</v>
+        <v>76869.64894820313</v>
       </c>
       <c r="E151">
-        <v>66481.84552951467</v>
+        <v>64470.26966065833</v>
       </c>
       <c r="F151">
-        <v>2339.138547058454</v>
+        <v>924.123911041087</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>452.4</v>
+        <v>410.7</v>
       </c>
       <c r="B152">
-        <v>527713.1249556635</v>
+        <v>413360.342126397</v>
       </c>
       <c r="C152">
-        <v>16821.93381697838</v>
+        <v>15354.09877304515</v>
       </c>
       <c r="D152">
-        <v>157741.4350417215</v>
+        <v>93989.63047179276</v>
       </c>
       <c r="E152">
-        <v>62682.10851571472</v>
+        <v>76168.68816117561</v>
       </c>
       <c r="F152">
-        <v>2322.599545061044</v>
+        <v>523.1470653229371</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>454.6</v>
+        <v>412.9</v>
       </c>
       <c r="B153">
-        <v>478893.4581033841</v>
+        <v>477101.9460183671</v>
       </c>
       <c r="C153">
-        <v>16368.35571506722</v>
+        <v>14682.54148368671</v>
       </c>
       <c r="D153">
-        <v>141225.9167390331</v>
+        <v>108744.800602125</v>
       </c>
       <c r="E153">
-        <v>56558.01224164518</v>
+        <v>92498.88101344893</v>
       </c>
       <c r="F153">
-        <v>2472.431804020057</v>
+        <v>947.5363021451994</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>456.9</v>
+        <v>415.2</v>
       </c>
       <c r="B154">
-        <v>465886.5336669101</v>
+        <v>537745.4409963358</v>
       </c>
       <c r="C154">
-        <v>18765.52406306924</v>
+        <v>15297.73159026653</v>
       </c>
       <c r="D154">
-        <v>127109.6930589497</v>
+        <v>127022.9330111088</v>
       </c>
       <c r="E154">
-        <v>56248.27522784522</v>
+        <v>109252.718995371</v>
       </c>
       <c r="F154">
-        <v>2965.892802022647</v>
+        <v>844.8523224593682</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>459.5</v>
+        <v>417.4</v>
       </c>
       <c r="B155">
-        <v>427917.8364778527</v>
+        <v>634587.0448883059</v>
       </c>
       <c r="C155">
-        <v>16964.9317608106</v>
+        <v>14526.1743009081</v>
       </c>
       <c r="D155">
-        <v>118171.3532466816</v>
+        <v>151438.1031414411</v>
       </c>
       <c r="E155">
-        <v>52571.61599485396</v>
+        <v>136472.9118476444</v>
       </c>
       <c r="F155">
-        <v>2640.240017156017</v>
+        <v>829.241559281616</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>461.8</v>
+        <v>420</v>
       </c>
       <c r="B156">
-        <v>403810.9120413788</v>
+        <v>759036.2131242707</v>
       </c>
       <c r="C156">
-        <v>17642.10010881261</v>
+        <v>16701.60659530267</v>
       </c>
       <c r="D156">
-        <v>109595.1295665981</v>
+        <v>184815.1223863793</v>
       </c>
       <c r="E156">
-        <v>47661.87898105398</v>
+        <v>177157.6852185129</v>
       </c>
       <c r="F156">
-        <v>3003.701015158621</v>
+        <v>885.3379300715596</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>464</v>
+        <v>422.3</v>
       </c>
       <c r="B157">
-        <v>381191.2451890995</v>
+        <v>937579.7081022394</v>
       </c>
       <c r="C157">
-        <v>17778.52200690146</v>
+        <v>15576.79670188249</v>
       </c>
       <c r="D157">
-        <v>104569.6112639097</v>
+        <v>221263.2547953631</v>
       </c>
       <c r="E157">
-        <v>47037.78270698446</v>
+        <v>236701.523200435</v>
       </c>
       <c r="F157">
-        <v>2663.53327411762</v>
+        <v>1312.653950385728</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>466.3</v>
+        <v>424.5</v>
       </c>
       <c r="B158">
-        <v>357184.3207526256</v>
+        <v>1215021.31199421</v>
       </c>
       <c r="C158">
-        <v>17245.69035490348</v>
+        <v>14775.23941252406</v>
       </c>
       <c r="D158">
-        <v>101143.3875838263</v>
+        <v>277948.4249256953</v>
       </c>
       <c r="E158">
-        <v>44108.04569318448</v>
+        <v>361661.7160527083</v>
       </c>
       <c r="F158">
-        <v>3096.994272120224</v>
+        <v>1497.043187207984</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>468.6</v>
+        <v>426.8</v>
       </c>
       <c r="B159">
-        <v>341677.3963161518</v>
+        <v>1765964.806972178</v>
       </c>
       <c r="C159">
-        <v>19212.85870290546</v>
+        <v>18760.42951910387</v>
       </c>
       <c r="D159">
-        <v>96227.16390374291</v>
+        <v>348576.5573346791</v>
       </c>
       <c r="E159">
-        <v>41708.30867938452</v>
+        <v>706265.5540346302</v>
       </c>
       <c r="F159">
-        <v>2970.45527012282</v>
+        <v>2534.359207522159</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>471.2</v>
+        <v>429.1</v>
       </c>
       <c r="B160">
-        <v>317508.6991270943</v>
+        <v>2852808.301950147</v>
       </c>
       <c r="C160">
-        <v>15692.26640064686</v>
+        <v>16655.61962568369</v>
       </c>
       <c r="D160">
-        <v>95108.82409147476</v>
+        <v>425144.6897436629</v>
       </c>
       <c r="E160">
-        <v>39671.64944639326</v>
+        <v>1423759.392016553</v>
       </c>
       <c r="F160">
-        <v>2784.802485256185</v>
+        <v>3301.675227836327</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>473.1</v>
+        <v>431.3</v>
       </c>
       <c r="B161">
-        <v>303250.8050273985</v>
+        <v>4485849.905842118</v>
       </c>
       <c r="C161">
-        <v>18696.44894899632</v>
+        <v>20274.06233632527</v>
       </c>
       <c r="D161">
-        <v>90395.4219209711</v>
+        <v>504179.8598739951</v>
       </c>
       <c r="E161">
-        <v>38494.47539151504</v>
+        <v>1145719.584868826</v>
       </c>
       <c r="F161">
-        <v>2783.748527084424</v>
+        <v>3336.064464658582</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>475.7</v>
+        <v>433.9</v>
       </c>
       <c r="B162">
-        <v>286482.107838341</v>
+        <v>3579999.074078082</v>
       </c>
       <c r="C162">
-        <v>15855.85664673772</v>
+        <v>20609.49463071985</v>
       </c>
       <c r="D162">
-        <v>90027.08210870293</v>
+        <v>485196.8791189334</v>
       </c>
       <c r="E162">
-        <v>36927.81615852376</v>
+        <v>507974.3582396943</v>
       </c>
       <c r="F162">
-        <v>3088.095742217787</v>
+        <v>1552.16083544852</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>478</v>
+        <v>436.2</v>
       </c>
       <c r="B163">
-        <v>285575.1834018672</v>
+        <v>1891842.569056051</v>
       </c>
       <c r="C163">
-        <v>18293.0249947397</v>
+        <v>16994.68473729966</v>
       </c>
       <c r="D163">
-        <v>88860.85842861954</v>
+        <v>415385.0115279172</v>
       </c>
       <c r="E163">
-        <v>36448.0791447238</v>
+        <v>202088.1962216165</v>
       </c>
       <c r="F163">
-        <v>2741.556740220391</v>
+        <v>1309.476855762688</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>480.3</v>
+        <v>438.4</v>
       </c>
       <c r="B164">
-        <v>269968.2589653934</v>
+        <v>1134084.172948021</v>
       </c>
       <c r="C164">
-        <v>18400.19334274172</v>
+        <v>15973.12744794124</v>
       </c>
       <c r="D164">
-        <v>84594.63474853616</v>
+        <v>361810.1816582495</v>
       </c>
       <c r="E164">
-        <v>33818.34213092383</v>
+        <v>138088.3890738898</v>
       </c>
       <c r="F164">
-        <v>3265.017738222989</v>
+        <v>1333.866092584944</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>482.5</v>
+        <v>440.7</v>
       </c>
       <c r="B165">
-        <v>257548.592113114</v>
+        <v>892127.6679259898</v>
       </c>
       <c r="C165">
-        <v>16346.61524083056</v>
+        <v>18338.31755452105</v>
       </c>
       <c r="D165">
-        <v>82359.1164458477</v>
+        <v>313948.3140672332</v>
       </c>
       <c r="E165">
-        <v>31794.24585685429</v>
+        <v>107682.2270558119</v>
       </c>
       <c r="F165">
-        <v>3044.849997181994</v>
+        <v>1381.182112899119</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>484.8</v>
+        <v>443</v>
       </c>
       <c r="B166">
-        <v>236941.6676766402</v>
+        <v>764671.1629039586</v>
       </c>
       <c r="C166">
-        <v>16643.78358883258</v>
+        <v>17763.50766110086</v>
       </c>
       <c r="D166">
-        <v>80102.89276576432</v>
+        <v>268236.446476217</v>
       </c>
       <c r="E166">
-        <v>29584.50884305433</v>
+        <v>92036.06503773402</v>
       </c>
       <c r="F166">
-        <v>3128.310995184591</v>
+        <v>858.4981332132866</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>487.4</v>
+        <v>445.2</v>
       </c>
       <c r="B167">
-        <v>224172.9704875828</v>
+        <v>679012.7667959287</v>
       </c>
       <c r="C167">
-        <v>17333.19128657398</v>
+        <v>16351.95037174244</v>
       </c>
       <c r="D167">
-        <v>77254.55295349615</v>
+        <v>231041.6166065492</v>
       </c>
       <c r="E167">
-        <v>29437.84961006306</v>
+        <v>82266.25789000734</v>
       </c>
       <c r="F167">
-        <v>3192.658210317954</v>
+        <v>1132.887370035543</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>489.7</v>
+        <v>447.8</v>
       </c>
       <c r="B168">
-        <v>224266.0460511088</v>
+        <v>602861.9350318934</v>
       </c>
       <c r="C168">
-        <v>15510.35963457596</v>
+        <v>17717.38266613702</v>
       </c>
       <c r="D168">
-        <v>74128.32927341278</v>
+        <v>196288.6358514874</v>
       </c>
       <c r="E168">
-        <v>28558.1125962631</v>
+        <v>72501.03126087581</v>
       </c>
       <c r="F168">
-        <v>2896.119208320559</v>
+        <v>1068.983740825479</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>491.9</v>
+        <v>450.1</v>
       </c>
       <c r="B169">
-        <v>211646.3791988295</v>
+        <v>560805.4300098622</v>
       </c>
       <c r="C169">
-        <v>18666.78153266483</v>
+        <v>15812.57277271683</v>
       </c>
       <c r="D169">
-        <v>75222.81097072431</v>
+        <v>167396.7682604711</v>
       </c>
       <c r="E169">
-        <v>26464.01632219357</v>
+        <v>65714.86924279791</v>
       </c>
       <c r="F169">
-        <v>2675.951467279558</v>
+        <v>856.2997611396468</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>494.2</v>
+        <v>452.4</v>
       </c>
       <c r="B170">
-        <v>193939.4547623556</v>
+        <v>527248.9249878309</v>
       </c>
       <c r="C170">
-        <v>16043.94988066682</v>
+        <v>14927.76287929666</v>
       </c>
       <c r="D170">
-        <v>74476.58729064093</v>
+        <v>140594.9006694549</v>
       </c>
       <c r="E170">
-        <v>26064.2793083936</v>
+        <v>61898.70722472004</v>
       </c>
       <c r="F170">
-        <v>2999.412465282162</v>
+        <v>823.6157814538228</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>496.8</v>
+        <v>454.6</v>
       </c>
       <c r="B171">
-        <v>201970.7575732982</v>
+        <v>478190.5288798011</v>
       </c>
       <c r="C171">
-        <v>16693.35757840818</v>
+        <v>14386.20558993822</v>
       </c>
       <c r="D171">
-        <v>70918.24747837275</v>
+        <v>123720.0707997872</v>
       </c>
       <c r="E171">
-        <v>22267.62007540234</v>
+        <v>55758.90007699337</v>
       </c>
       <c r="F171">
-        <v>3023.759680415532</v>
+        <v>958.0050182760779</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>499.1</v>
+        <v>456.9</v>
       </c>
       <c r="B172">
-        <v>185263.8331368244</v>
+        <v>464934.0238577698</v>
       </c>
       <c r="C172">
-        <v>14630.5259264102</v>
+        <v>16691.39569651805</v>
       </c>
       <c r="D172">
-        <v>70492.02379828937</v>
+        <v>109228.203208771</v>
       </c>
       <c r="E172">
-        <v>22637.88306160237</v>
+        <v>55432.73805891549</v>
       </c>
       <c r="F172">
-        <v>3317.220678418129</v>
+        <v>1435.321038590247</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>501.3</v>
+        <v>459.5</v>
       </c>
       <c r="B173">
-        <v>188944.166284545</v>
+        <v>426683.1920937346</v>
       </c>
       <c r="C173">
-        <v>15306.94782449905</v>
+        <v>14786.82799091261</v>
       </c>
       <c r="D173">
-        <v>68906.50549560091</v>
+        <v>99865.22245370918</v>
       </c>
       <c r="E173">
-        <v>21313.78678753284</v>
+        <v>51737.51142978396</v>
       </c>
       <c r="F173">
-        <v>3887.052937377134</v>
+        <v>1091.41740938019</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>503.6</v>
+        <v>461.8</v>
       </c>
       <c r="B174">
-        <v>183737.2418480712</v>
+        <v>402326.6870717033</v>
       </c>
       <c r="C174">
-        <v>13424.11617250106</v>
+        <v>15372.01809749243</v>
       </c>
       <c r="D174">
-        <v>68260.28181551753</v>
+        <v>90913.35486269296</v>
       </c>
       <c r="E174">
-        <v>20864.04977373288</v>
+        <v>46811.34941170608</v>
       </c>
       <c r="F174">
-        <v>2970.513935379731</v>
+        <v>1438.733429694358</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>505.9</v>
+        <v>464</v>
       </c>
       <c r="B175">
-        <v>166930.3174115973</v>
+        <v>379468.2909636734</v>
       </c>
       <c r="C175">
-        <v>14331.28452050308</v>
+        <v>15420.46080813401</v>
       </c>
       <c r="D175">
-        <v>65444.05813543416</v>
+        <v>85528.52499302525</v>
       </c>
       <c r="E175">
-        <v>20044.31275993292</v>
+        <v>46171.5422639794</v>
       </c>
       <c r="F175">
-        <v>3253.974933382329</v>
+        <v>1083.122666516607</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>508.5</v>
+        <v>466.3</v>
       </c>
       <c r="B176">
-        <v>167461.6202225398</v>
+        <v>355211.7859416423</v>
       </c>
       <c r="C176">
-        <v>14920.69221824444</v>
+        <v>14795.65091471382</v>
       </c>
       <c r="D176">
-        <v>64595.71832316599</v>
+        <v>81726.65740200902</v>
       </c>
       <c r="E176">
-        <v>19187.65352694164</v>
+        <v>43225.38024590151</v>
       </c>
       <c r="F176">
-        <v>2958.322148515699</v>
+        <v>1500.438686830789</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>510.7</v>
+        <v>468.6</v>
       </c>
       <c r="B177">
-        <v>153841.9533702604</v>
+        <v>339455.280919611</v>
       </c>
       <c r="C177">
-        <v>17407.11411633332</v>
+        <v>16670.84102129364</v>
       </c>
       <c r="D177">
-        <v>62670.20002047752</v>
+        <v>76434.78981099276</v>
       </c>
       <c r="E177">
-        <v>17543.55725287212</v>
+        <v>40809.21822782364</v>
       </c>
       <c r="F177">
-        <v>3428.154407474705</v>
+        <v>1357.754707144958</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>513</v>
+        <v>471.2</v>
       </c>
       <c r="B178">
-        <v>151035.0289337866</v>
+        <v>315004.4491555757</v>
       </c>
       <c r="C178">
-        <v>16514.2824643353</v>
+        <v>13046.27331568822</v>
       </c>
       <c r="D178">
-        <v>64973.97634039415</v>
+        <v>74891.80905593096</v>
       </c>
       <c r="E178">
-        <v>16403.82023907215</v>
+        <v>38753.99159869212</v>
       </c>
       <c r="F178">
-        <v>3341.615405477302</v>
+        <v>1153.851077934887</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>515.3</v>
+        <v>473.1</v>
       </c>
       <c r="B179">
-        <v>128928.1044973127</v>
+        <v>300540.3797895499</v>
       </c>
       <c r="C179">
-        <v>14321.45081233729</v>
+        <v>15974.47383851502</v>
       </c>
       <c r="D179">
-        <v>61327.75266031075</v>
+        <v>69868.09235030886</v>
       </c>
       <c r="E179">
-        <v>15874.08322527219</v>
+        <v>37563.24906201908</v>
       </c>
       <c r="F179">
-        <v>2995.076403479892</v>
+        <v>1139.459964281388</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>517.8</v>
+        <v>475.7</v>
       </c>
       <c r="B180">
-        <v>128946.6648924499</v>
+        <v>283489.5480255147</v>
       </c>
       <c r="C180">
-        <v>16960.11206016558</v>
+        <v>13029.90613290962</v>
       </c>
       <c r="D180">
-        <v>60030.11822543752</v>
+        <v>69075.111595247</v>
       </c>
       <c r="E180">
-        <v>15383.06473201135</v>
+        <v>35978.02243288756</v>
       </c>
       <c r="F180">
-        <v>3445.794879569671</v>
+        <v>1425.556335071318</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>520.1</v>
+        <v>478</v>
       </c>
       <c r="B181">
-        <v>121439.7404559759</v>
+        <v>282333.0430034834</v>
       </c>
       <c r="C181">
-        <v>16637.28040816753</v>
+        <v>15375.09623948943</v>
       </c>
       <c r="D181">
-        <v>59893.89454535414</v>
+        <v>67533.24400423077</v>
       </c>
       <c r="E181">
-        <v>13843.32771821139</v>
+        <v>35481.86041480967</v>
       </c>
       <c r="F181">
-        <v>3719.255877572275</v>
+        <v>1062.872355385494</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>522.4</v>
+        <v>480.3</v>
       </c>
       <c r="B182">
-        <v>112432.8160195021</v>
+        <v>266476.5379814523</v>
       </c>
       <c r="C182">
-        <v>16604.44875616955</v>
+        <v>15390.28634606925</v>
       </c>
       <c r="D182">
-        <v>59967.67086527076</v>
+        <v>62891.37641321454</v>
       </c>
       <c r="E182">
-        <v>13213.59070441142</v>
+        <v>32835.69839673179</v>
       </c>
       <c r="F182">
-        <v>3272.716875574873</v>
+        <v>1570.18837569967</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>524.6</v>
+        <v>482.5</v>
       </c>
       <c r="B183">
-        <v>105413.1491672228</v>
+        <v>253818.1418734224</v>
       </c>
       <c r="C183">
-        <v>15090.87065425839</v>
+        <v>13248.72905671082</v>
       </c>
       <c r="D183">
-        <v>58522.1525625823</v>
+        <v>60296.54654354684</v>
       </c>
       <c r="E183">
-        <v>13139.49443034189</v>
+        <v>30795.89124900513</v>
       </c>
       <c r="F183">
-        <v>3512.549134533878</v>
+        <v>1334.577612521917</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>526.9</v>
+        <v>484.8</v>
       </c>
       <c r="B184">
-        <v>94106.2247307488</v>
+        <v>232961.6368513912</v>
       </c>
       <c r="C184">
-        <v>14138.03900226041</v>
+        <v>13453.91916329063</v>
       </c>
       <c r="D184">
-        <v>56375.92888249892</v>
+        <v>57664.67895253061</v>
       </c>
       <c r="E184">
-        <v>12109.75741654193</v>
+        <v>28569.72923092724</v>
       </c>
       <c r="F184">
-        <v>4016.010132536475</v>
+        <v>1401.893632836094</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>529.1</v>
+        <v>487.4</v>
       </c>
       <c r="B185">
-        <v>102586.5578784695</v>
+        <v>219910.8050873558</v>
       </c>
       <c r="C185">
-        <v>15454.46090034925</v>
+        <v>14039.35145768521</v>
       </c>
       <c r="D185">
-        <v>58300.41057981046</v>
+        <v>54391.69819746878</v>
       </c>
       <c r="E185">
-        <v>11565.66114247239</v>
+        <v>28404.50260179572</v>
       </c>
       <c r="F185">
-        <v>3625.842391495488</v>
+        <v>1447.990003626031</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>531.4</v>
+        <v>489.7</v>
       </c>
       <c r="B186">
-        <v>94479.63344199568</v>
+        <v>219754.3000653247</v>
       </c>
       <c r="C186">
-        <v>18131.62924835127</v>
+        <v>12124.54156426504</v>
       </c>
       <c r="D186">
-        <v>57834.18689972708</v>
+        <v>50889.83060645255</v>
       </c>
       <c r="E186">
-        <v>12015.92412867243</v>
+        <v>27508.34058371783</v>
       </c>
       <c r="F186">
-        <v>4469.303389498078</v>
+        <v>1135.306023940199</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>534</v>
+        <v>491.9</v>
       </c>
       <c r="B187">
-        <v>90710.93625293823</v>
+        <v>206895.9039572948</v>
       </c>
       <c r="C187">
-        <v>16371.03694609266</v>
+        <v>15192.98427490661</v>
       </c>
       <c r="D187">
-        <v>54865.8470874589</v>
+        <v>51625.00073678485</v>
       </c>
       <c r="E187">
-        <v>10849.26489568116</v>
+        <v>25398.53343599116</v>
       </c>
       <c r="F187">
-        <v>4183.650604631448</v>
+        <v>899.6952607624535</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>536.3</v>
+        <v>494.2</v>
       </c>
       <c r="B188">
-        <v>81204.01181646436</v>
+        <v>188939.3989352636</v>
       </c>
       <c r="C188">
-        <v>17198.20529409468</v>
+        <v>12478.17438148642</v>
       </c>
       <c r="D188">
-        <v>56709.62340737552</v>
+        <v>50503.13314576859</v>
       </c>
       <c r="E188">
-        <v>10099.5278818812</v>
+        <v>24982.37141791327</v>
       </c>
       <c r="F188">
-        <v>3887.111602634046</v>
+        <v>1207.01128107663</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>538.2</v>
+        <v>496.8</v>
       </c>
       <c r="B189">
-        <v>91146.11771676849</v>
+        <v>196688.5671712283</v>
       </c>
       <c r="C189">
-        <v>15472.38784244414</v>
+        <v>13023.606675881</v>
       </c>
       <c r="D189">
-        <v>54106.22123687186</v>
+        <v>46520.15239070676</v>
       </c>
       <c r="E189">
-        <v>10122.35382700297</v>
+        <v>21167.14478878174</v>
       </c>
       <c r="F189">
-        <v>4126.057644462285</v>
+        <v>1213.107651866559</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>540.8</v>
+        <v>499.1</v>
       </c>
       <c r="B190">
-        <v>83477.42052771116</v>
+        <v>179732.0621491971</v>
       </c>
       <c r="C190">
-        <v>15861.79554018554</v>
+        <v>10868.79678246081</v>
       </c>
       <c r="D190">
-        <v>53357.88142460368</v>
+        <v>45718.28479969053</v>
       </c>
       <c r="E190">
-        <v>9685.694594011704</v>
+        <v>21520.98277070386</v>
       </c>
       <c r="F190">
-        <v>3890.404859595648</v>
+        <v>1490.423672180741</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>543</v>
+        <v>501.3</v>
       </c>
       <c r="B191">
-        <v>75157.75367543177</v>
+        <v>183173.6660411672</v>
       </c>
       <c r="C191">
-        <v>15648.21743827439</v>
+        <v>11457.23949310238</v>
       </c>
       <c r="D191">
-        <v>54942.36312191524</v>
+        <v>43773.45493002283</v>
       </c>
       <c r="E191">
-        <v>8361.59831994217</v>
+        <v>20181.17562297719</v>
       </c>
       <c r="F191">
-        <v>3710.237118554654</v>
+        <v>2044.812909002989</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>545.3</v>
+        <v>503.6</v>
       </c>
       <c r="B192">
-        <v>77250.8292389579</v>
+        <v>177717.1610191361</v>
       </c>
       <c r="C192">
-        <v>14965.3857862764</v>
+        <v>9482.4295996822</v>
       </c>
       <c r="D192">
-        <v>54986.13944183187</v>
+        <v>42751.5873390066</v>
       </c>
       <c r="E192">
-        <v>9251.861306142209</v>
+        <v>19715.01360489931</v>
       </c>
       <c r="F192">
-        <v>4353.698116557252</v>
+        <v>1112.128929317158</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>547.6</v>
+        <v>505.9</v>
       </c>
       <c r="B193">
-        <v>69843.90480248409</v>
+        <v>160660.6559971048</v>
       </c>
       <c r="C193">
-        <v>13142.55413427835</v>
+        <v>10297.61970626203</v>
       </c>
       <c r="D193">
-        <v>52239.91576174846</v>
+        <v>39559.71974799037</v>
       </c>
       <c r="E193">
-        <v>8682.124292342236</v>
+        <v>18878.85158682142</v>
       </c>
       <c r="F193">
-        <v>4377.159114559855</v>
+        <v>1379.444949631334</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>549.5</v>
+        <v>508.5</v>
       </c>
       <c r="B194">
-        <v>67086.01070278819</v>
+        <v>160909.8242330695</v>
       </c>
       <c r="C194">
-        <v>14876.73668262785</v>
+        <v>10783.05200065661</v>
       </c>
       <c r="D194">
-        <v>52256.5135912448</v>
+        <v>38286.73899292855</v>
       </c>
       <c r="E194">
-        <v>8424.950237464007</v>
+        <v>18003.6249576899</v>
       </c>
       <c r="F194">
-        <v>4466.10515638808</v>
+        <v>1065.54132042127</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>552.4</v>
+        <v>510.7</v>
       </c>
       <c r="B195">
-        <v>64955.54076114722</v>
+        <v>147051.4281250396</v>
       </c>
       <c r="C195">
-        <v>14348.38373010863</v>
+        <v>13181.49471129817</v>
       </c>
       <c r="D195">
-        <v>53896.05764679183</v>
+        <v>36001.90912326085</v>
       </c>
       <c r="E195">
-        <v>7611.368785281448</v>
+        <v>16343.81780996323</v>
       </c>
       <c r="F195">
-        <v>4461.338588652225</v>
+        <v>1519.930557243518</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>554.7</v>
+        <v>513</v>
       </c>
       <c r="B196">
-        <v>56348.61632467338</v>
+        <v>143994.9231030084</v>
       </c>
       <c r="C196">
-        <v>15895.55207811061</v>
+        <v>12196.68481787799</v>
       </c>
       <c r="D196">
-        <v>51079.83396670845</v>
+        <v>37930.04153224461</v>
       </c>
       <c r="E196">
-        <v>6441.631771481474</v>
+        <v>15187.65579188535</v>
       </c>
       <c r="F196">
-        <v>3944.799586654828</v>
+        <v>1417.246577557701</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>556.9</v>
+        <v>515.3</v>
       </c>
       <c r="B197">
-        <v>55228.94947239396</v>
+        <v>121638.4180809772</v>
       </c>
       <c r="C197">
-        <v>13641.97397619949</v>
+        <v>9911.874924457814</v>
       </c>
       <c r="D197">
-        <v>49594.31566402002</v>
+        <v>33908.17394122839</v>
       </c>
       <c r="E197">
-        <v>8397.535497411947</v>
+        <v>14641.49377380747</v>
       </c>
       <c r="F197">
-        <v>4374.631845613827</v>
+        <v>1054.56259787187</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>559.2</v>
+        <v>517.8</v>
       </c>
       <c r="B198">
-        <v>59122.02503592015</v>
+        <v>121385.6952309432</v>
       </c>
       <c r="C198">
-        <v>14149.14232420147</v>
+        <v>12450.55982291415</v>
       </c>
       <c r="D198">
-        <v>48698.09198393664</v>
+        <v>32202.23090751506</v>
       </c>
       <c r="E198">
-        <v>7507.798483611979</v>
+        <v>14132.62201502716</v>
       </c>
       <c r="F198">
-        <v>4678.09284361643</v>
+        <v>1487.732185169879</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>561.8</v>
+        <v>520.1</v>
       </c>
       <c r="B199">
-        <v>48653.32784686278</v>
+        <v>113629.1902089121</v>
       </c>
       <c r="C199">
-        <v>12728.55002194287</v>
+        <v>12035.74992949395</v>
       </c>
       <c r="D199">
-        <v>51059.75217166847</v>
+        <v>31690.36331649883</v>
       </c>
       <c r="E199">
-        <v>6971.13925062072</v>
+        <v>12576.45999694927</v>
       </c>
       <c r="F199">
-        <v>4212.440058749795</v>
+        <v>1745.048205484062</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>564</v>
+        <v>522.4</v>
       </c>
       <c r="B200">
-        <v>47133.66099458339</v>
+        <v>104372.6851868808</v>
       </c>
       <c r="C200">
-        <v>13424.97192003172</v>
+        <v>11910.94003607378</v>
       </c>
       <c r="D200">
-        <v>48594.23386898001</v>
+        <v>31388.4957254826</v>
       </c>
       <c r="E200">
-        <v>7297.042976551186</v>
+        <v>11930.29797887138</v>
       </c>
       <c r="F200">
-        <v>4292.272317708807</v>
+        <v>1282.36422579823</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>566.3</v>
+        <v>524.6</v>
       </c>
       <c r="B201">
-        <v>48526.73655810954</v>
+        <v>97114.28907885097</v>
       </c>
       <c r="C201">
-        <v>12402.14026803373</v>
+        <v>10309.38274671534</v>
       </c>
       <c r="D201">
-        <v>46178.01018889663</v>
+        <v>29583.66585581489</v>
       </c>
       <c r="E201">
-        <v>6187.305962751226</v>
+        <v>11840.49083114471</v>
       </c>
       <c r="F201">
-        <v>4145.733315711398</v>
+        <v>1506.753462620484</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>568.5</v>
+        <v>526.9</v>
       </c>
       <c r="B202">
-        <v>40907.06970583016</v>
+        <v>85557.78405681982</v>
       </c>
       <c r="C202">
-        <v>11318.56216612258</v>
+        <v>9264.572853295158</v>
       </c>
       <c r="D202">
-        <v>50622.49188620817</v>
+        <v>27061.79826479866</v>
       </c>
       <c r="E202">
-        <v>5433.209688681684</v>
+        <v>10794.32881306683</v>
       </c>
       <c r="F202">
-        <v>4955.565574670411</v>
+        <v>1994.069482934661</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>570.8</v>
+        <v>529.1</v>
       </c>
       <c r="B203">
-        <v>41300.1452693563</v>
+        <v>93799.38794878995</v>
       </c>
       <c r="C203">
-        <v>10805.73051412459</v>
+        <v>10493.01556393671</v>
       </c>
       <c r="D203">
-        <v>51466.26820612479</v>
+        <v>28626.96839513096</v>
       </c>
       <c r="E203">
-        <v>6373.472674881724</v>
+        <v>10234.52166534015</v>
       </c>
       <c r="F203">
-        <v>4699.026572673</v>
+        <v>1588.458719756908</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>573.1</v>
+        <v>531.4</v>
       </c>
       <c r="B204">
-        <v>49193.22083288246</v>
+        <v>85442.8829267587</v>
       </c>
       <c r="C204">
-        <v>13282.8988621266</v>
+        <v>13078.20567051655</v>
       </c>
       <c r="D204">
-        <v>49310.04452604141</v>
+        <v>27785.10080411474</v>
       </c>
       <c r="E204">
-        <v>4293.735661081757</v>
+        <v>10668.35964726228</v>
       </c>
       <c r="F204">
-        <v>4272.487570675604</v>
+        <v>2415.774740071077</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>575.7</v>
+        <v>534</v>
       </c>
       <c r="B205">
-        <v>32724.52364382501</v>
+        <v>81392.05116272335</v>
       </c>
       <c r="C205">
-        <v>11272.30655986796</v>
+        <v>11213.63796491112</v>
       </c>
       <c r="D205">
-        <v>46351.70471377323</v>
+        <v>24392.12004905291</v>
       </c>
       <c r="E205">
-        <v>4747.07642809049</v>
+        <v>9483.133018130757</v>
       </c>
       <c r="F205">
-        <v>4876.834785808975</v>
+        <v>2111.87111086102</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>577.9</v>
+        <v>536.3</v>
       </c>
       <c r="B206">
-        <v>35504.85679154561</v>
+        <v>71635.5461406922</v>
       </c>
       <c r="C206">
-        <v>11558.72845795685</v>
+        <v>11948.82807149096</v>
       </c>
       <c r="D206">
-        <v>49276.18641108477</v>
+        <v>25860.25245803668</v>
       </c>
       <c r="E206">
-        <v>6032.980154020964</v>
+        <v>8716.97100005287</v>
       </c>
       <c r="F206">
-        <v>4766.667044767973</v>
+        <v>1799.18713117519</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>580.2</v>
+        <v>538.2</v>
       </c>
       <c r="B207">
-        <v>33097.93235507178</v>
+        <v>81371.47677466643</v>
       </c>
       <c r="C207">
-        <v>11015.89680595883</v>
+        <v>10147.02859431774</v>
       </c>
       <c r="D207">
-        <v>48789.96273100139</v>
+        <v>22946.53575241457</v>
       </c>
       <c r="E207">
-        <v>4163.243140220989</v>
+        <v>8726.228463379832</v>
       </c>
       <c r="F207">
-        <v>4680.128042770577</v>
+        <v>2024.796017521683</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>582.4</v>
+        <v>540.8</v>
       </c>
       <c r="B208">
-        <v>26178.26550279238</v>
+        <v>73420.64501063108</v>
       </c>
       <c r="C208">
-        <v>11682.31870404771</v>
+        <v>10432.46088871234</v>
       </c>
       <c r="D208">
-        <v>48834.44442831293</v>
+        <v>21773.55499735272</v>
       </c>
       <c r="E208">
-        <v>4419.146866151462</v>
+        <v>8271.001834248309</v>
       </c>
       <c r="F208">
-        <v>4619.960301729584</v>
+        <v>1770.892388311621</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>584.7</v>
+        <v>543</v>
       </c>
       <c r="B209">
-        <v>29371.34106631854</v>
+        <v>64862.24890260122</v>
       </c>
       <c r="C209">
-        <v>10349.48705204969</v>
+        <v>10130.9035993539</v>
       </c>
       <c r="D209">
-        <v>51238.22074822955</v>
+        <v>22998.72512768501</v>
       </c>
       <c r="E209">
-        <v>5059.409852351494</v>
+        <v>6931.194686521638</v>
       </c>
       <c r="F209">
-        <v>5113.42129973218</v>
+        <v>1575.281625133868</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>587.3</v>
+        <v>545.3</v>
       </c>
       <c r="B210">
-        <v>15102.64387726119</v>
+        <v>66705.74388057007</v>
       </c>
       <c r="C210">
-        <v>7288.894749791088</v>
+        <v>9356.093705933723</v>
       </c>
       <c r="D210">
-        <v>49829.88093596138</v>
+        <v>22666.85753666879</v>
       </c>
       <c r="E210">
-        <v>5612.750619360235</v>
+        <v>7805.032668443757</v>
       </c>
       <c r="F210">
-        <v>4727.768514865545</v>
+        <v>2202.597645448037</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>589.5</v>
+        <v>547.6</v>
       </c>
       <c r="B211">
-        <v>36582.9770249818</v>
+        <v>59049.23885853881</v>
       </c>
       <c r="C211">
-        <v>12815.31664787996</v>
+        <v>7441.283812513524</v>
       </c>
       <c r="D211">
-        <v>53294.36263327292</v>
+        <v>19544.98994565255</v>
       </c>
       <c r="E211">
-        <v>6808.654345290701</v>
+        <v>7218.870650365869</v>
       </c>
       <c r="F211">
-        <v>5197.600773824557</v>
+        <v>2209.913665762219</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>591.8</v>
+        <v>549.5</v>
       </c>
       <c r="B212">
-        <v>41876.05258850794</v>
+        <v>56085.16949251303</v>
       </c>
       <c r="C212">
-        <v>11942.48499588195</v>
+        <v>9099.484335340341</v>
       </c>
       <c r="D212">
-        <v>52938.13895318954</v>
+        <v>19251.27324003044</v>
       </c>
       <c r="E212">
-        <v>5978.917331490741</v>
+        <v>6948.128113692839</v>
       </c>
       <c r="F212">
-        <v>5531.061771827147</v>
+        <v>2285.522552108706</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>594</v>
+        <v>552.4</v>
       </c>
       <c r="B213">
-        <v>46856.38573622856</v>
+        <v>53640.01098647372</v>
       </c>
       <c r="C213">
-        <v>13788.90689397083</v>
+        <v>8455.158817549687</v>
       </c>
       <c r="D213">
-        <v>55332.62065050109</v>
+        <v>20417.17932092303</v>
       </c>
       <c r="E213">
-        <v>6054.821057421206</v>
+        <v>6113.836873507682</v>
       </c>
       <c r="F213">
-        <v>5670.894030786159</v>
+        <v>2260.399273374404</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>596.3</v>
+        <v>554.7</v>
       </c>
       <c r="B214">
-        <v>51249.46129975471</v>
+        <v>44783.50596444246</v>
       </c>
       <c r="C214">
-        <v>14626.07524197281</v>
+        <v>9910.348924129488</v>
       </c>
       <c r="D214">
-        <v>56986.3969704177</v>
+        <v>17225.31172990677</v>
       </c>
       <c r="E214">
-        <v>5415.084043621239</v>
+        <v>4927.674855429794</v>
       </c>
       <c r="F214">
-        <v>5244.35502878875</v>
+        <v>1727.715293688579</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
+        <v>556.9</v>
+      </c>
+      <c r="B215">
+        <v>43425.10985641259</v>
+      </c>
+      <c r="C215">
+        <v>7568.791634771071</v>
+      </c>
+      <c r="D215">
+        <v>15380.4818602391</v>
+      </c>
+      <c r="E215">
+        <v>6867.867707703123</v>
+      </c>
+      <c r="F215">
+        <v>2142.104530510828</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>559.2</v>
+      </c>
+      <c r="B216">
+        <v>47068.60483438133</v>
+      </c>
+      <c r="C216">
+        <v>7983.981741350872</v>
+      </c>
+      <c r="D216">
+        <v>14108.61426922286</v>
+      </c>
+      <c r="E216">
+        <v>5961.705689625232</v>
+      </c>
+      <c r="F216">
+        <v>2429.42055082501</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>561.8</v>
+      </c>
+      <c r="B217">
+        <v>36317.7730703461</v>
+      </c>
+      <c r="C217">
+        <v>6459.414035745474</v>
+      </c>
+      <c r="D217">
+        <v>16045.63351416102</v>
+      </c>
+      <c r="E217">
+        <v>5406.479060493719</v>
+      </c>
+      <c r="F217">
+        <v>1945.516921614941</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>564</v>
+      </c>
+      <c r="B218">
+        <v>34559.37696231624</v>
+      </c>
+      <c r="C218">
+        <v>7067.856746387028</v>
+      </c>
+      <c r="D218">
+        <v>13220.80364449331</v>
+      </c>
+      <c r="E218">
+        <v>5716.671912767039</v>
+      </c>
+      <c r="F218">
+        <v>2009.906158437188</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>566.3</v>
+      </c>
+      <c r="B219">
+        <v>35702.87194028498</v>
+      </c>
+      <c r="C219">
+        <v>5953.046852966872</v>
+      </c>
+      <c r="D219">
+        <v>10428.93605347708</v>
+      </c>
+      <c r="E219">
+        <v>4590.509894689167</v>
+      </c>
+      <c r="F219">
+        <v>1847.222178751365</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>568.5</v>
+      </c>
+      <c r="B220">
+        <v>27844.47583225512</v>
+      </c>
+      <c r="C220">
+        <v>4781.489563608426</v>
+      </c>
+      <c r="D220">
+        <v>14514.10618380938</v>
+      </c>
+      <c r="E220">
+        <v>3820.702746962487</v>
+      </c>
+      <c r="F220">
+        <v>2641.611415573619</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>570.8</v>
+      </c>
+      <c r="B221">
+        <v>27987.97081022397</v>
+      </c>
+      <c r="C221">
+        <v>4176.679670188249</v>
+      </c>
+      <c r="D221">
+        <v>14982.23859279315</v>
+      </c>
+      <c r="E221">
+        <v>4744.540728884607</v>
+      </c>
+      <c r="F221">
+        <v>2368.927435887787</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>573.1</v>
+      </c>
+      <c r="B222">
+        <v>35631.46578819271</v>
+      </c>
+      <c r="C222">
+        <v>6561.869776768057</v>
+      </c>
+      <c r="D222">
+        <v>12450.37100177691</v>
+      </c>
+      <c r="E222">
+        <v>2648.378710806718</v>
+      </c>
+      <c r="F222">
+        <v>1926.24345620197</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>575.7</v>
+      </c>
+      <c r="B223">
+        <v>18880.63402415748</v>
+      </c>
+      <c r="C223">
+        <v>4447.302071162623</v>
+      </c>
+      <c r="D223">
+        <v>9067.390246715062</v>
+      </c>
+      <c r="E223">
+        <v>3083.152081675195</v>
+      </c>
+      <c r="F223">
+        <v>2512.339826991899</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>577.9</v>
+      </c>
+      <c r="B224">
+        <v>21422.23791612762</v>
+      </c>
+      <c r="C224">
+        <v>4645.744781804213</v>
+      </c>
+      <c r="D224">
+        <v>11632.5603770474</v>
+      </c>
+      <c r="E224">
+        <v>4353.344933948523</v>
+      </c>
+      <c r="F224">
+        <v>2386.729063814148</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>580.2</v>
+      </c>
+      <c r="B225">
+        <v>18765.73289409636</v>
+      </c>
+      <c r="C225">
+        <v>4010.934888384021</v>
+      </c>
+      <c r="D225">
+        <v>10770.69278603116</v>
+      </c>
+      <c r="E225">
+        <v>2467.182915870635</v>
+      </c>
+      <c r="F225">
+        <v>2284.04508412833</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>582.4</v>
+      </c>
+      <c r="B226">
+        <v>11607.33678606649</v>
+      </c>
+      <c r="C226">
+        <v>4589.377599025596</v>
+      </c>
+      <c r="D226">
+        <v>10455.86291636343</v>
+      </c>
+      <c r="E226">
+        <v>2707.375768143972</v>
+      </c>
+      <c r="F226">
+        <v>2208.434320950579</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>584.7</v>
+      </c>
+      <c r="B227">
+        <v>14550.83176403523</v>
+      </c>
+      <c r="C227">
+        <v>3164.567705605397</v>
+      </c>
+      <c r="D227">
+        <v>12483.9953253472</v>
+      </c>
+      <c r="E227">
+        <v>3331.213750066082</v>
+      </c>
+      <c r="F227">
+        <v>2685.750341264754</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>587.3</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>10651.01457028538</v>
+      </c>
+      <c r="E228">
+        <v>3865.987120934568</v>
+      </c>
+      <c r="F228">
+        <v>2281.846712054684</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>589.5</v>
+      </c>
+      <c r="B229">
+        <v>21241.60389197014</v>
+      </c>
+      <c r="C229">
+        <v>5438.442710641561</v>
+      </c>
+      <c r="D229">
+        <v>13756.18470061768</v>
+      </c>
+      <c r="E229">
+        <v>5046.179973207896</v>
+      </c>
+      <c r="F229">
+        <v>2736.235948876939</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>591.8</v>
+      </c>
+      <c r="B230">
+        <v>26285.09886993888</v>
+      </c>
+      <c r="C230">
+        <v>4473.632817221383</v>
+      </c>
+      <c r="D230">
+        <v>13024.31710960145</v>
+      </c>
+      <c r="E230">
+        <v>4200.017955130008</v>
+      </c>
+      <c r="F230">
+        <v>3053.551969191108</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>594</v>
+      </c>
+      <c r="B231">
+        <v>31026.70276190901</v>
+      </c>
+      <c r="C231">
+        <v>6232.075527862944</v>
+      </c>
+      <c r="D231">
+        <v>15059.48723993374</v>
+      </c>
+      <c r="E231">
+        <v>4260.210807403337</v>
+      </c>
+      <c r="F231">
+        <v>3177.94120601337</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>596.3</v>
+      </c>
+      <c r="B232">
+        <v>35170.19773987787</v>
+      </c>
+      <c r="C232">
+        <v>6977.265634442767</v>
+      </c>
+      <c r="D232">
+        <v>16337.61964891752</v>
+      </c>
+      <c r="E232">
+        <v>3604.048789325455</v>
+      </c>
+      <c r="F232">
+        <v>2735.257226327539</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
         <v>598.9</v>
       </c>
-      <c r="B215">
-        <v>41180.76411069724</v>
-      </c>
-      <c r="C215">
-        <v>15455.48293971418</v>
-      </c>
-      <c r="D215">
-        <v>55078.05715814953</v>
-      </c>
-      <c r="E215">
-        <v>5298.424810629979</v>
-      </c>
-      <c r="F215">
-        <v>5478.702243922127</v>
+      <c r="B233">
+        <v>24819.36597584252</v>
+      </c>
+      <c r="C233">
+        <v>7702.697928837348</v>
+      </c>
+      <c r="D233">
+        <v>14004.63889385569</v>
+      </c>
+      <c r="E233">
+        <v>3468.822160193933</v>
+      </c>
+      <c r="F233">
+        <v>2951.353597117475</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>601.1</v>
+      </c>
+      <c r="B234">
+        <v>26560.96986781266</v>
+      </c>
+      <c r="C234">
+        <v>5371.140639478901</v>
+      </c>
+      <c r="D234">
+        <v>15189.80902418795</v>
+      </c>
+      <c r="E234">
+        <v>5359.015012467253</v>
+      </c>
+      <c r="F234">
+        <v>3035.742833939729</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>603.3</v>
+      </c>
+      <c r="B235">
+        <v>36402.5737597828</v>
+      </c>
+      <c r="C235">
+        <v>7039.583350120483</v>
+      </c>
+      <c r="D235">
+        <v>18974.97915452029</v>
+      </c>
+      <c r="E235">
+        <v>4639.207864740589</v>
+      </c>
+      <c r="F235">
+        <v>3430.132070761979</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>605.6</v>
+      </c>
+      <c r="B236">
+        <v>33046.06873775166</v>
+      </c>
+      <c r="C236">
+        <v>8174.773456700284</v>
+      </c>
+      <c r="D236">
+        <v>19233.11156350403</v>
+      </c>
+      <c r="E236">
+        <v>3123.045846662701</v>
+      </c>
+      <c r="F236">
+        <v>2947.448091076153</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>607.8</v>
+      </c>
+      <c r="B237">
+        <v>33887.67262972179</v>
+      </c>
+      <c r="C237">
+        <v>5103.216167341874</v>
+      </c>
+      <c r="D237">
+        <v>18888.28169383633</v>
+      </c>
+      <c r="E237">
+        <v>4023.23869893603</v>
+      </c>
+      <c r="F237">
+        <v>2931.837327898409</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>610.1</v>
+      </c>
+      <c r="B238">
+        <v>30431.16760769053</v>
+      </c>
+      <c r="C238">
+        <v>3558.406273921682</v>
+      </c>
+      <c r="D238">
+        <v>18756.41410282009</v>
+      </c>
+      <c r="E238">
+        <v>2697.076680858141</v>
+      </c>
+      <c r="F238">
+        <v>3219.153348212577</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>612.7</v>
+      </c>
+      <c r="B239">
+        <v>27480.33584365519</v>
+      </c>
+      <c r="C239">
+        <v>2663.838568316249</v>
+      </c>
+      <c r="D239">
+        <v>20063.43334775827</v>
+      </c>
+      <c r="E239">
+        <v>3691.850051726618</v>
+      </c>
+      <c r="F239">
+        <v>3495.249719002521</v>
       </c>
     </row>
   </sheetData>

--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_7.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_7.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F239"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4762 +417,4202 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>92.8</v>
+        <v>111.5</v>
       </c>
       <c r="B2">
-        <v>60048.57973671159</v>
+        <v>43465.30069848819</v>
       </c>
       <c r="C2">
-        <v>2864.12708533876</v>
+        <v>7543.428100466625</v>
       </c>
       <c r="D2">
-        <v>19722.54663877576</v>
+        <v>57060.69214902453</v>
       </c>
       <c r="E2">
-        <v>3740.821007679687</v>
+        <v>4855.593723961175</v>
       </c>
       <c r="F2">
-        <v>3878.902344507419</v>
+        <v>3356.932369911345</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>92.8</v>
+        <v>114.2</v>
       </c>
       <c r="B3">
-        <v>21648.57973671159</v>
+        <v>49379.23510898951</v>
       </c>
       <c r="C3">
-        <v>3544.12708533876</v>
+        <v>6827.71507845893</v>
       </c>
       <c r="D3">
-        <v>19752.54663877576</v>
+        <v>52259.21463570528</v>
       </c>
       <c r="E3">
-        <v>3400.821007679687</v>
+        <v>5506.120959883775</v>
       </c>
       <c r="F3">
-        <v>2608.902344507419</v>
+        <v>2676.056744057769</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>92.8</v>
+        <v>116.9</v>
       </c>
       <c r="B4">
-        <v>10348.57973671159</v>
+        <v>33393.16951949071</v>
       </c>
       <c r="C4">
-        <v>4454.12708533876</v>
+        <v>5722.002056451236</v>
       </c>
       <c r="D4">
-        <v>17542.54663877576</v>
+        <v>45877.73712238605</v>
       </c>
       <c r="E4">
-        <v>3200.821007679687</v>
+        <v>4296.648195806375</v>
       </c>
       <c r="F4">
-        <v>3058.902344507419</v>
+        <v>2545.181118204186</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>92.8</v>
+        <v>119.7</v>
       </c>
       <c r="B5">
-        <v>9248.579736711592</v>
+        <v>29018.73113038085</v>
       </c>
       <c r="C5">
-        <v>3504.12708533876</v>
+        <v>4464.966329924739</v>
       </c>
       <c r="D5">
-        <v>20702.54663877576</v>
+        <v>38673.98266412909</v>
       </c>
       <c r="E5">
-        <v>3670.821007679687</v>
+        <v>4631.269033059437</v>
       </c>
       <c r="F5">
-        <v>2828.902344507419</v>
+        <v>1787.236024726405</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>92.8</v>
+        <v>122.1</v>
       </c>
       <c r="B6">
-        <v>18048.57973671159</v>
+        <v>27797.78393971529</v>
       </c>
       <c r="C6">
-        <v>5014.12708533876</v>
+        <v>4043.221421473456</v>
       </c>
       <c r="D6">
-        <v>20152.54663877576</v>
+        <v>38289.33598562309</v>
       </c>
       <c r="E6">
-        <v>3860.821007679687</v>
+        <v>3859.515464990637</v>
       </c>
       <c r="F6">
-        <v>2068.902344507419</v>
+        <v>1587.568801745443</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>92.7</v>
+        <v>124.5</v>
       </c>
       <c r="B7">
-        <v>15946.68865071299</v>
+        <v>21176.83674904962</v>
       </c>
       <c r="C7">
-        <v>6157.379689400511</v>
+        <v>3331.476513022186</v>
       </c>
       <c r="D7">
-        <v>19939.58436012429</v>
+        <v>32934.68930711711</v>
       </c>
       <c r="E7">
-        <v>2867.175878030903</v>
+        <v>4017.761896921837</v>
       </c>
       <c r="F7">
-        <v>2675.975561015499</v>
+        <v>957.9015787644887</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>92.8</v>
+        <v>126.6</v>
       </c>
       <c r="B8">
-        <v>11148.57973671159</v>
+        <v>12521.00795721731</v>
       </c>
       <c r="C8">
-        <v>6754.12708533876</v>
+        <v>2243.699718127313</v>
       </c>
       <c r="D8">
-        <v>19582.54663877576</v>
+        <v>28046.87346342437</v>
       </c>
       <c r="E8">
-        <v>4100.821007679687</v>
+        <v>4213.727524861637</v>
       </c>
       <c r="F8">
-        <v>2168.902344507419</v>
+        <v>1529.442758656148</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>92.8</v>
+        <v>128.8</v>
       </c>
       <c r="B9">
-        <v>14648.57973671159</v>
+        <v>9776.806365773853</v>
       </c>
       <c r="C9">
-        <v>5924.12708533876</v>
+        <v>2794.600218713635</v>
       </c>
       <c r="D9">
-        <v>20542.54663877576</v>
+        <v>25886.78067479389</v>
       </c>
       <c r="E9">
-        <v>3690.821007679687</v>
+        <v>3943.786754131899</v>
       </c>
       <c r="F9">
-        <v>2298.902344507419</v>
+        <v>763.9144709236025</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>92.8</v>
+        <v>130.9</v>
       </c>
       <c r="B10">
-        <v>17348.57973671159</v>
+        <v>4620.977573941433</v>
       </c>
       <c r="C10">
-        <v>7144.12708533876</v>
+        <v>2856.823423818763</v>
       </c>
       <c r="D10">
-        <v>18142.54663877576</v>
+        <v>23998.96483110115</v>
       </c>
       <c r="E10">
-        <v>3360.821007679687</v>
+        <v>3329.752382071699</v>
       </c>
       <c r="F10">
-        <v>1638.902344507419</v>
+        <v>1305.455650815262</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>92.7</v>
+        <v>133.4</v>
       </c>
       <c r="B11">
-        <v>14846.68865071299</v>
+        <v>4711.657583664826</v>
       </c>
       <c r="C11">
-        <v>7827.379689400511</v>
+        <v>3173.755810848676</v>
       </c>
       <c r="D11">
-        <v>18929.58436012429</v>
+        <v>23892.04120765742</v>
       </c>
       <c r="E11">
-        <v>3837.175878030903</v>
+        <v>3202.092415333369</v>
       </c>
       <c r="F11">
-        <v>1015.975561015499</v>
+        <v>1638.718960210102</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>92.8</v>
+        <v>135.5</v>
       </c>
       <c r="B12">
-        <v>14948.57973671159</v>
+        <v>5155.828791832406</v>
       </c>
       <c r="C12">
-        <v>6974.12708533876</v>
+        <v>4985.979015953802</v>
       </c>
       <c r="D12">
-        <v>20242.54663877576</v>
+        <v>23944.22536396468</v>
       </c>
       <c r="E12">
-        <v>4360.821007679687</v>
+        <v>2958.058043273169</v>
       </c>
       <c r="F12">
-        <v>1118.902344507419</v>
+        <v>1060.260140101762</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>92.90000000000001</v>
+        <v>137.6</v>
       </c>
       <c r="B13">
-        <v>14450.47082271031</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>9160.874481277007</v>
+        <v>4728.202221058929</v>
       </c>
       <c r="D13">
-        <v>28855.50891742723</v>
+        <v>22876.40952027195</v>
       </c>
       <c r="E13">
-        <v>4494.466137328478</v>
+        <v>4294.023671212961</v>
       </c>
       <c r="F13">
-        <v>771.82912799934</v>
+        <v>1281.801319993421</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>93.09999999999999</v>
+        <v>139.8</v>
       </c>
       <c r="B14">
-        <v>20954.25299470763</v>
+        <v>9555.798408556526</v>
       </c>
       <c r="C14">
-        <v>14414.36927315352</v>
+        <v>4519.102721645251</v>
       </c>
       <c r="D14">
-        <v>49691.43347473016</v>
+        <v>22796.31673164145</v>
       </c>
       <c r="E14">
-        <v>9931.756396626051</v>
+        <v>4934.08290048323</v>
       </c>
       <c r="F14">
-        <v>14047.68269498318</v>
+        <v>1496.273032260875</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>93.59999999999999</v>
+        <v>142.1</v>
       </c>
       <c r="B15">
-        <v>44463.70842470074</v>
+        <v>9323.224017502012</v>
       </c>
       <c r="C15">
-        <v>19938.10625284479</v>
+        <v>3838.680517712788</v>
       </c>
       <c r="D15">
-        <v>49386.24486798748</v>
+        <v>22993.94699807324</v>
       </c>
       <c r="E15">
-        <v>6719.982044869992</v>
+        <v>4648.235731083962</v>
       </c>
       <c r="F15">
-        <v>5032.316612442783</v>
+        <v>1823.675276904126</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>94.2</v>
+        <v>144.6</v>
       </c>
       <c r="B16">
-        <v>48675.05494069269</v>
+        <v>6813.904027225421</v>
       </c>
       <c r="C16">
-        <v>23998.5906284743</v>
+        <v>4665.6129047427</v>
       </c>
       <c r="D16">
-        <v>61094.01853989629</v>
+        <v>24847.02337462951</v>
       </c>
       <c r="E16">
-        <v>8411.852822762716</v>
+        <v>4440.575764345631</v>
       </c>
       <c r="F16">
-        <v>3759.877313394304</v>
+        <v>2196.938586298959</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>95.3</v>
+        <v>146.5</v>
       </c>
       <c r="B17">
-        <v>54595.85688667776</v>
+        <v>10434.82083461509</v>
       </c>
       <c r="C17">
-        <v>22072.81198379509</v>
+        <v>6280.481518885434</v>
       </c>
       <c r="D17">
-        <v>72616.60360506247</v>
+        <v>22073.76142081225</v>
       </c>
       <c r="E17">
-        <v>7821.94924889938</v>
+        <v>4648.354189624493</v>
       </c>
       <c r="F17">
-        <v>3182.071931805428</v>
+        <v>4242.618701439034</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>96.7</v>
+        <v>149.1</v>
       </c>
       <c r="B18">
-        <v>58722.33209065875</v>
+        <v>11837.12804472743</v>
       </c>
       <c r="C18">
-        <v>20757.27552693063</v>
+        <v>6946.091201396544</v>
       </c>
       <c r="D18">
-        <v>83838.07550618301</v>
+        <v>19964.56085243077</v>
       </c>
       <c r="E18">
-        <v>7722.981063982403</v>
+        <v>5104.787824216624</v>
       </c>
       <c r="F18">
-        <v>3643.046900692321</v>
+        <v>6878.812543209664</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>98.40000000000001</v>
+        <v>151.4</v>
       </c>
       <c r="B19">
-        <v>74754.48055263565</v>
+        <v>7404.553653672934</v>
       </c>
       <c r="C19">
-        <v>21771.98125788093</v>
+        <v>7945.668997464063</v>
       </c>
       <c r="D19">
-        <v>91678.43424325796</v>
+        <v>17232.19111886255</v>
       </c>
       <c r="E19">
-        <v>7814.948268011798</v>
+        <v>6308.940654817354</v>
       </c>
       <c r="F19">
-        <v>6022.802220054974</v>
+        <v>12696.21478785291</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>100.5</v>
+        <v>153.7</v>
       </c>
       <c r="B20">
-        <v>82994.19335860718</v>
+        <v>12271.97926261842</v>
       </c>
       <c r="C20">
-        <v>27813.67657258425</v>
+        <v>11185.24679353158</v>
       </c>
       <c r="D20">
-        <v>94380.64209493878</v>
+        <v>23779.8213852943</v>
       </c>
       <c r="E20">
-        <v>6951.495990636335</v>
+        <v>9283.093485418092</v>
       </c>
       <c r="F20">
-        <v>6994.264673385302</v>
+        <v>21703.61703249616</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>102.9</v>
+        <v>156</v>
       </c>
       <c r="B21">
-        <v>85339.57942257452</v>
+        <v>21339.40487156379</v>
       </c>
       <c r="C21">
-        <v>27725.61407510232</v>
+        <v>17264.8245895991</v>
       </c>
       <c r="D21">
-        <v>97531.73678257402</v>
+        <v>26217.45165172609</v>
       </c>
       <c r="E21">
-        <v>7798.979102207239</v>
+        <v>10607.24631601882</v>
       </c>
       <c r="F21">
-        <v>6474.507477191398</v>
+        <v>34261.01927713941</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>106</v>
+        <v>158.6</v>
       </c>
       <c r="B22">
-        <v>85798.20308853254</v>
+        <v>22541.71208167615</v>
       </c>
       <c r="C22">
-        <v>23604.78334918816</v>
+        <v>26160.43427211021</v>
       </c>
       <c r="D22">
-        <v>96183.56742076956</v>
+        <v>32918.25108334461</v>
       </c>
       <c r="E22">
-        <v>7101.978121319657</v>
+        <v>13653.67995061096</v>
       </c>
       <c r="F22">
-        <v>5595.237765440937</v>
+        <v>51837.21311891003</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>108.4</v>
+        <v>160.9</v>
       </c>
       <c r="B23">
-        <v>78943.58915249987</v>
+        <v>53709.13769062163</v>
       </c>
       <c r="C23">
-        <v>18276.72085170623</v>
+        <v>39600.01206817773</v>
       </c>
       <c r="D23">
-        <v>95804.66210840475</v>
+        <v>40115.88134977636</v>
       </c>
       <c r="E23">
-        <v>7069.461232890559</v>
+        <v>19487.83278121169</v>
       </c>
       <c r="F23">
-        <v>4315.480569247025</v>
+        <v>69904.61536355328</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>111.5</v>
+        <v>163.2</v>
       </c>
       <c r="B24">
-        <v>79702.21281845788</v>
+        <v>67176.56329956712</v>
       </c>
       <c r="C24">
-        <v>16725.89012579207</v>
+        <v>49579.58986424525</v>
       </c>
       <c r="D24">
-        <v>92346.49274660028</v>
+        <v>42563.51161620814</v>
       </c>
       <c r="E24">
-        <v>5892.460252002977</v>
+        <v>19091.98561181242</v>
       </c>
       <c r="F24">
-        <v>3366.210857496564</v>
+        <v>59412.01760819653</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>114.2</v>
+        <v>165.5</v>
       </c>
       <c r="B25">
-        <v>85353.27214042113</v>
+        <v>72743.98890851263</v>
       </c>
       <c r="C25">
-        <v>15958.0698161249</v>
+        <v>46979.16766031277</v>
       </c>
       <c r="D25">
-        <v>87146.47427018992</v>
+        <v>35681.14188263989</v>
       </c>
       <c r="E25">
-        <v>6530.878752520244</v>
+        <v>14806.13844241315</v>
       </c>
       <c r="F25">
-        <v>2685.234011778421</v>
+        <v>38029.41985283978</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>116.9</v>
+        <v>167.7</v>
       </c>
       <c r="B26">
-        <v>69104.33146238451</v>
+        <v>61899.78731706916</v>
       </c>
       <c r="C26">
-        <v>14800.24950645773</v>
+        <v>41400.06816089913</v>
       </c>
       <c r="D26">
-        <v>80366.45579377955</v>
+        <v>32021.0490940094</v>
       </c>
       <c r="E26">
-        <v>5309.297253037506</v>
+        <v>13716.19767168342</v>
       </c>
       <c r="F26">
-        <v>2554.257166060278</v>
+        <v>36833.89156510723</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>119.7</v>
+        <v>170</v>
       </c>
       <c r="B27">
-        <v>64457.28187034659</v>
+        <v>48567.21292601465</v>
       </c>
       <c r="C27">
-        <v>13489.17659272883</v>
+        <v>46629.64595696661</v>
       </c>
       <c r="D27">
-        <v>72749.39959602067</v>
+        <v>27338.67936044118</v>
       </c>
       <c r="E27">
-        <v>5631.360883203566</v>
+        <v>14370.35050228415</v>
       </c>
       <c r="F27">
-        <v>1796.207103834055</v>
+        <v>40281.29380975048</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>122.1</v>
+        <v>172.2</v>
       </c>
       <c r="B28">
-        <v>63002.66793431393</v>
+        <v>60323.01133457117</v>
       </c>
       <c r="C28">
-        <v>13021.1140952469</v>
+        <v>49830.54645755297</v>
       </c>
       <c r="D28">
-        <v>72010.49428365591</v>
+        <v>30758.58657181069</v>
       </c>
       <c r="E28">
-        <v>4848.843994774468</v>
+        <v>15330.40973155442</v>
       </c>
       <c r="F28">
-        <v>1596.449907640144</v>
+        <v>48605.76552201794</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>124.5</v>
+        <v>174.5</v>
       </c>
       <c r="B29">
-        <v>56148.05399828138</v>
+        <v>54090.43694351667</v>
       </c>
       <c r="C29">
-        <v>12263.05159776497</v>
+        <v>54600.12425362049</v>
       </c>
       <c r="D29">
-        <v>66301.58897129114</v>
+        <v>32226.21683824247</v>
       </c>
       <c r="E29">
-        <v>4996.327106345371</v>
+        <v>15804.56256215514</v>
       </c>
       <c r="F29">
-        <v>966.6927114462396</v>
+        <v>43863.16776666119</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>126.6</v>
+        <v>177.1</v>
       </c>
       <c r="B30">
-        <v>47287.76680425293</v>
+        <v>63292.74415362891</v>
       </c>
       <c r="C30">
-        <v>11134.74691246829</v>
+        <v>52965.7339361316</v>
       </c>
       <c r="D30">
-        <v>61103.79682297197</v>
+        <v>28867.01626986099</v>
       </c>
       <c r="E30">
-        <v>5182.874828969909</v>
+        <v>13010.99619674728</v>
       </c>
       <c r="F30">
-        <v>1538.155164776575</v>
+        <v>29299.36160843182</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>128.8</v>
+        <v>179.3</v>
       </c>
       <c r="B31">
-        <v>44329.37069622306</v>
+        <v>64648.54256218544</v>
       </c>
       <c r="C31">
-        <v>11643.18962310985</v>
+        <v>47756.63443671792</v>
       </c>
       <c r="D31">
-        <v>58618.96695330426</v>
+        <v>22476.9234812305</v>
       </c>
       <c r="E31">
-        <v>4903.067681243237</v>
+        <v>9751.055426017541</v>
       </c>
       <c r="F31">
-        <v>772.5444015988223</v>
+        <v>22833.83332069927</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>130.9</v>
+        <v>181.6</v>
       </c>
       <c r="B32">
-        <v>38969.08350219448</v>
+        <v>48615.96817113092</v>
       </c>
       <c r="C32">
-        <v>11664.88493781316</v>
+        <v>42516.21223278544</v>
       </c>
       <c r="D32">
-        <v>56421.1748049851</v>
+        <v>19344.55374766226</v>
       </c>
       <c r="E32">
-        <v>4279.615403867781</v>
+        <v>9935.20825661828</v>
       </c>
       <c r="F32">
-        <v>1314.006854929158</v>
+        <v>19531.23556534251</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>133.4</v>
+        <v>183.8</v>
       </c>
       <c r="B33">
-        <v>38816.36065216053</v>
+        <v>37371.76657968746</v>
       </c>
       <c r="C33">
-        <v>11933.5698362695</v>
+        <v>40977.11273337177</v>
       </c>
       <c r="D33">
-        <v>55945.23177127178</v>
+        <v>18354.46095903179</v>
       </c>
       <c r="E33">
-        <v>4140.743645087467</v>
+        <v>8835.267485888542</v>
       </c>
       <c r="F33">
-        <v>1647.176442227174</v>
+        <v>16005.70727760997</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>135.5</v>
+        <v>186.4</v>
       </c>
       <c r="B34">
-        <v>39056.07345813207</v>
+        <v>35374.07378979982</v>
       </c>
       <c r="C34">
-        <v>13705.26515097281</v>
+        <v>39882.72241588288</v>
       </c>
       <c r="D34">
-        <v>55687.4396229526</v>
+        <v>15785.26039065031</v>
       </c>
       <c r="E34">
-        <v>3887.291367712012</v>
+        <v>8831.701120480673</v>
       </c>
       <c r="F34">
-        <v>1068.638895557502</v>
+        <v>13931.9011193806</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>137.6</v>
+        <v>188.7</v>
       </c>
       <c r="B35">
-        <v>33695.78626410361</v>
+        <v>30941.49939874531</v>
       </c>
       <c r="C35">
-        <v>13406.96046567612</v>
+        <v>38532.30021195039</v>
       </c>
       <c r="D35">
-        <v>54309.64747463344</v>
+        <v>14492.89065708205</v>
       </c>
       <c r="E35">
-        <v>5213.83909033655</v>
+        <v>7915.853951081404</v>
       </c>
       <c r="F35">
-        <v>1290.101348887837</v>
+        <v>12729.30336402385</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>139.8</v>
+        <v>190.9</v>
       </c>
       <c r="B36">
-        <v>43037.39015607375</v>
+        <v>30297.29780730185</v>
       </c>
       <c r="C36">
-        <v>13155.40317631768</v>
+        <v>37433.20071253672</v>
       </c>
       <c r="D36">
-        <v>53904.81760496573</v>
+        <v>14552.79786845157</v>
       </c>
       <c r="E36">
-        <v>5844.031942609878</v>
+        <v>7305.913180351672</v>
       </c>
       <c r="F36">
-        <v>1504.490585710092</v>
+        <v>11133.7750762913</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>142.1</v>
+        <v>193.2</v>
       </c>
       <c r="B37">
-        <v>42580.88513404249</v>
+        <v>23364.72341624733</v>
       </c>
       <c r="C37">
-        <v>12430.5932828975</v>
+        <v>37062.77850860424</v>
       </c>
       <c r="D37">
-        <v>53762.95001394951</v>
+        <v>12670.42813488335</v>
       </c>
       <c r="E37">
-        <v>5547.869924531997</v>
+        <v>6540.066010952403</v>
       </c>
       <c r="F37">
-        <v>1831.80660602426</v>
+        <v>10131.17732093455</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>144.6</v>
+        <v>195.5</v>
       </c>
       <c r="B38">
-        <v>39828.16228400854</v>
+        <v>25232.14902519272</v>
       </c>
       <c r="C38">
-        <v>13209.27818135383</v>
+        <v>38842.35630467176</v>
       </c>
       <c r="D38">
-        <v>55247.00698023621</v>
+        <v>10188.0584013151</v>
       </c>
       <c r="E38">
-        <v>5328.998165751684</v>
+        <v>6754.218841553135</v>
       </c>
       <c r="F38">
-        <v>2204.976193322277</v>
+        <v>10638.5795655778</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>146.5</v>
+        <v>198.1</v>
       </c>
       <c r="B39">
-        <v>43264.09291798276</v>
+        <v>22634.45623530506</v>
       </c>
       <c r="C39">
-        <v>14787.47870418063</v>
+        <v>36017.96598718287</v>
       </c>
       <c r="D39">
-        <v>52193.2902746141</v>
+        <v>10288.85783293362</v>
       </c>
       <c r="E39">
-        <v>5528.255629078654</v>
+        <v>7060.652476145266</v>
       </c>
       <c r="F39">
-        <v>4250.585079668771</v>
+        <v>10204.77340734843</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>149.1</v>
+        <v>200.4</v>
       </c>
       <c r="B40">
-        <v>44413.26115394753</v>
+        <v>17101.88184425056</v>
       </c>
       <c r="C40">
-        <v>15402.91099857521</v>
+        <v>35277.54378325039</v>
       </c>
       <c r="D40">
-        <v>49700.30951955228</v>
+        <v>11386.4880993654</v>
       </c>
       <c r="E40">
-        <v>5973.028999947132</v>
+        <v>7254.805306745997</v>
       </c>
       <c r="F40">
-        <v>6886.6814504587</v>
+        <v>9392.17565199168</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>151.4</v>
+        <v>202.6</v>
       </c>
       <c r="B41">
-        <v>39756.75613191627</v>
+        <v>19257.68025280708</v>
       </c>
       <c r="C41">
-        <v>16358.10110515504</v>
+        <v>35368.44428383671</v>
       </c>
       <c r="D41">
-        <v>46628.44192853604</v>
+        <v>9816.395310734908</v>
       </c>
       <c r="E41">
-        <v>7166.866981869243</v>
+        <v>6184.864536016266</v>
       </c>
       <c r="F41">
-        <v>12703.99747077288</v>
+        <v>9406.647364259126</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>153.7</v>
+        <v>204.9</v>
       </c>
       <c r="B42">
-        <v>44400.25110988512</v>
+        <v>17525.10586175259</v>
       </c>
       <c r="C42">
-        <v>19553.29121173486</v>
+        <v>34938.02207990423</v>
       </c>
       <c r="D42">
-        <v>52836.57433751982</v>
+        <v>7874.025577166663</v>
       </c>
       <c r="E42">
-        <v>10130.70496379136</v>
+        <v>6019.017366616998</v>
       </c>
       <c r="F42">
-        <v>21711.31349108705</v>
+        <v>9344.049608902376</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>156</v>
+        <v>207.2</v>
       </c>
       <c r="B43">
-        <v>53243.74608785385</v>
+        <v>18292.53147069807</v>
       </c>
       <c r="C43">
-        <v>25588.48131831467</v>
+        <v>34897.59987597178</v>
       </c>
       <c r="D43">
-        <v>54934.70674650358</v>
+        <v>7181.655843598448</v>
       </c>
       <c r="E43">
-        <v>11444.54294571347</v>
+        <v>6493.170197217729</v>
       </c>
       <c r="F43">
-        <v>34268.62951140122</v>
+        <v>9211.451853545626</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>158.6</v>
+        <v>209.8</v>
       </c>
       <c r="B44">
-        <v>54192.91432381852</v>
+        <v>18694.83868081031</v>
       </c>
       <c r="C44">
-        <v>34433.91361270925</v>
+        <v>32533.20955848289</v>
       </c>
       <c r="D44">
-        <v>61251.72599144174</v>
+        <v>9552.455275216962</v>
       </c>
       <c r="E44">
-        <v>14479.31631658196</v>
+        <v>5609.60383180986</v>
       </c>
       <c r="F44">
-        <v>51844.72588219117</v>
+        <v>8657.645695316256</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>160.9</v>
+        <v>211.7</v>
       </c>
       <c r="B45">
-        <v>85136.40930178737</v>
+        <v>24715.75548820008</v>
       </c>
       <c r="C45">
-        <v>47829.10371928909</v>
+        <v>32898.07817262562</v>
       </c>
       <c r="D45">
-        <v>68109.8584004255</v>
+        <v>8789.193321399733</v>
       </c>
       <c r="E45">
-        <v>20303.15429850407</v>
+        <v>5807.382257088728</v>
       </c>
       <c r="F45">
-        <v>69912.04190250533</v>
+        <v>8343.325810456325</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>163.2</v>
+        <v>214.3</v>
       </c>
       <c r="B46">
-        <v>98379.9042797561</v>
+        <v>34118.06269831234</v>
       </c>
       <c r="C46">
-        <v>57764.2938258689</v>
+        <v>32953.68785513673</v>
       </c>
       <c r="D46">
-        <v>70217.99080940927</v>
+        <v>7879.992753018254</v>
       </c>
       <c r="E46">
-        <v>19896.99228042618</v>
+        <v>5873.815891680859</v>
       </c>
       <c r="F46">
-        <v>59419.3579228195</v>
+        <v>8659.51965222696</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>165.5</v>
+        <v>216.6</v>
       </c>
       <c r="B47">
-        <v>103723.399257725</v>
+        <v>48085.48830725782</v>
       </c>
       <c r="C47">
-        <v>55119.4839324487</v>
+        <v>32743.26565120425</v>
       </c>
       <c r="D47">
-        <v>62996.12321839304</v>
+        <v>8387.623019450009</v>
       </c>
       <c r="E47">
-        <v>15600.8302623483</v>
+        <v>5197.96872228159</v>
       </c>
       <c r="F47">
-        <v>38036.67394313368</v>
+        <v>8056.921896870203</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>167.7</v>
+        <v>218.8</v>
       </c>
       <c r="B48">
-        <v>92665.0031496951</v>
+        <v>62041.28671581435</v>
       </c>
       <c r="C48">
-        <v>49497.92664309029</v>
+        <v>34144.16615179057</v>
       </c>
       <c r="D48">
-        <v>59011.29334872533</v>
+        <v>7847.530230819517</v>
       </c>
       <c r="E48">
-        <v>14501.02311462163</v>
+        <v>5578.02795155186</v>
       </c>
       <c r="F48">
-        <v>36841.06317995593</v>
+        <v>8231.393609137664</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>170</v>
+        <v>221.2</v>
       </c>
       <c r="B49">
-        <v>79108.49812766384</v>
+        <v>92820.3395251488</v>
       </c>
       <c r="C49">
-        <v>54683.1167496701</v>
+        <v>33922.42124333929</v>
       </c>
       <c r="D49">
-        <v>53989.4257577091</v>
+        <v>7302.883552313542</v>
       </c>
       <c r="E49">
-        <v>15144.86109654375</v>
+        <v>6906.274383483053</v>
       </c>
       <c r="F49">
-        <v>40288.3792002701</v>
+        <v>8191.726386156703</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>172.2</v>
+        <v>223.7</v>
       </c>
       <c r="B50">
-        <v>90650.10201963398</v>
+        <v>110211.0195348721</v>
       </c>
       <c r="C50">
-        <v>57841.55946031166</v>
+        <v>31639.35363036921</v>
       </c>
       <c r="D50">
-        <v>57084.59588804141</v>
+        <v>6725.959928869815</v>
       </c>
       <c r="E50">
-        <v>16095.05394881708</v>
+        <v>5668.614416744722</v>
       </c>
       <c r="F50">
-        <v>48612.76843709236</v>
+        <v>8154.989695551536</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>174.5</v>
+        <v>226</v>
       </c>
       <c r="B51">
-        <v>84193.59699760271</v>
+        <v>145378.4451438176</v>
       </c>
       <c r="C51">
-        <v>62566.74956689149</v>
+        <v>33028.93142643673</v>
       </c>
       <c r="D51">
-        <v>58212.72829702517</v>
+        <v>8123.590195301571</v>
       </c>
       <c r="E51">
-        <v>16558.89193073919</v>
+        <v>4222.767247345453</v>
       </c>
       <c r="F51">
-        <v>43870.08445740653</v>
+        <v>7222.391940194786</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>177.1</v>
+        <v>228.3</v>
       </c>
       <c r="B52">
-        <v>93142.76523356748</v>
+        <v>194245.8707527631</v>
       </c>
       <c r="C52">
-        <v>60882.18186128608</v>
+        <v>29358.50922250424</v>
       </c>
       <c r="D52">
-        <v>54469.74754196336</v>
+        <v>6741.220461733348</v>
       </c>
       <c r="E52">
-        <v>13753.66530160767</v>
+        <v>4576.920077946184</v>
       </c>
       <c r="F52">
-        <v>29306.18082819647</v>
+        <v>7099.794184838035</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>179.3</v>
+        <v>230.5</v>
       </c>
       <c r="B53">
-        <v>94284.36912553762</v>
+        <v>229201.6691613196</v>
       </c>
       <c r="C53">
-        <v>55630.62457192763</v>
+        <v>28579.40972309056</v>
       </c>
       <c r="D53">
-        <v>47754.91767229565</v>
+        <v>6011.127673102856</v>
       </c>
       <c r="E53">
-        <v>10483.85815388099</v>
+        <v>5026.979307216453</v>
       </c>
       <c r="F53">
-        <v>22840.57006501872</v>
+        <v>7204.265897105491</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>181.6</v>
+        <v>232.8</v>
       </c>
       <c r="B54">
-        <v>78027.86410350636</v>
+        <v>270669.0947702651</v>
       </c>
       <c r="C54">
-        <v>50345.81467850744</v>
+        <v>28968.98751915808</v>
       </c>
       <c r="D54">
-        <v>44283.05008127942</v>
+        <v>5778.757939534611</v>
       </c>
       <c r="E54">
-        <v>10657.69613580311</v>
+        <v>4931.132137817183</v>
       </c>
       <c r="F54">
-        <v>19537.88608533289</v>
+        <v>6551.66814174874</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>183.8</v>
+        <v>235.4</v>
       </c>
       <c r="B55">
-        <v>66569.4679954765</v>
+        <v>323871.4019803774</v>
       </c>
       <c r="C55">
-        <v>48764.257389149</v>
+        <v>30694.5972016692</v>
       </c>
       <c r="D55">
-        <v>42968.22021161168</v>
+        <v>5029.557371153125</v>
       </c>
       <c r="E55">
-        <v>9547.888988076435</v>
+        <v>5127.565772409314</v>
       </c>
       <c r="F55">
-        <v>16012.27532215515</v>
+        <v>7017.861983519362</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>186.4</v>
+        <v>237.4</v>
       </c>
       <c r="B56">
-        <v>64318.63623144127</v>
+        <v>364603.9459881561</v>
       </c>
       <c r="C56">
-        <v>47619.68968354358</v>
+        <v>30258.14311129312</v>
       </c>
       <c r="D56">
-        <v>40015.23945654986</v>
+        <v>5944.018472398144</v>
       </c>
       <c r="E56">
-        <v>9532.662358944919</v>
+        <v>4779.437799018646</v>
       </c>
       <c r="F56">
-        <v>13938.37169294508</v>
+        <v>6546.472631035233</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>188.7</v>
+        <v>240</v>
       </c>
       <c r="B57">
-        <v>59662.13120941</v>
+        <v>408306.2531982684</v>
       </c>
       <c r="C57">
-        <v>46224.87979012343</v>
+        <v>30983.75279380424</v>
       </c>
       <c r="D57">
-        <v>38383.37186553363</v>
+        <v>6024.817904016665</v>
       </c>
       <c r="E57">
-        <v>8606.500340867038</v>
+        <v>4655.871433610777</v>
       </c>
       <c r="F57">
-        <v>12735.68771325925</v>
+        <v>6512.666472805862</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>190.9</v>
+        <v>242.3</v>
       </c>
       <c r="B58">
-        <v>58803.73510138014</v>
+        <v>449973.6788072138</v>
       </c>
       <c r="C58">
-        <v>45083.32250076498</v>
+        <v>28633.33058987176</v>
       </c>
       <c r="D58">
-        <v>38118.54199586593</v>
+        <v>5722.44817044845</v>
       </c>
       <c r="E58">
-        <v>7986.69319314036</v>
+        <v>5120.024264211515</v>
       </c>
       <c r="F58">
-        <v>11140.07695008151</v>
+        <v>6190.068717449111</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>193.2</v>
+        <v>244.5</v>
       </c>
       <c r="B59">
-        <v>51647.230079349</v>
+        <v>491329.4772157703</v>
       </c>
       <c r="C59">
-        <v>44668.51260734479</v>
+        <v>29604.23109045811</v>
       </c>
       <c r="D59">
-        <v>35896.6744048497</v>
+        <v>4362.35538181795</v>
       </c>
       <c r="E59">
-        <v>7210.531175062479</v>
+        <v>4350.083493481778</v>
       </c>
       <c r="F59">
-        <v>10137.39297039568</v>
+        <v>5794.540429716566</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>195.5</v>
+        <v>247.1</v>
       </c>
       <c r="B60">
-        <v>53290.72505731773</v>
+        <v>522431.7844258827</v>
       </c>
       <c r="C60">
-        <v>46403.70271392463</v>
+        <v>31639.84077296922</v>
       </c>
       <c r="D60">
-        <v>33074.80681383346</v>
+        <v>3313.154813436471</v>
       </c>
       <c r="E60">
-        <v>7414.369156984591</v>
+        <v>4246.517128073909</v>
       </c>
       <c r="F60">
-        <v>10644.70899070985</v>
+        <v>5280.734271487188</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>198.1</v>
+        <v>249.1</v>
       </c>
       <c r="B61">
-        <v>50439.8932932824</v>
+        <v>561164.3284336613</v>
       </c>
       <c r="C61">
-        <v>43529.13500831921</v>
+        <v>26163.38668259315</v>
       </c>
       <c r="D61">
-        <v>32791.82605877164</v>
+        <v>5437.61591468149</v>
       </c>
       <c r="E61">
-        <v>7709.142527853068</v>
+        <v>4928.389154683239</v>
       </c>
       <c r="F61">
-        <v>10210.80536149979</v>
+        <v>5839.344919003059</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>200.4</v>
+        <v>251.7</v>
       </c>
       <c r="B62">
-        <v>44683.38827125124</v>
+        <v>598866.6356437737</v>
       </c>
       <c r="C62">
-        <v>42744.32511489902</v>
+        <v>27208.99636510426</v>
       </c>
       <c r="D62">
-        <v>33549.95846775538</v>
+        <v>4048.415346300004</v>
       </c>
       <c r="E62">
-        <v>7892.980509775187</v>
+        <v>3854.822789275378</v>
       </c>
       <c r="F62">
-        <v>9398.121381813962</v>
+        <v>5175.538760773688</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>202.6</v>
+        <v>254</v>
       </c>
       <c r="B63">
-        <v>46624.99216322138</v>
+        <v>653234.0612527191</v>
       </c>
       <c r="C63">
-        <v>42792.76782554058</v>
+        <v>29018.57416117177</v>
       </c>
       <c r="D63">
-        <v>31655.12859808768</v>
+        <v>4356.045612731759</v>
       </c>
       <c r="E63">
-        <v>6813.173362048516</v>
+        <v>4018.975619876108</v>
       </c>
       <c r="F63">
-        <v>9412.51061863621</v>
+        <v>4792.941005416938</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>204.9</v>
+        <v>256.6</v>
       </c>
       <c r="B64">
-        <v>44668.48714119012</v>
+        <v>683536.3684628315</v>
       </c>
       <c r="C64">
-        <v>42317.95793212041</v>
+        <v>25904.18384368288</v>
       </c>
       <c r="D64">
-        <v>29373.26100707145</v>
+        <v>2226.845044350281</v>
       </c>
       <c r="E64">
-        <v>6637.011343970635</v>
+        <v>3525.409254468239</v>
       </c>
       <c r="F64">
-        <v>9349.826638950386</v>
+        <v>4079.134847187566</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>207.2</v>
+        <v>258.8</v>
       </c>
       <c r="B65">
-        <v>45211.98211915897</v>
+        <v>699792.1668713881</v>
       </c>
       <c r="C65">
-        <v>42233.14803870022</v>
+        <v>25925.08434426921</v>
       </c>
       <c r="D65">
-        <v>28341.39341605522</v>
+        <v>2346.75225571981</v>
       </c>
       <c r="E65">
-        <v>7100.849325892746</v>
+        <v>3265.468483738501</v>
       </c>
       <c r="F65">
-        <v>9217.142659264562</v>
+        <v>4373.606559455021</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>209.8</v>
+        <v>261.1</v>
       </c>
       <c r="B66">
-        <v>45361.15035512363</v>
+        <v>738859.5924803335</v>
       </c>
       <c r="C66">
-        <v>39818.5803330948</v>
+        <v>25714.66214033673</v>
       </c>
       <c r="D66">
-        <v>30328.4126609934</v>
+        <v>3604.382522151565</v>
       </c>
       <c r="E66">
-        <v>6205.622696761224</v>
+        <v>3079.62131433924</v>
       </c>
       <c r="F66">
-        <v>8663.239030054498</v>
+        <v>4041.008804098264</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>211.7</v>
+        <v>263.4</v>
       </c>
       <c r="B67">
-        <v>51197.08098909786</v>
+        <v>769027.0180892791</v>
       </c>
       <c r="C67">
-        <v>40146.78085592162</v>
+        <v>23954.23993640425</v>
       </c>
       <c r="D67">
-        <v>29284.69595537129</v>
+        <v>2282.01278858335</v>
       </c>
       <c r="E67">
-        <v>6394.880160088194</v>
+        <v>3543.774144939971</v>
       </c>
       <c r="F67">
-        <v>8348.847916400986</v>
+        <v>3288.411048741515</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>214.3</v>
+        <v>265.7</v>
       </c>
       <c r="B68">
-        <v>60346.24922506262</v>
+        <v>779294.4436982243</v>
       </c>
       <c r="C68">
-        <v>40152.21315031617</v>
+        <v>24303.81773247177</v>
       </c>
       <c r="D68">
-        <v>27991.71520030946</v>
+        <v>2609.643055015098</v>
       </c>
       <c r="E68">
-        <v>6449.653530956672</v>
+        <v>2917.926975540702</v>
       </c>
       <c r="F68">
-        <v>8664.944287190921</v>
+        <v>3215.813293384764</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>216.6</v>
+        <v>268</v>
       </c>
       <c r="B69">
-        <v>74089.74420303135</v>
+        <v>770961.8693071698</v>
       </c>
       <c r="C69">
-        <v>39897.40325689601</v>
+        <v>20223.39552853929</v>
       </c>
       <c r="D69">
-        <v>28159.84760929323</v>
+        <v>1507.273321446854</v>
       </c>
       <c r="E69">
-        <v>5763.491512878783</v>
+        <v>2592.079806141433</v>
       </c>
       <c r="F69">
-        <v>8062.260307505097</v>
+        <v>3113.215538028014</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>218.8</v>
+        <v>270.6</v>
       </c>
       <c r="B70">
-        <v>87831.34809500149</v>
+        <v>743464.1765172821</v>
       </c>
       <c r="C70">
-        <v>41255.84596753756</v>
+        <v>23869.0052110504</v>
       </c>
       <c r="D70">
-        <v>27295.01773962553</v>
+        <v>1928.072753065375</v>
       </c>
       <c r="E70">
-        <v>6133.684365152112</v>
+        <v>3008.513440733564</v>
       </c>
       <c r="F70">
-        <v>8236.649544327352</v>
+        <v>2579.409379798642</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>221.2</v>
+        <v>272.8</v>
       </c>
       <c r="B71">
-        <v>118376.734158969</v>
+        <v>688719.9749258386</v>
       </c>
       <c r="C71">
-        <v>40987.78347005566</v>
+        <v>19569.90571163672</v>
       </c>
       <c r="D71">
-        <v>26396.11242726077</v>
+        <v>2837.979964434911</v>
       </c>
       <c r="E71">
-        <v>7451.167476723014</v>
+        <v>1498.572670003833</v>
       </c>
       <c r="F71">
-        <v>8196.892348133442</v>
+        <v>2893.881092066097</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>223.7</v>
+        <v>275.1</v>
       </c>
       <c r="B72">
-        <v>135524.011308935</v>
+        <v>647287.4005347842</v>
       </c>
       <c r="C72">
-        <v>38656.46836851199</v>
+        <v>19709.48350770424</v>
       </c>
       <c r="D72">
-        <v>25450.16939354745</v>
+        <v>2665.61023086666</v>
       </c>
       <c r="E72">
-        <v>6202.295717942709</v>
+        <v>3502.725500604564</v>
       </c>
       <c r="F72">
-        <v>8160.061935431459</v>
+        <v>2441.283336709339</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>226</v>
+        <v>277.3</v>
       </c>
       <c r="B73">
-        <v>170467.5062869038</v>
+        <v>587543.1989433407</v>
       </c>
       <c r="C73">
-        <v>40001.6584750918</v>
+        <v>19400.38400829056</v>
       </c>
       <c r="D73">
-        <v>26508.30180253122</v>
+        <v>3985.517442236174</v>
       </c>
       <c r="E73">
-        <v>4746.13369986482</v>
+        <v>2232.784729874826</v>
       </c>
       <c r="F73">
-        <v>7227.377955745634</v>
+        <v>2045.755048976793</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>228.3</v>
+        <v>279.6</v>
       </c>
       <c r="B74">
-        <v>219111.0012648726</v>
+        <v>524810.6245522862</v>
       </c>
       <c r="C74">
-        <v>36286.84858167161</v>
+        <v>18099.96180435808</v>
       </c>
       <c r="D74">
-        <v>24786.43421151498</v>
+        <v>3213.147708667952</v>
       </c>
       <c r="E74">
-        <v>5089.971681786939</v>
+        <v>3076.937560475564</v>
       </c>
       <c r="F74">
-        <v>7104.693976059802</v>
+        <v>1903.157293620043</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>230.5</v>
+        <v>281.9</v>
       </c>
       <c r="B75">
-        <v>253852.6051568427</v>
+        <v>485878.0501612317</v>
       </c>
       <c r="C75">
-        <v>35465.2912923132</v>
+        <v>18059.53960042561</v>
       </c>
       <c r="D75">
-        <v>23731.60434184728</v>
+        <v>2740.7779750997</v>
       </c>
       <c r="E75">
-        <v>5530.164534060268</v>
+        <v>3081.090391076295</v>
       </c>
       <c r="F75">
-        <v>7209.083212882057</v>
+        <v>1920.559538263294</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>232.8</v>
+        <v>284.5</v>
       </c>
       <c r="B76">
-        <v>295096.1001348115</v>
+        <v>457580.357371344</v>
       </c>
       <c r="C76">
-        <v>35810.481398893</v>
+        <v>20405.14928293671</v>
       </c>
       <c r="D76">
-        <v>23159.73675083105</v>
+        <v>4361.577406718221</v>
       </c>
       <c r="E76">
-        <v>5424.00251598238</v>
+        <v>2397.524025668426</v>
       </c>
       <c r="F76">
-        <v>6556.399233196233</v>
+        <v>1486.753380033923</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>235.4</v>
+        <v>286.5</v>
       </c>
       <c r="B77">
-        <v>348045.2683707761</v>
+        <v>426512.9013791226</v>
       </c>
       <c r="C77">
-        <v>37485.91369328758</v>
+        <v>19138.69519256064</v>
       </c>
       <c r="D77">
-        <v>22026.75599576923</v>
+        <v>4626.03850796324</v>
       </c>
       <c r="E77">
-        <v>5608.775886850864</v>
+        <v>1829.396052277757</v>
       </c>
       <c r="F77">
-        <v>7022.495603986163</v>
+        <v>2015.364027549786</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>237.4</v>
+        <v>289.1</v>
       </c>
       <c r="B78">
-        <v>388583.0900907491</v>
+        <v>408515.208589235</v>
       </c>
       <c r="C78">
-        <v>37010.86161205264</v>
+        <v>19794.30487507175</v>
       </c>
       <c r="D78">
-        <v>22646.00156879859</v>
+        <v>4366.837939581761</v>
       </c>
       <c r="E78">
-        <v>5251.678479826611</v>
+        <v>2515.829686869888</v>
       </c>
       <c r="F78">
-        <v>6551.031273824577</v>
+        <v>1201.557869320415</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>240</v>
+        <v>291.4</v>
       </c>
       <c r="B79">
-        <v>432032.2583267138</v>
+        <v>385282.6341981804</v>
       </c>
       <c r="C79">
-        <v>37686.29390644722</v>
+        <v>19843.8826711393</v>
       </c>
       <c r="D79">
-        <v>22343.02081373677</v>
+        <v>3974.468206013538</v>
       </c>
       <c r="E79">
-        <v>5116.451850695095</v>
+        <v>2219.982517470627</v>
       </c>
       <c r="F79">
-        <v>6517.127644614513</v>
+        <v>1548.960113963666</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>242.3</v>
+        <v>293.7</v>
       </c>
       <c r="B80">
-        <v>473475.7533046826</v>
+        <v>354150.0598071258</v>
       </c>
       <c r="C80">
-        <v>35291.48401302703</v>
+        <v>19933.46046720682</v>
       </c>
       <c r="D80">
-        <v>21701.15322272053</v>
+        <v>3872.098472445294</v>
       </c>
       <c r="E80">
-        <v>5570.289832617207</v>
+        <v>1874.135348071358</v>
       </c>
       <c r="F80">
-        <v>6194.443664928682</v>
+        <v>1446.362358606916</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>244.5</v>
+        <v>295.9</v>
       </c>
       <c r="B81">
-        <v>514617.3571966527</v>
+        <v>333905.8582156824</v>
       </c>
       <c r="C81">
-        <v>36219.92672366861</v>
+        <v>24454.36096779315</v>
       </c>
       <c r="D81">
-        <v>20016.32335305281</v>
+        <v>3182.00568381483</v>
       </c>
       <c r="E81">
-        <v>4790.482684890536</v>
+        <v>2354.19457734162</v>
       </c>
       <c r="F81">
-        <v>5798.832901750938</v>
+        <v>1790.834070874371</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>247.1</v>
+        <v>298.3</v>
       </c>
       <c r="B82">
-        <v>545466.5254326175</v>
+        <v>314884.9110250169</v>
       </c>
       <c r="C82">
-        <v>38205.35901806317</v>
+        <v>24282.61605934186</v>
       </c>
       <c r="D82">
-        <v>18583.34259799098</v>
+        <v>2737.359005308826</v>
       </c>
       <c r="E82">
-        <v>4675.256055759013</v>
+        <v>1882.441009272819</v>
       </c>
       <c r="F82">
-        <v>5284.929272540874</v>
+        <v>3651.166847893408</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>249.1</v>
+        <v>300.9</v>
       </c>
       <c r="B83">
-        <v>584004.3471525902</v>
+        <v>308587.2182351292</v>
       </c>
       <c r="C83">
-        <v>32690.30693682824</v>
+        <v>21838.22574185297</v>
       </c>
       <c r="D83">
-        <v>20412.58817102034</v>
+        <v>2378.158436927348</v>
       </c>
       <c r="E83">
-        <v>5348.158648734767</v>
+        <v>1668.87464386495</v>
       </c>
       <c r="F83">
-        <v>5843.464942379282</v>
+        <v>1037.360689664037</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>251.7</v>
+        <v>303.1</v>
       </c>
       <c r="B84">
-        <v>621453.515388555</v>
+        <v>285943.0166436858</v>
       </c>
       <c r="C84">
-        <v>33685.73923122283</v>
+        <v>26009.12624243929</v>
       </c>
       <c r="D84">
-        <v>18639.60741595852</v>
+        <v>3078.065648296855</v>
       </c>
       <c r="E84">
-        <v>4262.932019603244</v>
+        <v>2238.933873135213</v>
       </c>
       <c r="F84">
-        <v>5179.561313169218</v>
+        <v>1041.832401931491</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>254</v>
+        <v>305.7</v>
       </c>
       <c r="B85">
-        <v>675597.0103665238</v>
+        <v>269245.323853798</v>
       </c>
       <c r="C85">
-        <v>35450.92933780264</v>
+        <v>25224.7359249504</v>
       </c>
       <c r="D85">
-        <v>18607.73982494229</v>
+        <v>1248.865079915384</v>
       </c>
       <c r="E85">
-        <v>4416.770001525363</v>
+        <v>1595.367507727351</v>
       </c>
       <c r="F85">
-        <v>4796.877333483394</v>
+        <v>1028.02624370212</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>256.6</v>
+        <v>308</v>
       </c>
       <c r="B86">
-        <v>705646.1786024885</v>
+        <v>263712.7494627435</v>
       </c>
       <c r="C86">
-        <v>32286.36163219721</v>
+        <v>25444.31372101792</v>
       </c>
       <c r="D86">
-        <v>16094.75906988046</v>
+        <v>156.4953463471538</v>
       </c>
       <c r="E86">
-        <v>3911.543372393841</v>
+        <v>1309.520338328082</v>
       </c>
       <c r="F86">
-        <v>4082.97370427333</v>
+        <v>845.4284883453699</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>258.8</v>
+        <v>310.2</v>
       </c>
       <c r="B87">
-        <v>721687.7824944586</v>
+        <v>251768.5478713</v>
       </c>
       <c r="C87">
-        <v>32264.80434283878</v>
+        <v>28345.21422160425</v>
       </c>
       <c r="D87">
-        <v>15889.92920021276</v>
+        <v>2826.402557716661</v>
       </c>
       <c r="E87">
-        <v>3641.736224667169</v>
+        <v>1879.579567598351</v>
       </c>
       <c r="F87">
-        <v>4377.362941095585</v>
+        <v>1049.900200612825</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>261.1</v>
+        <v>312.5</v>
       </c>
       <c r="B88">
-        <v>760531.2774724273</v>
+        <v>237735.9734802455</v>
       </c>
       <c r="C88">
-        <v>32009.99444941861</v>
+        <v>25514.79201767177</v>
       </c>
       <c r="D88">
-        <v>16808.0616091965</v>
+        <v>844.032824148424</v>
       </c>
       <c r="E88">
-        <v>3445.574206589281</v>
+        <v>1223.732398199075</v>
       </c>
       <c r="F88">
-        <v>4044.678961409753</v>
+        <v>1077.302445256075</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>263.4</v>
+        <v>314.8</v>
       </c>
       <c r="B89">
-        <v>790474.7724503961</v>
+        <v>234803.399089191</v>
       </c>
       <c r="C89">
-        <v>30205.18455599843</v>
+        <v>24604.36981373929</v>
       </c>
       <c r="D89">
-        <v>15146.19401818027</v>
+        <v>1431.663090580201</v>
       </c>
       <c r="E89">
-        <v>3899.4121885114</v>
+        <v>1487.885228799813</v>
       </c>
       <c r="F89">
-        <v>3291.994981723923</v>
+        <v>954.7046898993174</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>265.7</v>
+        <v>317</v>
       </c>
       <c r="B90">
-        <v>800518.2674283648</v>
+        <v>216159.1974977475</v>
       </c>
       <c r="C90">
-        <v>30510.37466257825</v>
+        <v>19925.27031432561</v>
       </c>
       <c r="D90">
-        <v>15134.32642716404</v>
+        <v>681.5703019497014</v>
       </c>
       <c r="E90">
-        <v>3263.25017043352</v>
+        <v>1407.944458070075</v>
       </c>
       <c r="F90">
-        <v>3219.311002038098</v>
+        <v>619.1764021667723</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>268</v>
+        <v>319.7</v>
       </c>
       <c r="B91">
-        <v>791961.7624063338</v>
+        <v>212973.1319082487</v>
       </c>
       <c r="C91">
-        <v>26385.56476915806</v>
+        <v>18049.55729231795</v>
       </c>
       <c r="D91">
-        <v>13692.45883614781</v>
+        <v>1570.092788630485</v>
       </c>
       <c r="E91">
-        <v>2927.088152355631</v>
+        <v>1238.471693992675</v>
       </c>
       <c r="F91">
-        <v>3116.627022352273</v>
+        <v>648.3007763131964</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>270.6</v>
+        <v>321.9</v>
       </c>
       <c r="B92">
-        <v>764210.9306422983</v>
+        <v>199228.9303168053</v>
       </c>
       <c r="C92">
-        <v>29980.99706355264</v>
+        <v>18400.45779290427</v>
       </c>
       <c r="D92">
-        <v>13729.47808108598</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>3331.861523224109</v>
+        <v>1048.530923262937</v>
       </c>
       <c r="F92">
-        <v>2582.72339314221</v>
+        <v>952.7724885806508</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>272.8</v>
+        <v>324.2</v>
       </c>
       <c r="B93">
-        <v>709252.5345342684</v>
+        <v>196896.3559257507</v>
       </c>
       <c r="C93">
-        <v>25639.4397741942</v>
+        <v>16400.03558897176</v>
       </c>
       <c r="D93">
-        <v>14314.64821141828</v>
+        <v>2127.630266431755</v>
       </c>
       <c r="E93">
-        <v>1812.054375497437</v>
+        <v>1602.683753863676</v>
       </c>
       <c r="F93">
-        <v>2897.112629964466</v>
+        <v>960.1747332239008</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>275.1</v>
+        <v>326.5</v>
       </c>
       <c r="B94">
-        <v>667596.0295122374</v>
+        <v>192463.7815346962</v>
       </c>
       <c r="C94">
-        <v>25734.62988077404</v>
+        <v>13359.61338503931</v>
       </c>
       <c r="D94">
-        <v>13802.78062040205</v>
+        <v>1845.260532863525</v>
       </c>
       <c r="E94">
-        <v>3805.892357419556</v>
+        <v>1356.836584464406</v>
       </c>
       <c r="F94">
-        <v>2444.428650278634</v>
+        <v>937.5769778671508</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>277.3</v>
+        <v>328.7</v>
       </c>
       <c r="B95">
-        <v>607637.6334042075</v>
+        <v>191719.5799432527</v>
       </c>
       <c r="C95">
-        <v>25383.0725914156</v>
+        <v>11360.51388562563</v>
       </c>
       <c r="D95">
-        <v>14797.95075073435</v>
+        <v>445.1677442330474</v>
       </c>
       <c r="E95">
-        <v>2526.085209692884</v>
+        <v>536.8958137346754</v>
       </c>
       <c r="F95">
-        <v>2048.817887100889</v>
+        <v>1032.048690134598</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>279.6</v>
+        <v>331.3</v>
       </c>
       <c r="B96">
-        <v>544681.1283821763</v>
+        <v>179621.8871533651</v>
       </c>
       <c r="C96">
-        <v>24038.2626979954</v>
+        <v>12456.12356813674</v>
       </c>
       <c r="D96">
-        <v>13686.08315971812</v>
+        <v>1075.967175851561</v>
       </c>
       <c r="E96">
-        <v>3359.923191614996</v>
+        <v>1753.329448326799</v>
       </c>
       <c r="F96">
-        <v>1906.133907415064</v>
+        <v>808.2425319052336</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>281.9</v>
+        <v>333.3</v>
       </c>
       <c r="B97">
-        <v>505524.623360145</v>
+        <v>192454.4311611437</v>
       </c>
       <c r="C97">
-        <v>23953.45280457524</v>
+        <v>13769.66947776067</v>
       </c>
       <c r="D97">
-        <v>12874.21556870189</v>
+        <v>1710.42827709658</v>
       </c>
       <c r="E97">
-        <v>3353.761173537116</v>
+        <v>1185.201474936138</v>
       </c>
       <c r="F97">
-        <v>1923.449927729234</v>
+        <v>856.8531794210974</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>284.5</v>
+        <v>335.9</v>
       </c>
       <c r="B98">
-        <v>476973.7915961098</v>
+        <v>193956.7383712561</v>
       </c>
       <c r="C98">
-        <v>26248.88509896983</v>
+        <v>13235.27916027178</v>
       </c>
       <c r="D98">
-        <v>14111.23481364004</v>
+        <v>721.2277087151015</v>
       </c>
       <c r="E98">
-        <v>2658.534544405593</v>
+        <v>1441.635109528269</v>
       </c>
       <c r="F98">
-        <v>1489.54629851917</v>
+        <v>913.047021191727</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>286.5</v>
+        <v>338.1</v>
       </c>
       <c r="B99">
-        <v>445711.6133160825</v>
+        <v>178612.5367798126</v>
       </c>
       <c r="C99">
-        <v>24943.83301773489</v>
+        <v>12986.1796608581</v>
       </c>
       <c r="D99">
-        <v>14080.48038666939</v>
+        <v>2121.134920084609</v>
       </c>
       <c r="E99">
-        <v>2081.437137381346</v>
+        <v>1581.69433879853</v>
       </c>
       <c r="F99">
-        <v>2018.081968357584</v>
+        <v>667.5187334591883</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>289.1</v>
+        <v>340.4</v>
       </c>
       <c r="B100">
-        <v>427460.7815520473</v>
+        <v>171879.9623887581</v>
       </c>
       <c r="C100">
-        <v>25549.26531212945</v>
+        <v>11795.75745692563</v>
       </c>
       <c r="D100">
-        <v>13437.49963160757</v>
+        <v>928.7651865163789</v>
       </c>
       <c r="E100">
-        <v>2756.210508249824</v>
+        <v>775.8471693992615</v>
       </c>
       <c r="F100">
-        <v>1204.178339147513</v>
+        <v>214.9209781024247</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>291.4</v>
+        <v>342.7</v>
       </c>
       <c r="B101">
-        <v>404004.2765300162</v>
+        <v>170047.3879977035</v>
       </c>
       <c r="C101">
-        <v>25554.45541870928</v>
+        <v>13995.33525299315</v>
       </c>
       <c r="D101">
-        <v>12705.63204059134</v>
+        <v>1326.395452948142</v>
       </c>
       <c r="E101">
-        <v>2450.048490171944</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1551.49435946169</v>
+        <v>602.3232227456738</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>293.7</v>
+        <v>345</v>
       </c>
       <c r="B102">
-        <v>372647.7715079849</v>
+        <v>168914.813606649</v>
       </c>
       <c r="C102">
-        <v>25599.6455252891</v>
+        <v>10394.91304906067</v>
       </c>
       <c r="D102">
-        <v>12263.76444957511</v>
+        <v>44.02571937991161</v>
       </c>
       <c r="E102">
-        <v>2093.886472094056</v>
+        <v>274.1528306007303</v>
       </c>
       <c r="F102">
-        <v>1448.810379775865</v>
+        <v>979.7254673889236</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>295.9</v>
+        <v>347.6</v>
       </c>
       <c r="B103">
-        <v>352189.375399955</v>
+        <v>158617.1208167613</v>
       </c>
       <c r="C103">
-        <v>30078.08823593067</v>
+        <v>12960.52273157177</v>
       </c>
       <c r="D103">
-        <v>11248.93457990741</v>
+        <v>2264.825150998426</v>
       </c>
       <c r="E103">
-        <v>2564.079324367384</v>
+        <v>640.5864651928614</v>
       </c>
       <c r="F103">
-        <v>1793.199616598113</v>
+        <v>845.9193091595596</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>298.3</v>
+        <v>349.9</v>
       </c>
       <c r="B104">
-        <v>332934.7614639225</v>
+        <v>173484.5464257068</v>
       </c>
       <c r="C104">
-        <v>29860.02573844873</v>
+        <v>11860.1005276393</v>
       </c>
       <c r="D104">
-        <v>10450.02926754265</v>
+        <v>1452.455417430188</v>
       </c>
       <c r="E104">
-        <v>2081.562435938286</v>
+        <v>534.7392957935999</v>
       </c>
       <c r="F104">
-        <v>3653.442420404209</v>
+        <v>483.3215538028035</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>300.9</v>
+        <v>352.2</v>
       </c>
       <c r="B105">
-        <v>326383.9296998871</v>
+        <v>167151.9720346523</v>
       </c>
       <c r="C105">
-        <v>27365.45803284331</v>
+        <v>11549.67832370682</v>
       </c>
       <c r="D105">
-        <v>9707.048512480826</v>
+        <v>480.0856838619657</v>
       </c>
       <c r="E105">
-        <v>1856.335806806764</v>
+        <v>1268.892126394324</v>
       </c>
       <c r="F105">
-        <v>1039.538791194146</v>
+        <v>180.7237984460453</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>303.1</v>
+        <v>354.4</v>
       </c>
       <c r="B106">
-        <v>303525.5335918573</v>
+        <v>157707.7704432088</v>
       </c>
       <c r="C106">
-        <v>31493.90074348487</v>
+        <v>10880.57882429317</v>
       </c>
       <c r="D106">
-        <v>10082.21864281309</v>
+        <v>1269.992895231466</v>
       </c>
       <c r="E106">
-        <v>2416.528659080092</v>
+        <v>88.95135566459339</v>
       </c>
       <c r="F106">
-        <v>1043.9280280164</v>
+        <v>165.1955107135</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>305.7</v>
+        <v>356.7</v>
       </c>
       <c r="B107">
-        <v>286574.701827822</v>
+        <v>160575.1960521543</v>
       </c>
       <c r="C107">
-        <v>30659.33303787946</v>
+        <v>10710.15662036066</v>
       </c>
       <c r="D107">
-        <v>7869.237887751271</v>
+        <v>907.6231616632431</v>
       </c>
       <c r="E107">
-        <v>1761.30202994857</v>
+        <v>93.10418626532464</v>
       </c>
       <c r="F107">
-        <v>1030.02439880633</v>
+        <v>532.59775535675</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="B108">
-        <v>280818.1968057908</v>
+        <v>155642.6216610998</v>
       </c>
       <c r="C108">
-        <v>30834.52314445928</v>
+        <v>11919.73441642821</v>
       </c>
       <c r="D108">
-        <v>6437.37029673504</v>
+        <v>3615.253428095006</v>
       </c>
       <c r="E108">
-        <v>1465.140011870689</v>
+        <v>1017.257016866055</v>
       </c>
       <c r="F108">
-        <v>847.3404191205063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>310.2</v>
+        <v>361.6</v>
       </c>
       <c r="B109">
-        <v>268659.8006977609</v>
+        <v>157544.9288712121</v>
       </c>
       <c r="C109">
-        <v>33692.96585510085</v>
+        <v>8525.344098939298</v>
       </c>
       <c r="D109">
-        <v>8782.540427067339</v>
+        <v>3856.052859713527</v>
       </c>
       <c r="E109">
-        <v>2025.332864144017</v>
+        <v>833.690651458186</v>
       </c>
       <c r="F109">
-        <v>1051.729655942761</v>
+        <v>1056.193841770635</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>312.5</v>
+        <v>363.9</v>
       </c>
       <c r="B110">
-        <v>254403.2956757298</v>
+        <v>168212.3544801575</v>
       </c>
       <c r="C110">
-        <v>30818.15596168066</v>
+        <v>11844.92189500684</v>
       </c>
       <c r="D110">
-        <v>6460.672836051108</v>
+        <v>3003.68312614529</v>
       </c>
       <c r="E110">
-        <v>1359.170846066136</v>
+        <v>307.8434820589246</v>
       </c>
       <c r="F110">
-        <v>1079.045676256937</v>
+        <v>53.59608641387877</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>314.8</v>
+        <v>366.1</v>
       </c>
       <c r="B111">
-        <v>251246.7906536985</v>
+        <v>159468.1528887141</v>
       </c>
       <c r="C111">
-        <v>29863.34606826048</v>
+        <v>12345.82239559313</v>
       </c>
       <c r="D111">
-        <v>6708.805245034873</v>
+        <v>5073.590337514805</v>
       </c>
       <c r="E111">
-        <v>1613.008827988248</v>
+        <v>2217.902711329186</v>
       </c>
       <c r="F111">
-        <v>956.3616965711053</v>
+        <v>148.0677986813325</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>317</v>
+        <v>368.7</v>
       </c>
       <c r="B112">
-        <v>232388.3945456686</v>
+        <v>160570.4600988263</v>
       </c>
       <c r="C112">
-        <v>25141.78877890205</v>
+        <v>12701.43207810427</v>
       </c>
       <c r="D112">
-        <v>5633.975375367176</v>
+        <v>5824.389769133311</v>
       </c>
       <c r="E112">
-        <v>1523.201680261576</v>
+        <v>2684.336345921317</v>
       </c>
       <c r="F112">
-        <v>620.7509333933604</v>
+        <v>944.261640451962</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>319.7</v>
+        <v>371</v>
       </c>
       <c r="B113">
-        <v>228939.453867632</v>
+        <v>148037.8857077718</v>
       </c>
       <c r="C113">
-        <v>23213.96846923489</v>
+        <v>11591.00987417179</v>
       </c>
       <c r="D113">
-        <v>6123.956898956822</v>
+        <v>5312.020035565103</v>
       </c>
       <c r="E113">
-        <v>1341.620180778837</v>
+        <v>2928.489176522049</v>
       </c>
       <c r="F113">
-        <v>649.7740876752177</v>
+        <v>341.6638850952122</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>321.9</v>
+        <v>373.3</v>
       </c>
       <c r="B114">
-        <v>214981.0577596021</v>
+        <v>155105.3113167173</v>
       </c>
       <c r="C114">
-        <v>23522.41117987645</v>
+        <v>12230.58767023931</v>
       </c>
       <c r="D114">
-        <v>4229.127029289106</v>
+        <v>7589.650301996851</v>
       </c>
       <c r="E114">
-        <v>1141.813033052166</v>
+        <v>3692.642007122787</v>
       </c>
       <c r="F114">
-        <v>954.1633244974655</v>
+        <v>859.0661297384611</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>324.2</v>
+        <v>375.6</v>
       </c>
       <c r="B115">
-        <v>212424.5527375709</v>
+        <v>158672.7369256628</v>
       </c>
       <c r="C115">
-        <v>21477.60128645628</v>
+        <v>13920.16546630683</v>
       </c>
       <c r="D115">
-        <v>6017.259438272889</v>
+        <v>8537.280568428607</v>
       </c>
       <c r="E115">
-        <v>1685.651014974285</v>
+        <v>4366.79483772351</v>
       </c>
       <c r="F115">
-        <v>961.4793448116416</v>
+        <v>656.4683743817113</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>326.5</v>
+        <v>377.9</v>
       </c>
       <c r="B116">
-        <v>207768.0477155398</v>
+        <v>160540.1625346083</v>
       </c>
       <c r="C116">
-        <v>18392.79139303609</v>
+        <v>10149.74326237435</v>
       </c>
       <c r="D116">
-        <v>5395.391847256629</v>
+        <v>11584.91083486038</v>
       </c>
       <c r="E116">
-        <v>1429.488996896404</v>
+        <v>4850.947668324248</v>
       </c>
       <c r="F116">
-        <v>938.7953651258167</v>
+        <v>353.870619024955</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>328.7</v>
+        <v>380.5</v>
       </c>
       <c r="B117">
-        <v>206809.6516075099</v>
+        <v>176642.4697447206</v>
       </c>
       <c r="C117">
-        <v>16351.23410367765</v>
+        <v>12875.35294488546</v>
       </c>
       <c r="D117">
-        <v>3670.561977588943</v>
+        <v>12535.71026647891</v>
       </c>
       <c r="E117">
-        <v>599.6818491697322</v>
+        <v>6037.381302916379</v>
       </c>
       <c r="F117">
-        <v>1033.184601948064</v>
+        <v>820.0644607955835</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>331.3</v>
+        <v>382.7</v>
       </c>
       <c r="B118">
-        <v>194458.8198434745</v>
+        <v>165398.2681532772</v>
       </c>
       <c r="C118">
-        <v>17396.66639807223</v>
+        <v>11936.25344547178</v>
       </c>
       <c r="D118">
-        <v>3917.581222527104</v>
+        <v>17905.61747784841</v>
       </c>
       <c r="E118">
-        <v>1804.45522003821</v>
+        <v>7857.440532186649</v>
       </c>
       <c r="F118">
-        <v>809.2809727380009</v>
+        <v>364.5361730630384</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>333.3</v>
+        <v>385</v>
       </c>
       <c r="B119">
-        <v>207096.6415634475</v>
+        <v>171365.6937622227</v>
       </c>
       <c r="C119">
-        <v>18671.61431683729</v>
+        <v>10335.8312415393</v>
       </c>
       <c r="D119">
-        <v>4256.826795556462</v>
+        <v>19383.24774428019</v>
       </c>
       <c r="E119">
-        <v>1227.357813013956</v>
+        <v>11541.59336278737</v>
       </c>
       <c r="F119">
-        <v>857.8166425764157</v>
+        <v>421.9384177062875</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>335.9</v>
+        <v>387.2</v>
       </c>
       <c r="B120">
-        <v>208345.8097994121</v>
+        <v>185521.4921707792</v>
       </c>
       <c r="C120">
-        <v>18087.04661123188</v>
+        <v>11826.73174212562</v>
       </c>
       <c r="D120">
-        <v>2883.846040494642</v>
+        <v>20683.1549556497</v>
       </c>
       <c r="E120">
-        <v>1472.131183882441</v>
+        <v>11601.65259205764</v>
       </c>
       <c r="F120">
-        <v>913.9130133663457</v>
+        <v>966.4101299737429</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>338.1</v>
+        <v>389.5</v>
       </c>
       <c r="B121">
-        <v>192787.4136913823</v>
+        <v>188688.9177797247</v>
       </c>
       <c r="C121">
-        <v>17795.48932187343</v>
+        <v>9706.309538193142</v>
       </c>
       <c r="D121">
-        <v>3959.016170826937</v>
+        <v>26630.78522208145</v>
       </c>
       <c r="E121">
-        <v>1602.324036155761</v>
+        <v>14205.80542265837</v>
       </c>
       <c r="F121">
-        <v>668.3022501885998</v>
+        <v>883.812374616992</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>340.4</v>
+        <v>391.8</v>
       </c>
       <c r="B122">
-        <v>185830.908669351</v>
+        <v>190356.3433886701</v>
       </c>
       <c r="C122">
-        <v>16560.67942845327</v>
+        <v>10075.88733426066</v>
       </c>
       <c r="D122">
-        <v>2427.14857981071</v>
+        <v>30588.41548851324</v>
       </c>
       <c r="E122">
-        <v>786.1620180778882</v>
+        <v>19219.95825325911</v>
       </c>
       <c r="F122">
-        <v>215.6182705027768</v>
+        <v>1371.214619260242</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>342.7</v>
+        <v>394.1</v>
       </c>
       <c r="B123">
-        <v>183774.4036473199</v>
+        <v>213923.7689976156</v>
       </c>
       <c r="C123">
-        <v>18715.86953503308</v>
+        <v>12695.46513032818</v>
       </c>
       <c r="D123">
-        <v>2485.280988794479</v>
+        <v>37016.04575494499</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>24184.11108385983</v>
       </c>
       <c r="F123">
-        <v>602.9342908169447</v>
+        <v>448.616863903485</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>345</v>
+        <v>396.3</v>
       </c>
       <c r="B124">
-        <v>182417.8986252886</v>
+        <v>232979.5674061721</v>
       </c>
       <c r="C124">
-        <v>15071.0596416129</v>
+        <v>11736.36563091454</v>
       </c>
       <c r="D124">
-        <v>863.4133977782294</v>
+        <v>41395.95296631453</v>
       </c>
       <c r="E124">
-        <v>263.8379819221118</v>
+        <v>28374.1703131301</v>
       </c>
       <c r="F124">
-        <v>980.2503111311198</v>
+        <v>983.0885761709394</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>347.6</v>
+        <v>399</v>
       </c>
       <c r="B125">
-        <v>171867.0668612534</v>
+        <v>251093.5018166734</v>
       </c>
       <c r="C125">
-        <v>17586.49193600747</v>
+        <v>11640.65260890681</v>
       </c>
       <c r="D125">
-        <v>2700.432642716391</v>
+        <v>48824.47545299529</v>
       </c>
       <c r="E125">
-        <v>618.6113527905891</v>
+        <v>33144.69754905271</v>
       </c>
       <c r="F125">
-        <v>846.3466819210562</v>
+        <v>312.2129503173637</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>349.9</v>
+        <v>401.2</v>
       </c>
       <c r="B126">
-        <v>186510.5618392221</v>
+        <v>271449.3002252299</v>
       </c>
       <c r="C126">
-        <v>16441.68204258731</v>
+        <v>10581.55310949316</v>
       </c>
       <c r="D126">
-        <v>1548.565051700163</v>
+        <v>55264.38266436481</v>
       </c>
       <c r="E126">
-        <v>502.4493347127091</v>
+        <v>41494.75677832298</v>
       </c>
       <c r="F126">
-        <v>483.6627022352259</v>
+        <v>846.6846625848182</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>352.2</v>
+        <v>403.5</v>
       </c>
       <c r="B127">
-        <v>179954.0568171908</v>
+        <v>295216.7258341754</v>
       </c>
       <c r="C127">
-        <v>16086.87214916712</v>
+        <v>11391.13090556068</v>
       </c>
       <c r="D127">
-        <v>236.6974606839321</v>
+        <v>65502.01293079658</v>
       </c>
       <c r="E127">
-        <v>1226.287316634828</v>
+        <v>48548.9096089237</v>
       </c>
       <c r="F127">
-        <v>180.978722549401</v>
+        <v>1004.086907228068</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>354.4</v>
+        <v>406.1</v>
       </c>
       <c r="B128">
-        <v>170295.660709161</v>
+        <v>332619.0330442876</v>
       </c>
       <c r="C128">
-        <v>15375.31485980869</v>
+        <v>11766.74058807179</v>
       </c>
       <c r="D128">
-        <v>701.867591016231</v>
+        <v>76762.81236241506</v>
       </c>
       <c r="E128">
-        <v>36.48016890815643</v>
+        <v>56555.34324351584</v>
       </c>
       <c r="F128">
-        <v>165.3679593716561</v>
+        <v>930.2807489986888</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>356.7</v>
+        <v>408</v>
       </c>
       <c r="B129">
-        <v>172939.1556871299</v>
+        <v>357039.9498516775</v>
       </c>
       <c r="C129">
-        <v>15160.50496638851</v>
+        <v>9391.609202214531</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>85349.55040859785</v>
       </c>
       <c r="E129">
-        <v>30.31815083026822</v>
+        <v>64763.1216687947</v>
       </c>
       <c r="F129">
-        <v>532.6839796858249</v>
+        <v>925.9608641387656</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>359</v>
+        <v>410.7</v>
       </c>
       <c r="B130">
-        <v>167782.6506650986</v>
+        <v>406253.8842621786</v>
       </c>
       <c r="C130">
-        <v>16325.69507296832</v>
+        <v>11945.89618020684</v>
       </c>
       <c r="D130">
-        <v>2368.132408983765</v>
+        <v>102868.0728952786</v>
       </c>
       <c r="E130">
-        <v>944.15613275238</v>
+        <v>76473.64890471729</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>525.0852382851899</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>361.6</v>
+        <v>412.9</v>
       </c>
       <c r="B131">
-        <v>169431.8189010634</v>
+        <v>470209.6826707352</v>
       </c>
       <c r="C131">
-        <v>12881.1273673629</v>
+        <v>11316.79668079316</v>
       </c>
       <c r="D131">
-        <v>2225.151653921945</v>
+        <v>117947.9801066481</v>
       </c>
       <c r="E131">
-        <v>748.9295036208573</v>
+        <v>92813.70813398756</v>
       </c>
       <c r="F131">
-        <v>1056.096370789936</v>
+        <v>949.5569505526453</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>363.9</v>
+        <v>415.2</v>
       </c>
       <c r="B132">
-        <v>179875.3138790321</v>
+        <v>531077.1082796806</v>
       </c>
       <c r="C132">
-        <v>16156.31747394273</v>
+        <v>11976.37447686068</v>
       </c>
       <c r="D132">
-        <v>1033.284062905703</v>
+        <v>136565.6103730799</v>
       </c>
       <c r="E132">
-        <v>212.7674855429841</v>
+        <v>109577.8609645883</v>
       </c>
       <c r="F132">
-        <v>53.41239110410515</v>
+        <v>846.9591951958935</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>366.1</v>
+        <v>417.4</v>
       </c>
       <c r="B133">
-        <v>170916.9177710022</v>
+        <v>628132.9066882372</v>
       </c>
       <c r="C133">
-        <v>16614.76018458428</v>
+        <v>11247.274977447</v>
       </c>
       <c r="D133">
-        <v>2778.45419323798</v>
+        <v>161305.5175844494</v>
       </c>
       <c r="E133">
-        <v>2112.960337816305</v>
+        <v>136807.9201938586</v>
       </c>
       <c r="F133">
-        <v>147.8016279263675</v>
+        <v>831.4309074633491</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>368.7</v>
+        <v>420</v>
       </c>
       <c r="B134">
-        <v>171766.086006967</v>
+        <v>752835.2138983496</v>
       </c>
       <c r="C134">
-        <v>16920.19247897888</v>
+        <v>13472.88465995811</v>
       </c>
       <c r="D134">
-        <v>3145.473438176159</v>
+        <v>195066.3170160679</v>
       </c>
       <c r="E134">
-        <v>2567.73370868479</v>
+        <v>177504.3538284507</v>
       </c>
       <c r="F134">
-        <v>943.8979987162975</v>
+        <v>887.6247492339696</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>371</v>
+        <v>422.3</v>
       </c>
       <c r="B135">
-        <v>159009.5809849357</v>
+        <v>931602.6395072951</v>
       </c>
       <c r="C135">
-        <v>15765.38258555869</v>
+        <v>12392.46245602563</v>
       </c>
       <c r="D135">
-        <v>2293.605847159924</v>
+        <v>231853.9472824997</v>
       </c>
       <c r="E135">
-        <v>2801.571690606901</v>
+        <v>237058.5066590514</v>
       </c>
       <c r="F135">
-        <v>341.2140190304726</v>
+        <v>1315.02699387722</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>373.3</v>
+        <v>424.5</v>
       </c>
       <c r="B136">
-        <v>165853.0759629045</v>
+        <v>1209258.437915851</v>
       </c>
       <c r="C136">
-        <v>16360.5726921385</v>
+        <v>11633.36295661196</v>
       </c>
       <c r="D136">
-        <v>4231.738256143697</v>
+        <v>288863.8544938692</v>
       </c>
       <c r="E136">
-        <v>3555.409672529013</v>
+        <v>362028.5658883217</v>
       </c>
       <c r="F136">
-        <v>858.5300393446478</v>
+        <v>1499.498706144675</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>375.6</v>
+        <v>426.8</v>
       </c>
       <c r="B137">
-        <v>169196.5709408733</v>
+        <v>1760425.863524797</v>
       </c>
       <c r="C137">
-        <v>18005.76279871833</v>
+        <v>15662.94075267947</v>
       </c>
       <c r="D137">
-        <v>4839.870665127462</v>
+        <v>359831.484760301</v>
       </c>
       <c r="E137">
-        <v>4219.247654451125</v>
+        <v>706642.7187189223</v>
       </c>
       <c r="F137">
-        <v>655.8460596588166</v>
+        <v>2536.900950787925</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>377.9</v>
+        <v>429.1</v>
       </c>
       <c r="B138">
-        <v>170840.0659188421</v>
+        <v>2847493.289133742</v>
       </c>
       <c r="C138">
-        <v>14190.95290529814</v>
+        <v>13602.51854874699</v>
       </c>
       <c r="D138">
-        <v>7548.003074111235</v>
+        <v>436739.1150267327</v>
       </c>
       <c r="E138">
-        <v>4693.085636373252</v>
+        <v>1424146.871549523</v>
       </c>
       <c r="F138">
-        <v>353.1620799729926</v>
+        <v>3304.303195431174</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>380.5</v>
+        <v>431.3</v>
       </c>
       <c r="B139">
-        <v>186689.2341548069</v>
+        <v>4480749.087542298</v>
       </c>
       <c r="C139">
-        <v>16866.38519969272</v>
+        <v>17263.41904933332</v>
       </c>
       <c r="D139">
-        <v>8115.022319049407</v>
+        <v>516099.0222381023</v>
       </c>
       <c r="E139">
-        <v>5867.859007241729</v>
+        <v>1146116.930778794</v>
       </c>
       <c r="F139">
-        <v>819.258450762929</v>
+        <v>3338.774907698629</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>382.7</v>
+        <v>433.9</v>
       </c>
       <c r="B140">
-        <v>175230.838046777</v>
+        <v>3575151.394752411</v>
       </c>
       <c r="C140">
-        <v>15884.8279103343</v>
+        <v>17649.02873184442</v>
       </c>
       <c r="D140">
-        <v>13160.19244938171</v>
+        <v>497499.8216697208</v>
       </c>
       <c r="E140">
-        <v>7678.051859515057</v>
+        <v>508383.3644133855</v>
       </c>
       <c r="F140">
-        <v>363.6476875851768</v>
+        <v>1554.968749469251</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>385</v>
+        <v>436.2</v>
       </c>
       <c r="B141">
-        <v>180974.3330247457</v>
+        <v>1887218.820361357</v>
       </c>
       <c r="C141">
-        <v>14240.01801691411</v>
+        <v>14078.60652791198</v>
       </c>
       <c r="D141">
-        <v>14298.32485836545</v>
+        <v>428027.4519361525</v>
       </c>
       <c r="E141">
-        <v>11351.88984143717</v>
+        <v>202507.5172439863</v>
       </c>
       <c r="F141">
-        <v>420.9637078993528</v>
+        <v>1312.370994112501</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>387.2</v>
+        <v>438.4</v>
       </c>
       <c r="B142">
-        <v>194915.9369167158</v>
+        <v>1129674.618769913</v>
       </c>
       <c r="C142">
-        <v>15688.46072755568</v>
+        <v>13099.5070284983</v>
       </c>
       <c r="D142">
-        <v>15273.49498869778</v>
+        <v>374777.359147522</v>
       </c>
       <c r="E142">
-        <v>11402.0826937105</v>
+        <v>138517.5764732566</v>
       </c>
       <c r="F142">
-        <v>965.3529447216079</v>
+        <v>1336.842706379955</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>389.5</v>
+        <v>440.7</v>
       </c>
       <c r="B143">
-        <v>197859.4318946846</v>
+        <v>887942.0443788588</v>
       </c>
       <c r="C143">
-        <v>13523.6508341355</v>
+        <v>15509.08482456582</v>
       </c>
       <c r="D143">
-        <v>20881.62739768151</v>
+        <v>327254.9894139539</v>
       </c>
       <c r="E143">
-        <v>13995.92067563261</v>
+        <v>108121.7293038573</v>
       </c>
       <c r="F143">
-        <v>882.6689650357766</v>
+        <v>1384.244951023205</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>391.8</v>
+        <v>443</v>
       </c>
       <c r="B144">
-        <v>199302.9268726535</v>
+        <v>760709.4699878042</v>
       </c>
       <c r="C144">
-        <v>13848.84094071531</v>
+        <v>14978.66262063334</v>
       </c>
       <c r="D144">
-        <v>24499.75980666529</v>
+        <v>281882.6196803856</v>
       </c>
       <c r="E144">
-        <v>18999.75865755473</v>
+        <v>92485.88213445801</v>
       </c>
       <c r="F144">
-        <v>1369.984985349952</v>
+        <v>861.6471956664552</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>394.1</v>
+        <v>445.2</v>
       </c>
       <c r="B145">
-        <v>222646.4218506222</v>
+        <v>675265.2683963608</v>
       </c>
       <c r="C145">
-        <v>16424.03104729513</v>
+        <v>13609.56312121966</v>
       </c>
       <c r="D145">
-        <v>30587.89221564905</v>
+        <v>245012.5268917551</v>
       </c>
       <c r="E145">
-        <v>23953.59663947685</v>
+        <v>82725.94136372829</v>
       </c>
       <c r="F145">
-        <v>447.3010056641269</v>
+        <v>1136.118907933911</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>396.3</v>
+        <v>447.8</v>
       </c>
       <c r="B146">
-        <v>241488.0257425923</v>
+        <v>599367.5756064731</v>
       </c>
       <c r="C146">
-        <v>15422.4737579367</v>
+        <v>15025.17280373077</v>
       </c>
       <c r="D146">
-        <v>34643.06234598135</v>
+        <v>210643.3263233736</v>
       </c>
       <c r="E146">
-        <v>28133.78949175018</v>
+        <v>72972.3749983204</v>
       </c>
       <c r="F146">
-        <v>981.6902424863756</v>
+        <v>1072.312749704539</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>399</v>
+        <v>450.1</v>
       </c>
       <c r="B147">
-        <v>259339.0850645557</v>
+        <v>557535.0012154186</v>
       </c>
       <c r="C147">
-        <v>15274.65344826954</v>
+        <v>13164.75059979829</v>
       </c>
       <c r="D147">
-        <v>41673.043869571</v>
+        <v>182090.9565898054</v>
       </c>
       <c r="E147">
-        <v>32892.20799226744</v>
+        <v>66196.52782892116</v>
       </c>
       <c r="F147">
-        <v>310.713396768233</v>
+        <v>859.7149943477887</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>401.2</v>
+        <v>452.4</v>
       </c>
       <c r="B148">
-        <v>279480.6889565258</v>
+        <v>524202.4268243641</v>
       </c>
       <c r="C148">
-        <v>14173.09615891111</v>
+        <v>12324.32839586581</v>
       </c>
       <c r="D148">
-        <v>47788.2139999033</v>
+        <v>155628.5868562371</v>
       </c>
       <c r="E148">
-        <v>41232.40084454076</v>
+        <v>62390.68065952189</v>
       </c>
       <c r="F148">
-        <v>845.102633590488</v>
+        <v>827.1172389910314</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>403.5</v>
+        <v>454.6</v>
       </c>
       <c r="B149">
-        <v>303024.1839344947</v>
+        <v>475358.2252329206</v>
       </c>
       <c r="C149">
-        <v>14938.28626549092</v>
+        <v>11825.22889645213</v>
       </c>
       <c r="D149">
-        <v>57686.34640888707</v>
+        <v>139078.4940676067</v>
       </c>
       <c r="E149">
-        <v>48276.23882646288</v>
+        <v>56260.73988879215</v>
       </c>
       <c r="F149">
-        <v>1002.418653904656</v>
+        <v>961.5889512584852</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>406.1</v>
+        <v>456.9</v>
       </c>
       <c r="B150">
-        <v>340173.3521704593</v>
+        <v>462325.6508418662</v>
       </c>
       <c r="C150">
-        <v>15263.7185598855</v>
+        <v>14174.80669251965</v>
       </c>
       <c r="D150">
-        <v>68563.36565382521</v>
+        <v>124926.1243340385</v>
       </c>
       <c r="E150">
-        <v>56271.01219733137</v>
+        <v>55944.89271939289</v>
       </c>
       <c r="F150">
-        <v>928.5150246945996</v>
+        <v>1438.991195901737</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>408</v>
+        <v>459.5</v>
       </c>
       <c r="B151">
-        <v>364409.2828044335</v>
+        <v>424327.9580519784</v>
       </c>
       <c r="C151">
-        <v>12851.91908271231</v>
+        <v>12320.41637503076</v>
       </c>
       <c r="D151">
-        <v>76869.64894820313</v>
+        <v>115946.923765657</v>
       </c>
       <c r="E151">
-        <v>64470.26966065833</v>
+        <v>52261.32635398501</v>
       </c>
       <c r="F151">
-        <v>924.123911041087</v>
+        <v>1095.185037672365</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>410.7</v>
+        <v>461.8</v>
       </c>
       <c r="B152">
-        <v>413360.342126397</v>
+        <v>400195.3836609238</v>
       </c>
       <c r="C152">
-        <v>15354.09877304515</v>
+        <v>12949.99417109828</v>
       </c>
       <c r="D152">
-        <v>93989.63047179276</v>
+        <v>107334.5540320887</v>
       </c>
       <c r="E152">
-        <v>76168.68816117561</v>
+        <v>47345.47918458573</v>
       </c>
       <c r="F152">
-        <v>523.1470653229371</v>
+        <v>1442.587282315615</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>412.9</v>
+        <v>464</v>
       </c>
       <c r="B153">
-        <v>477101.9460183671</v>
+        <v>377551.1820694804</v>
       </c>
       <c r="C153">
-        <v>14682.54148368671</v>
+        <v>13040.8946716846</v>
       </c>
       <c r="D153">
-        <v>108744.800602125</v>
+        <v>102274.4612434583</v>
       </c>
       <c r="E153">
-        <v>92498.88101344893</v>
+        <v>46715.53841385601</v>
       </c>
       <c r="F153">
-        <v>947.5363021451994</v>
+        <v>1087.058994583069</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>415.2</v>
+        <v>466.3</v>
       </c>
       <c r="B154">
-        <v>537745.4409963358</v>
+        <v>353518.6076784258</v>
       </c>
       <c r="C154">
-        <v>15297.73159026653</v>
+        <v>12460.47246775212</v>
       </c>
       <c r="D154">
-        <v>127022.9330111088</v>
+        <v>98812.09150989</v>
       </c>
       <c r="E154">
-        <v>109252.718995371</v>
+        <v>43779.69124445674</v>
       </c>
       <c r="F154">
-        <v>844.8523224593682</v>
+        <v>1504.461239226319</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>417.4</v>
+        <v>468.6</v>
       </c>
       <c r="B155">
-        <v>634587.0448883059</v>
+        <v>337986.0332873714</v>
       </c>
       <c r="C155">
-        <v>14526.1743009081</v>
+        <v>14380.05026381964</v>
       </c>
       <c r="D155">
-        <v>151438.1031414411</v>
+        <v>93859.72177632176</v>
       </c>
       <c r="E155">
-        <v>136472.9118476444</v>
+        <v>41373.84407505747</v>
       </c>
       <c r="F155">
-        <v>829.241559281616</v>
+        <v>1361.863483869561</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>420</v>
+        <v>471.2</v>
       </c>
       <c r="B156">
-        <v>759036.2131242707</v>
+        <v>313788.3404974837</v>
       </c>
       <c r="C156">
-        <v>16701.60659530267</v>
+        <v>10805.65994633076</v>
       </c>
       <c r="D156">
-        <v>184815.1223863793</v>
+        <v>92700.52120794031</v>
       </c>
       <c r="E156">
-        <v>177157.6852185129</v>
+        <v>39330.27770964961</v>
       </c>
       <c r="F156">
-        <v>885.3379300715596</v>
+        <v>1158.057325640198</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>422.3</v>
+        <v>473.1</v>
       </c>
       <c r="B157">
-        <v>937579.7081022394</v>
+        <v>299509.2573048734</v>
       </c>
       <c r="C157">
-        <v>15576.79670188249</v>
+        <v>13770.52856047352</v>
       </c>
       <c r="D157">
-        <v>221263.2547953631</v>
+        <v>87957.25925412306</v>
       </c>
       <c r="E157">
-        <v>236701.523200435</v>
+        <v>38148.05613492848</v>
       </c>
       <c r="F157">
-        <v>1312.653950385728</v>
+        <v>1143.737440780265</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>424.5</v>
+        <v>475.7</v>
       </c>
       <c r="B158">
-        <v>1215021.31199421</v>
+        <v>282711.5645149857</v>
       </c>
       <c r="C158">
-        <v>14775.23941252406</v>
+        <v>10876.13824298463</v>
       </c>
       <c r="D158">
-        <v>277948.4249256953</v>
+        <v>87548.05868574156</v>
       </c>
       <c r="E158">
-        <v>361661.7160527083</v>
+        <v>36574.48976952059</v>
       </c>
       <c r="F158">
-        <v>1497.043187207984</v>
+        <v>1429.931282550895</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>426.8</v>
+        <v>478</v>
       </c>
       <c r="B159">
-        <v>1765964.806972178</v>
+        <v>281778.9901239312</v>
       </c>
       <c r="C159">
-        <v>18760.42951910387</v>
+        <v>13265.71603905212</v>
       </c>
       <c r="D159">
-        <v>348576.5573346791</v>
+        <v>86345.68895217335</v>
       </c>
       <c r="E159">
-        <v>706265.5540346302</v>
+        <v>36088.64260012133</v>
       </c>
       <c r="F159">
-        <v>2534.359207522159</v>
+        <v>1067.333527194145</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>429.1</v>
+        <v>480.3</v>
       </c>
       <c r="B160">
-        <v>2852808.301950147</v>
+        <v>266146.4157328767</v>
       </c>
       <c r="C160">
-        <v>16655.61962568369</v>
+        <v>13325.29383511966</v>
       </c>
       <c r="D160">
-        <v>425144.6897436629</v>
+        <v>82043.3192186051</v>
       </c>
       <c r="E160">
-        <v>1423759.392016553</v>
+        <v>33452.79543072206</v>
       </c>
       <c r="F160">
-        <v>3301.675227836327</v>
+        <v>1574.735771837388</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>431.3</v>
+        <v>482.5</v>
       </c>
       <c r="B161">
-        <v>4485849.905842118</v>
+        <v>253702.2141414332</v>
       </c>
       <c r="C161">
-        <v>20274.06233632527</v>
+        <v>11226.19433570599</v>
       </c>
       <c r="D161">
-        <v>504179.8598739951</v>
+        <v>79773.22642997462</v>
       </c>
       <c r="E161">
-        <v>1145719.584868826</v>
+        <v>31422.85465999233</v>
       </c>
       <c r="F161">
-        <v>3336.064464658582</v>
+        <v>1339.207484104843</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>433.9</v>
+        <v>484.8</v>
       </c>
       <c r="B162">
-        <v>3579999.074078082</v>
+        <v>233069.6397503787</v>
       </c>
       <c r="C162">
-        <v>20609.49463071985</v>
+        <v>11475.77213177351</v>
       </c>
       <c r="D162">
-        <v>485196.8791189334</v>
+        <v>77480.85669640639</v>
       </c>
       <c r="E162">
-        <v>507974.3582396943</v>
+        <v>29207.00749059306</v>
       </c>
       <c r="F162">
-        <v>1552.16083544852</v>
+        <v>1406.609728748091</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>436.2</v>
+        <v>487.4</v>
       </c>
       <c r="B163">
-        <v>1891842.569056051</v>
+        <v>220271.946960491</v>
       </c>
       <c r="C163">
-        <v>16994.68473729966</v>
+        <v>12111.38181428462</v>
       </c>
       <c r="D163">
-        <v>415385.0115279172</v>
+        <v>74591.6561280249</v>
       </c>
       <c r="E163">
-        <v>202088.1962216165</v>
+        <v>29053.44112518519</v>
       </c>
       <c r="F163">
-        <v>1309.476855762688</v>
+        <v>1452.803570518721</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>438.4</v>
+        <v>489.7</v>
       </c>
       <c r="B164">
-        <v>1134084.172948021</v>
+        <v>220339.3725694364</v>
       </c>
       <c r="C164">
-        <v>15973.12744794124</v>
+        <v>10240.95961035214</v>
       </c>
       <c r="D164">
-        <v>361810.1816582495</v>
+        <v>71429.28639445666</v>
       </c>
       <c r="E164">
-        <v>138088.3890738898</v>
+        <v>28167.59395578592</v>
       </c>
       <c r="F164">
-        <v>1333.866092584944</v>
+        <v>1140.205815161971</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>440.7</v>
+        <v>491.9</v>
       </c>
       <c r="B165">
-        <v>892127.6679259898</v>
+        <v>207695.170977993</v>
       </c>
       <c r="C165">
-        <v>18338.31755452105</v>
+        <v>13351.86011093847</v>
       </c>
       <c r="D165">
-        <v>313948.3140672332</v>
+        <v>72489.19360582619</v>
       </c>
       <c r="E165">
-        <v>107682.2270558119</v>
+        <v>26067.6531850562</v>
       </c>
       <c r="F165">
-        <v>1381.182112899119</v>
+        <v>904.6775274294266</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>443</v>
+        <v>494.2</v>
       </c>
       <c r="B166">
-        <v>764671.1629039586</v>
+        <v>189962.5965869385</v>
       </c>
       <c r="C166">
-        <v>17763.50766110086</v>
+        <v>10681.43790700599</v>
       </c>
       <c r="D166">
-        <v>268236.446476217</v>
+        <v>71706.82387225796</v>
       </c>
       <c r="E166">
-        <v>92036.06503773402</v>
+        <v>25661.80601565692</v>
       </c>
       <c r="F166">
-        <v>858.4981332132866</v>
+        <v>1212.079772072677</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>445.2</v>
+        <v>496.8</v>
       </c>
       <c r="B167">
-        <v>679012.7667959287</v>
+        <v>197964.9037970507</v>
       </c>
       <c r="C167">
-        <v>16351.95037174244</v>
+        <v>11277.04758951709</v>
       </c>
       <c r="D167">
-        <v>231041.6166065492</v>
+        <v>68107.62330387648</v>
       </c>
       <c r="E167">
-        <v>82266.25789000734</v>
+        <v>21858.23965024906</v>
       </c>
       <c r="F167">
-        <v>1132.887370035543</v>
+        <v>1218.273613843304</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>447.8</v>
+        <v>499.1</v>
       </c>
       <c r="B168">
-        <v>602861.9350318934</v>
+        <v>181232.3294059962</v>
       </c>
       <c r="C168">
-        <v>17717.38266613702</v>
+        <v>9166.625385584608</v>
       </c>
       <c r="D168">
-        <v>196288.6358514874</v>
+        <v>67645.25357030822</v>
       </c>
       <c r="E168">
-        <v>72501.03126087581</v>
+        <v>22222.39248084979</v>
       </c>
       <c r="F168">
-        <v>1068.983740825479</v>
+        <v>1495.675858486554</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>450.1</v>
+        <v>501.3</v>
       </c>
       <c r="B169">
-        <v>560805.4300098622</v>
+        <v>184888.1278145527</v>
       </c>
       <c r="C169">
-        <v>15812.57277271683</v>
+        <v>9797.525886170937</v>
       </c>
       <c r="D169">
-        <v>167396.7682604711</v>
+        <v>66025.16078167777</v>
       </c>
       <c r="E169">
-        <v>65714.86924279791</v>
+        <v>20892.45171012006</v>
       </c>
       <c r="F169">
-        <v>856.2997611396468</v>
+        <v>2050.147570754008</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>452.4</v>
+        <v>503.6</v>
       </c>
       <c r="B170">
-        <v>527248.9249878309</v>
+        <v>179655.5534234982</v>
       </c>
       <c r="C170">
-        <v>14927.76287929666</v>
+        <v>7867.103682238456</v>
       </c>
       <c r="D170">
-        <v>140594.9006694549</v>
+        <v>65342.79104810952</v>
       </c>
       <c r="E170">
-        <v>61898.70722472004</v>
+        <v>20436.60454072078</v>
       </c>
       <c r="F170">
-        <v>823.6157814538228</v>
+        <v>1117.549815397258</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>454.6</v>
+        <v>505.9</v>
       </c>
       <c r="B171">
-        <v>478190.5288798011</v>
+        <v>162822.9790324437</v>
       </c>
       <c r="C171">
-        <v>14386.20558993822</v>
+        <v>8726.681478305974</v>
       </c>
       <c r="D171">
-        <v>123720.0707997872</v>
+        <v>62490.42131454129</v>
       </c>
       <c r="E171">
-        <v>55758.90007699337</v>
+        <v>19610.75737132152</v>
       </c>
       <c r="F171">
-        <v>958.0050182760779</v>
+        <v>1384.952060040503</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>456.9</v>
+        <v>508.5</v>
       </c>
       <c r="B172">
-        <v>464934.0238577698</v>
+        <v>163325.2862425561</v>
       </c>
       <c r="C172">
-        <v>16691.39569651805</v>
+        <v>9262.291160817083</v>
       </c>
       <c r="D172">
-        <v>109228.203208771</v>
+        <v>61601.22074615982</v>
       </c>
       <c r="E172">
-        <v>55432.73805891549</v>
+        <v>18747.19100591365</v>
       </c>
       <c r="F172">
-        <v>1435.321038590247</v>
+        <v>1071.145901811131</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>459.5</v>
+        <v>510.7</v>
       </c>
       <c r="B173">
-        <v>426683.1920937346</v>
+        <v>149681.0846511126</v>
       </c>
       <c r="C173">
-        <v>14786.82799091261</v>
+        <v>11703.19166140341</v>
       </c>
       <c r="D173">
-        <v>99865.22245370918</v>
+        <v>59641.12795752932</v>
       </c>
       <c r="E173">
-        <v>51737.51142978396</v>
+        <v>17097.25023518392</v>
       </c>
       <c r="F173">
-        <v>1091.41740938019</v>
+        <v>1525.617614078584</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>461.8</v>
+        <v>513</v>
       </c>
       <c r="B174">
-        <v>402326.6870717033</v>
+        <v>146848.5102600581</v>
       </c>
       <c r="C174">
-        <v>15372.01809749243</v>
+        <v>10762.76945747096</v>
       </c>
       <c r="D174">
-        <v>90913.35486269296</v>
+        <v>61908.75822396108</v>
       </c>
       <c r="E174">
-        <v>46811.34941170608</v>
+        <v>15951.40306578465</v>
       </c>
       <c r="F174">
-        <v>1438.733429694358</v>
+        <v>1423.019858721834</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>464</v>
+        <v>515.3</v>
       </c>
       <c r="B175">
-        <v>379468.2909636734</v>
+        <v>124715.9358690036</v>
       </c>
       <c r="C175">
-        <v>15420.46080813401</v>
+        <v>8522.347253538479</v>
       </c>
       <c r="D175">
-        <v>85528.52499302525</v>
+        <v>58226.38849039286</v>
       </c>
       <c r="E175">
-        <v>46171.5422639794</v>
+        <v>15415.55589638538</v>
       </c>
       <c r="F175">
-        <v>1083.122666516607</v>
+        <v>1060.422103365079</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>466.3</v>
+        <v>517.8</v>
       </c>
       <c r="B176">
-        <v>355211.7859416423</v>
+        <v>124706.6158787269</v>
       </c>
       <c r="C176">
-        <v>14795.65091471382</v>
+        <v>11109.27964056839</v>
       </c>
       <c r="D176">
-        <v>81726.65740200902</v>
+        <v>56889.46486694913</v>
       </c>
       <c r="E176">
-        <v>43225.38024590151</v>
+        <v>14917.89592964705</v>
       </c>
       <c r="F176">
-        <v>1500.438686830789</v>
+        <v>1493.685412759912</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>468.6</v>
+        <v>520.1</v>
       </c>
       <c r="B177">
-        <v>339455.280919611</v>
+        <v>117174.0414876724</v>
       </c>
       <c r="C177">
-        <v>16670.84102129364</v>
+        <v>10738.85743663588</v>
       </c>
       <c r="D177">
-        <v>76434.78981099276</v>
+        <v>56717.09513338089</v>
       </c>
       <c r="E177">
-        <v>40809.21822782364</v>
+        <v>13372.04876024778</v>
       </c>
       <c r="F177">
-        <v>1357.754707144958</v>
+        <v>1751.087657403161</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>471.2</v>
+        <v>522.4</v>
       </c>
       <c r="B178">
-        <v>315004.4491555757</v>
+        <v>108141.4670966179</v>
       </c>
       <c r="C178">
-        <v>13046.27331568822</v>
+        <v>10658.43523270344</v>
       </c>
       <c r="D178">
-        <v>74891.80905593096</v>
+        <v>56754.72539981267</v>
       </c>
       <c r="E178">
-        <v>38753.99159869212</v>
+        <v>12736.20159084851</v>
       </c>
       <c r="F178">
-        <v>1153.851077934887</v>
+        <v>1288.489902046411</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>473.1</v>
+        <v>524.6</v>
       </c>
       <c r="B179">
-        <v>300540.3797895499</v>
+        <v>101097.2655051744</v>
       </c>
       <c r="C179">
-        <v>15974.47383851502</v>
+        <v>9099.33573328975</v>
       </c>
       <c r="D179">
-        <v>69868.09235030886</v>
+        <v>55274.63261118217</v>
       </c>
       <c r="E179">
-        <v>37563.24906201908</v>
+        <v>12656.26082011878</v>
       </c>
       <c r="F179">
-        <v>1139.459964281388</v>
+        <v>1512.961614313864</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>475.7</v>
+        <v>526.9</v>
       </c>
       <c r="B180">
-        <v>283489.5480255147</v>
+        <v>89764.69111411989</v>
       </c>
       <c r="C180">
-        <v>13029.90613290962</v>
+        <v>8098.913529357276</v>
       </c>
       <c r="D180">
-        <v>69075.111595247</v>
+        <v>53092.26287761393</v>
       </c>
       <c r="E180">
-        <v>35978.02243288756</v>
+        <v>11620.41365071951</v>
       </c>
       <c r="F180">
-        <v>1425.556335071318</v>
+        <v>2000.363858957116</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>478</v>
+        <v>529.1</v>
       </c>
       <c r="B181">
-        <v>282333.0430034834</v>
+        <v>98220.48952267645</v>
       </c>
       <c r="C181">
-        <v>15375.09623948943</v>
+        <v>9369.814029943598</v>
       </c>
       <c r="D181">
-        <v>67533.24400423077</v>
+        <v>54982.17008898343</v>
       </c>
       <c r="E181">
-        <v>35481.86041480967</v>
+        <v>11070.47287998977</v>
       </c>
       <c r="F181">
-        <v>1062.872355385494</v>
+        <v>1594.83557122457</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>480.3</v>
+        <v>531.4</v>
       </c>
       <c r="B182">
-        <v>266476.5379814523</v>
+        <v>90087.91513162191</v>
       </c>
       <c r="C182">
-        <v>15390.28634606925</v>
+        <v>11999.39182601112</v>
       </c>
       <c r="D182">
-        <v>62891.37641321454</v>
+        <v>54479.80035541521</v>
       </c>
       <c r="E182">
-        <v>32835.69839673179</v>
+        <v>11514.62571059051</v>
       </c>
       <c r="F182">
-        <v>1570.18837569967</v>
+        <v>2422.23781586782</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>482.5</v>
+        <v>534</v>
       </c>
       <c r="B183">
-        <v>253818.1418734224</v>
+        <v>86290.22234173416</v>
       </c>
       <c r="C183">
-        <v>13248.72905671082</v>
+        <v>10185.00150852223</v>
       </c>
       <c r="D183">
-        <v>60296.54654354684</v>
+        <v>51470.59978703373</v>
       </c>
       <c r="E183">
-        <v>30795.89124900513</v>
+        <v>10341.05934518264</v>
       </c>
       <c r="F183">
-        <v>1334.577612521917</v>
+        <v>2118.431657638441</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>484.8</v>
+        <v>536.3</v>
       </c>
       <c r="B184">
-        <v>232961.6368513912</v>
+        <v>76757.64795067965</v>
       </c>
       <c r="C184">
-        <v>13453.91916329063</v>
+        <v>10964.57930458978</v>
       </c>
       <c r="D184">
-        <v>57664.67895253061</v>
+        <v>53278.23005346551</v>
       </c>
       <c r="E184">
-        <v>28569.72923092724</v>
+        <v>9585.21217578337</v>
       </c>
       <c r="F184">
-        <v>1401.893632836094</v>
+        <v>1805.833902281692</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>487.4</v>
+        <v>538.2</v>
       </c>
       <c r="B185">
-        <v>219910.8050873558</v>
+        <v>86678.56475806943</v>
       </c>
       <c r="C185">
-        <v>14039.35145768521</v>
+        <v>9199.447918732476</v>
       </c>
       <c r="D185">
-        <v>54391.69819746878</v>
+        <v>50644.96809964826</v>
       </c>
       <c r="E185">
-        <v>28404.50260179572</v>
+        <v>9602.990601062229</v>
       </c>
       <c r="F185">
-        <v>1447.990003626031</v>
+        <v>2031.514017421774</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>489.7</v>
+        <v>540.8</v>
       </c>
       <c r="B186">
-        <v>219754.3000653247</v>
+        <v>78980.87196818166</v>
       </c>
       <c r="C186">
-        <v>12124.54156426504</v>
+        <v>9535.057601243592</v>
       </c>
       <c r="D186">
-        <v>50889.83060645255</v>
+        <v>49855.76753126677</v>
       </c>
       <c r="E186">
-        <v>27508.34058371783</v>
+        <v>9159.424235654369</v>
       </c>
       <c r="F186">
-        <v>1135.306023940199</v>
+        <v>1777.707859192396</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>491.9</v>
+        <v>543</v>
       </c>
       <c r="B187">
-        <v>206895.9039572948</v>
+        <v>70636.67037673818</v>
       </c>
       <c r="C187">
-        <v>15192.98427490661</v>
+        <v>9275.958101829914</v>
       </c>
       <c r="D187">
-        <v>51625.00073678485</v>
+        <v>51405.67474263629</v>
       </c>
       <c r="E187">
-        <v>25398.53343599116</v>
+        <v>7829.483464924631</v>
       </c>
       <c r="F187">
-        <v>899.6952607624535</v>
+        <v>1582.17957145985</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>494.2</v>
+        <v>545.3</v>
       </c>
       <c r="B188">
-        <v>188939.3989352636</v>
+        <v>72704.09598568367</v>
       </c>
       <c r="C188">
-        <v>12478.17438148642</v>
+        <v>8545.535897897469</v>
       </c>
       <c r="D188">
-        <v>50503.13314576859</v>
+        <v>51413.30500906806</v>
       </c>
       <c r="E188">
-        <v>24982.37141791327</v>
+        <v>8713.63629552537</v>
       </c>
       <c r="F188">
-        <v>1207.01128107663</v>
+        <v>2209.581816103102</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>496.8</v>
+        <v>547.6</v>
       </c>
       <c r="B189">
-        <v>196688.5671712283</v>
+        <v>65271.52159462919</v>
       </c>
       <c r="C189">
-        <v>13023.606675881</v>
+        <v>6675.113693964951</v>
       </c>
       <c r="D189">
-        <v>46520.15239070676</v>
+        <v>48630.93527549983</v>
       </c>
       <c r="E189">
-        <v>21167.14478878174</v>
+        <v>8137.789126126092</v>
       </c>
       <c r="F189">
-        <v>1213.107651866559</v>
+        <v>2216.98406074635</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>499.1</v>
+        <v>549.5</v>
       </c>
       <c r="B190">
-        <v>179732.0621491971</v>
+        <v>62492.43840201898</v>
       </c>
       <c r="C190">
-        <v>10868.79678246081</v>
+        <v>8369.982308107712</v>
       </c>
       <c r="D190">
-        <v>45718.28479969053</v>
+        <v>48617.6733216826</v>
       </c>
       <c r="E190">
-        <v>21520.98277070386</v>
+        <v>7875.567551404969</v>
       </c>
       <c r="F190">
-        <v>1490.423672180741</v>
+        <v>2292.664175886419</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>501.3</v>
+        <v>552.4</v>
       </c>
       <c r="B191">
-        <v>183173.6660411672</v>
+        <v>60329.62721329805</v>
       </c>
       <c r="C191">
-        <v>11457.23949310238</v>
+        <v>7781.62387706239</v>
       </c>
       <c r="D191">
-        <v>43773.45493002283</v>
+        <v>50211.64191848786</v>
       </c>
       <c r="E191">
-        <v>20181.17562297719</v>
+        <v>7054.281989988493</v>
       </c>
       <c r="F191">
-        <v>2044.812909002989</v>
+        <v>2267.649614784426</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>503.6</v>
+        <v>554.7</v>
       </c>
       <c r="B192">
-        <v>177717.1610191361</v>
+        <v>51697.05282224357</v>
       </c>
       <c r="C192">
-        <v>9482.4295996822</v>
+        <v>9281.20167312993</v>
       </c>
       <c r="D192">
-        <v>42751.5873390066</v>
+        <v>47359.27218491964</v>
       </c>
       <c r="E192">
-        <v>19715.01360489931</v>
+        <v>5878.434820589224</v>
       </c>
       <c r="F192">
-        <v>1112.128929317158</v>
+        <v>1735.051859427683</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>505.9</v>
+        <v>556.9</v>
       </c>
       <c r="B193">
-        <v>160660.6559971048</v>
+        <v>50552.85123080009</v>
       </c>
       <c r="C193">
-        <v>10297.61970626203</v>
+        <v>6982.102173716259</v>
       </c>
       <c r="D193">
-        <v>39559.71974799037</v>
+        <v>45839.17939628912</v>
       </c>
       <c r="E193">
-        <v>18878.85158682142</v>
+        <v>7828.494049859493</v>
       </c>
       <c r="F193">
-        <v>1379.444949631334</v>
+        <v>2149.523571695132</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>508.5</v>
+        <v>559.2</v>
       </c>
       <c r="B194">
-        <v>160909.8242330695</v>
+        <v>54420.27683974559</v>
       </c>
       <c r="C194">
-        <v>10783.05200065661</v>
+        <v>7441.679969783741</v>
       </c>
       <c r="D194">
-        <v>38286.73899292855</v>
+        <v>44906.80966272092</v>
       </c>
       <c r="E194">
-        <v>18003.6249576899</v>
+        <v>6932.646880460225</v>
       </c>
       <c r="F194">
-        <v>1065.54132042127</v>
+        <v>2436.92581633838</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>510.7</v>
+        <v>561.8</v>
       </c>
       <c r="B195">
-        <v>147051.4281250396</v>
+        <v>43922.58404985782</v>
       </c>
       <c r="C195">
-        <v>13181.49471129817</v>
+        <v>5967.289652294894</v>
       </c>
       <c r="D195">
-        <v>36001.90912326085</v>
+        <v>47227.60909433944</v>
       </c>
       <c r="E195">
-        <v>16343.81780996323</v>
+        <v>6389.080515052356</v>
       </c>
       <c r="F195">
-        <v>1519.930557243518</v>
+        <v>1953.119658109011</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>513</v>
+        <v>564</v>
       </c>
       <c r="B196">
-        <v>143994.9231030084</v>
+        <v>42378.38245841436</v>
       </c>
       <c r="C196">
-        <v>12196.68481787799</v>
+        <v>6618.190152881209</v>
       </c>
       <c r="D196">
-        <v>37930.04153224461</v>
+        <v>44727.51630570894</v>
       </c>
       <c r="E196">
-        <v>15187.65579188535</v>
+        <v>6709.139744322625</v>
       </c>
       <c r="F196">
-        <v>1417.246577557701</v>
+        <v>2017.591370376465</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>515.3</v>
+        <v>566.3</v>
       </c>
       <c r="B197">
-        <v>121638.4180809772</v>
+        <v>43745.80806735985</v>
       </c>
       <c r="C197">
-        <v>9911.874924457814</v>
+        <v>5547.767948948735</v>
       </c>
       <c r="D197">
-        <v>33908.17394122839</v>
+        <v>42275.14657214072</v>
       </c>
       <c r="E197">
-        <v>14641.49377380747</v>
+        <v>5593.292574923356</v>
       </c>
       <c r="F197">
-        <v>1054.56259787187</v>
+        <v>1854.993615019708</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>517.8</v>
+        <v>568.5</v>
       </c>
       <c r="B198">
-        <v>121385.6952309432</v>
+        <v>36101.60647591639</v>
       </c>
       <c r="C198">
-        <v>12450.55982291415</v>
+        <v>4418.668449535056</v>
       </c>
       <c r="D198">
-        <v>32202.23090751506</v>
+        <v>46685.05378351023</v>
       </c>
       <c r="E198">
-        <v>14132.62201502716</v>
+        <v>4833.351804193618</v>
       </c>
       <c r="F198">
-        <v>1487.732185169879</v>
+        <v>2649.465327287169</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>520.1</v>
+        <v>570.8</v>
       </c>
       <c r="B199">
-        <v>113629.1902089121</v>
+        <v>36469.03208486187</v>
       </c>
       <c r="C199">
-        <v>12035.74992949395</v>
+        <v>3858.246245602575</v>
       </c>
       <c r="D199">
-        <v>31690.36331649883</v>
+        <v>47492.68404994199</v>
       </c>
       <c r="E199">
-        <v>12576.45999694927</v>
+        <v>5767.504634794356</v>
       </c>
       <c r="F199">
-        <v>1745.048205484062</v>
+        <v>2376.867571930412</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>522.4</v>
+        <v>573.1</v>
       </c>
       <c r="B200">
-        <v>104372.6851868808</v>
+        <v>44336.45769380737</v>
       </c>
       <c r="C200">
-        <v>11910.94003607378</v>
+        <v>6287.824041670094</v>
       </c>
       <c r="D200">
-        <v>31388.4957254826</v>
+        <v>45300.31431637377</v>
       </c>
       <c r="E200">
-        <v>11930.29797887138</v>
+        <v>3681.657465395079</v>
       </c>
       <c r="F200">
-        <v>1282.36422579823</v>
+        <v>1934.269816573662</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>524.6</v>
+        <v>575.7</v>
       </c>
       <c r="B201">
-        <v>97114.28907885097</v>
+        <v>27838.76490391961</v>
       </c>
       <c r="C201">
-        <v>10309.38274671534</v>
+        <v>4223.433724181195</v>
       </c>
       <c r="D201">
-        <v>29583.66585581489</v>
+        <v>42301.11374799226</v>
       </c>
       <c r="E201">
-        <v>11840.49083114471</v>
+        <v>4128.091099987218</v>
       </c>
       <c r="F201">
-        <v>1506.753462620484</v>
+        <v>2520.463658344297</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>526.9</v>
+        <v>577.9</v>
       </c>
       <c r="B202">
-        <v>85557.78405681982</v>
+        <v>30594.56331247625</v>
       </c>
       <c r="C202">
-        <v>9264.572853295158</v>
+        <v>4464.334224767525</v>
       </c>
       <c r="D202">
-        <v>27061.79826479866</v>
+        <v>45191.02095936179</v>
       </c>
       <c r="E202">
-        <v>10794.32881306683</v>
+        <v>5408.15032925748</v>
       </c>
       <c r="F202">
-        <v>1994.069482934661</v>
+        <v>2394.935370611745</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>529.1</v>
+        <v>580.2</v>
       </c>
       <c r="B203">
-        <v>93799.38794878995</v>
+        <v>28161.98892142164</v>
       </c>
       <c r="C203">
-        <v>10493.01556393671</v>
+        <v>3873.912020835043</v>
       </c>
       <c r="D203">
-        <v>28626.96839513096</v>
+        <v>44668.65122579355</v>
       </c>
       <c r="E203">
-        <v>10234.52166534015</v>
+        <v>3532.303159858218</v>
       </c>
       <c r="F203">
-        <v>1588.458719756908</v>
+        <v>2292.337615255001</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>531.4</v>
+        <v>582.4</v>
       </c>
       <c r="B204">
-        <v>85442.8829267587</v>
+        <v>21217.78732997828</v>
       </c>
       <c r="C204">
-        <v>13078.20567051655</v>
+        <v>4494.812521421401</v>
       </c>
       <c r="D204">
-        <v>27785.10080411474</v>
+        <v>44678.55843716308</v>
       </c>
       <c r="E204">
-        <v>10668.35964726228</v>
+        <v>3782.36238912848</v>
       </c>
       <c r="F204">
-        <v>2415.774740071077</v>
+        <v>2216.809327522451</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>534</v>
+        <v>584.7</v>
       </c>
       <c r="B205">
-        <v>81392.05116272335</v>
+        <v>24385.21293892378</v>
       </c>
       <c r="C205">
-        <v>11213.63796491112</v>
+        <v>3114.390317488884</v>
       </c>
       <c r="D205">
-        <v>24392.12004905291</v>
+        <v>47046.18870359483</v>
       </c>
       <c r="E205">
-        <v>9483.133018130757</v>
+        <v>4416.51521972921</v>
       </c>
       <c r="F205">
-        <v>2111.87111086102</v>
+        <v>2694.211572165699</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>536.3</v>
+        <v>587.3</v>
       </c>
       <c r="B206">
-        <v>71635.5461406922</v>
+        <v>10087.52014903601</v>
       </c>
       <c r="C206">
-        <v>11948.82807149096</v>
+        <v>0</v>
       </c>
       <c r="D206">
-        <v>25860.25245803668</v>
+        <v>45596.98813521335</v>
       </c>
       <c r="E206">
-        <v>8716.97100005287</v>
+        <v>4962.94885432135</v>
       </c>
       <c r="F206">
-        <v>1799.18713117519</v>
+        <v>2290.405413936329</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>538.2</v>
+        <v>589.5</v>
       </c>
       <c r="B207">
-        <v>81371.47677466643</v>
+        <v>31543.31855759255</v>
       </c>
       <c r="C207">
-        <v>10147.02859431774</v>
+        <v>5480.900500586322</v>
       </c>
       <c r="D207">
-        <v>22946.53575241457</v>
+        <v>49026.89534658288</v>
       </c>
       <c r="E207">
-        <v>8726.228463379832</v>
+        <v>6153.008083591611</v>
       </c>
       <c r="F207">
-        <v>2024.796017521683</v>
+        <v>2744.877126203783</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>540.8</v>
+        <v>591.8</v>
       </c>
       <c r="B208">
-        <v>73420.64501063108</v>
+        <v>36810.74416653803</v>
       </c>
       <c r="C208">
-        <v>10432.46088871234</v>
+        <v>4560.478296653877</v>
       </c>
       <c r="D208">
-        <v>21773.55499735272</v>
+        <v>48634.52561301463</v>
       </c>
       <c r="E208">
-        <v>8271.001834248309</v>
+        <v>5317.160914192342</v>
       </c>
       <c r="F208">
-        <v>1770.892388311621</v>
+        <v>3062.279370847034</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>543</v>
+        <v>594</v>
       </c>
       <c r="B209">
-        <v>64862.24890260122</v>
+        <v>41766.54257509457</v>
       </c>
       <c r="C209">
-        <v>10130.9035993539</v>
+        <v>6361.378797240191</v>
       </c>
       <c r="D209">
-        <v>22998.72512768501</v>
+        <v>50994.43282438414</v>
       </c>
       <c r="E209">
-        <v>6931.194686521638</v>
+        <v>5387.220143462604</v>
       </c>
       <c r="F209">
-        <v>1575.281625133868</v>
+        <v>3186.751083114488</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>545.3</v>
+        <v>596.3</v>
       </c>
       <c r="B210">
-        <v>66705.74388057007</v>
+        <v>46133.96818404004</v>
       </c>
       <c r="C210">
-        <v>9356.093705933723</v>
+        <v>7150.956593307717</v>
       </c>
       <c r="D210">
-        <v>22666.85753666879</v>
+        <v>52612.06309081592</v>
       </c>
       <c r="E210">
-        <v>7805.032668443757</v>
+        <v>4741.372974063343</v>
       </c>
       <c r="F210">
-        <v>2202.597645448037</v>
+        <v>2744.153327757731</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>547.6</v>
+        <v>598.9</v>
       </c>
       <c r="B211">
-        <v>59049.23885853881</v>
+        <v>36036.2753941523</v>
       </c>
       <c r="C211">
-        <v>7441.283812513524</v>
+        <v>7926.566275818826</v>
       </c>
       <c r="D211">
-        <v>19544.98994565255</v>
+        <v>50662.86252243446</v>
       </c>
       <c r="E211">
-        <v>7218.870650365869</v>
+        <v>4617.806608655474</v>
       </c>
       <c r="F211">
-        <v>2209.913665762219</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>549.5</v>
-      </c>
-      <c r="B212">
-        <v>56085.16949251303</v>
-      </c>
-      <c r="C212">
-        <v>9099.484335340341</v>
-      </c>
-      <c r="D212">
-        <v>19251.27324003044</v>
-      </c>
-      <c r="E212">
-        <v>6948.128113692839</v>
-      </c>
-      <c r="F212">
-        <v>2285.522552108706</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>552.4</v>
-      </c>
-      <c r="B213">
-        <v>53640.01098647372</v>
-      </c>
-      <c r="C213">
-        <v>8455.158817549687</v>
-      </c>
-      <c r="D213">
-        <v>20417.17932092303</v>
-      </c>
-      <c r="E213">
-        <v>6113.836873507682</v>
-      </c>
-      <c r="F213">
-        <v>2260.399273374404</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>554.7</v>
-      </c>
-      <c r="B214">
-        <v>44783.50596444246</v>
-      </c>
-      <c r="C214">
-        <v>9910.348924129488</v>
-      </c>
-      <c r="D214">
-        <v>17225.31172990677</v>
-      </c>
-      <c r="E214">
-        <v>4927.674855429794</v>
-      </c>
-      <c r="F214">
-        <v>1727.715293688579</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>556.9</v>
-      </c>
-      <c r="B215">
-        <v>43425.10985641259</v>
-      </c>
-      <c r="C215">
-        <v>7568.791634771071</v>
-      </c>
-      <c r="D215">
-        <v>15380.4818602391</v>
-      </c>
-      <c r="E215">
-        <v>6867.867707703123</v>
-      </c>
-      <c r="F215">
-        <v>2142.104530510828</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>559.2</v>
-      </c>
-      <c r="B216">
-        <v>47068.60483438133</v>
-      </c>
-      <c r="C216">
-        <v>7983.981741350872</v>
-      </c>
-      <c r="D216">
-        <v>14108.61426922286</v>
-      </c>
-      <c r="E216">
-        <v>5961.705689625232</v>
-      </c>
-      <c r="F216">
-        <v>2429.42055082501</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>561.8</v>
-      </c>
-      <c r="B217">
-        <v>36317.7730703461</v>
-      </c>
-      <c r="C217">
-        <v>6459.414035745474</v>
-      </c>
-      <c r="D217">
-        <v>16045.63351416102</v>
-      </c>
-      <c r="E217">
-        <v>5406.479060493719</v>
-      </c>
-      <c r="F217">
-        <v>1945.516921614941</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>564</v>
-      </c>
-      <c r="B218">
-        <v>34559.37696231624</v>
-      </c>
-      <c r="C218">
-        <v>7067.856746387028</v>
-      </c>
-      <c r="D218">
-        <v>13220.80364449331</v>
-      </c>
-      <c r="E218">
-        <v>5716.671912767039</v>
-      </c>
-      <c r="F218">
-        <v>2009.906158437188</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>566.3</v>
-      </c>
-      <c r="B219">
-        <v>35702.87194028498</v>
-      </c>
-      <c r="C219">
-        <v>5953.046852966872</v>
-      </c>
-      <c r="D219">
-        <v>10428.93605347708</v>
-      </c>
-      <c r="E219">
-        <v>4590.509894689167</v>
-      </c>
-      <c r="F219">
-        <v>1847.222178751365</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>568.5</v>
-      </c>
-      <c r="B220">
-        <v>27844.47583225512</v>
-      </c>
-      <c r="C220">
-        <v>4781.489563608426</v>
-      </c>
-      <c r="D220">
-        <v>14514.10618380938</v>
-      </c>
-      <c r="E220">
-        <v>3820.702746962487</v>
-      </c>
-      <c r="F220">
-        <v>2641.611415573619</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>570.8</v>
-      </c>
-      <c r="B221">
-        <v>27987.97081022397</v>
-      </c>
-      <c r="C221">
-        <v>4176.679670188249</v>
-      </c>
-      <c r="D221">
-        <v>14982.23859279315</v>
-      </c>
-      <c r="E221">
-        <v>4744.540728884607</v>
-      </c>
-      <c r="F221">
-        <v>2368.927435887787</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>573.1</v>
-      </c>
-      <c r="B222">
-        <v>35631.46578819271</v>
-      </c>
-      <c r="C222">
-        <v>6561.869776768057</v>
-      </c>
-      <c r="D222">
-        <v>12450.37100177691</v>
-      </c>
-      <c r="E222">
-        <v>2648.378710806718</v>
-      </c>
-      <c r="F222">
-        <v>1926.24345620197</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>575.7</v>
-      </c>
-      <c r="B223">
-        <v>18880.63402415748</v>
-      </c>
-      <c r="C223">
-        <v>4447.302071162623</v>
-      </c>
-      <c r="D223">
-        <v>9067.390246715062</v>
-      </c>
-      <c r="E223">
-        <v>3083.152081675195</v>
-      </c>
-      <c r="F223">
-        <v>2512.339826991899</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>577.9</v>
-      </c>
-      <c r="B224">
-        <v>21422.23791612762</v>
-      </c>
-      <c r="C224">
-        <v>4645.744781804213</v>
-      </c>
-      <c r="D224">
-        <v>11632.5603770474</v>
-      </c>
-      <c r="E224">
-        <v>4353.344933948523</v>
-      </c>
-      <c r="F224">
-        <v>2386.729063814148</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>580.2</v>
-      </c>
-      <c r="B225">
-        <v>18765.73289409636</v>
-      </c>
-      <c r="C225">
-        <v>4010.934888384021</v>
-      </c>
-      <c r="D225">
-        <v>10770.69278603116</v>
-      </c>
-      <c r="E225">
-        <v>2467.182915870635</v>
-      </c>
-      <c r="F225">
-        <v>2284.04508412833</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>582.4</v>
-      </c>
-      <c r="B226">
-        <v>11607.33678606649</v>
-      </c>
-      <c r="C226">
-        <v>4589.377599025596</v>
-      </c>
-      <c r="D226">
-        <v>10455.86291636343</v>
-      </c>
-      <c r="E226">
-        <v>2707.375768143972</v>
-      </c>
-      <c r="F226">
-        <v>2208.434320950579</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>584.7</v>
-      </c>
-      <c r="B227">
-        <v>14550.83176403523</v>
-      </c>
-      <c r="C227">
-        <v>3164.567705605397</v>
-      </c>
-      <c r="D227">
-        <v>12483.9953253472</v>
-      </c>
-      <c r="E227">
-        <v>3331.213750066082</v>
-      </c>
-      <c r="F227">
-        <v>2685.750341264754</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>587.3</v>
-      </c>
-      <c r="B228">
-        <v>0</v>
-      </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-      <c r="D228">
-        <v>10651.01457028538</v>
-      </c>
-      <c r="E228">
-        <v>3865.987120934568</v>
-      </c>
-      <c r="F228">
-        <v>2281.846712054684</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>589.5</v>
-      </c>
-      <c r="B229">
-        <v>21241.60389197014</v>
-      </c>
-      <c r="C229">
-        <v>5438.442710641561</v>
-      </c>
-      <c r="D229">
-        <v>13756.18470061768</v>
-      </c>
-      <c r="E229">
-        <v>5046.179973207896</v>
-      </c>
-      <c r="F229">
-        <v>2736.235948876939</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>591.8</v>
-      </c>
-      <c r="B230">
-        <v>26285.09886993888</v>
-      </c>
-      <c r="C230">
-        <v>4473.632817221383</v>
-      </c>
-      <c r="D230">
-        <v>13024.31710960145</v>
-      </c>
-      <c r="E230">
-        <v>4200.017955130008</v>
-      </c>
-      <c r="F230">
-        <v>3053.551969191108</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>594</v>
-      </c>
-      <c r="B231">
-        <v>31026.70276190901</v>
-      </c>
-      <c r="C231">
-        <v>6232.075527862944</v>
-      </c>
-      <c r="D231">
-        <v>15059.48723993374</v>
-      </c>
-      <c r="E231">
-        <v>4260.210807403337</v>
-      </c>
-      <c r="F231">
-        <v>3177.94120601337</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>596.3</v>
-      </c>
-      <c r="B232">
-        <v>35170.19773987787</v>
-      </c>
-      <c r="C232">
-        <v>6977.265634442767</v>
-      </c>
-      <c r="D232">
-        <v>16337.61964891752</v>
-      </c>
-      <c r="E232">
-        <v>3604.048789325455</v>
-      </c>
-      <c r="F232">
-        <v>2735.257226327539</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1">
-        <v>598.9</v>
-      </c>
-      <c r="B233">
-        <v>24819.36597584252</v>
-      </c>
-      <c r="C233">
-        <v>7702.697928837348</v>
-      </c>
-      <c r="D233">
-        <v>14004.63889385569</v>
-      </c>
-      <c r="E233">
-        <v>3468.822160193933</v>
-      </c>
-      <c r="F233">
-        <v>2951.353597117475</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="1">
-        <v>601.1</v>
-      </c>
-      <c r="B234">
-        <v>26560.96986781266</v>
-      </c>
-      <c r="C234">
-        <v>5371.140639478901</v>
-      </c>
-      <c r="D234">
-        <v>15189.80902418795</v>
-      </c>
-      <c r="E234">
-        <v>5359.015012467253</v>
-      </c>
-      <c r="F234">
-        <v>3035.742833939729</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="1">
-        <v>603.3</v>
-      </c>
-      <c r="B235">
-        <v>36402.5737597828</v>
-      </c>
-      <c r="C235">
-        <v>7039.583350120483</v>
-      </c>
-      <c r="D235">
-        <v>18974.97915452029</v>
-      </c>
-      <c r="E235">
-        <v>4639.207864740589</v>
-      </c>
-      <c r="F235">
-        <v>3430.132070761979</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="1">
-        <v>605.6</v>
-      </c>
-      <c r="B236">
-        <v>33046.06873775166</v>
-      </c>
-      <c r="C236">
-        <v>8174.773456700284</v>
-      </c>
-      <c r="D236">
-        <v>19233.11156350403</v>
-      </c>
-      <c r="E236">
-        <v>3123.045846662701</v>
-      </c>
-      <c r="F236">
-        <v>2947.448091076153</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237" s="1">
-        <v>607.8</v>
-      </c>
-      <c r="B237">
-        <v>33887.67262972179</v>
-      </c>
-      <c r="C237">
-        <v>5103.216167341874</v>
-      </c>
-      <c r="D237">
-        <v>18888.28169383633</v>
-      </c>
-      <c r="E237">
-        <v>4023.23869893603</v>
-      </c>
-      <c r="F237">
-        <v>2931.837327898409</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="1">
-        <v>610.1</v>
-      </c>
-      <c r="B238">
-        <v>30431.16760769053</v>
-      </c>
-      <c r="C238">
-        <v>3558.406273921682</v>
-      </c>
-      <c r="D238">
-        <v>18756.41410282009</v>
-      </c>
-      <c r="E238">
-        <v>2697.076680858141</v>
-      </c>
-      <c r="F238">
-        <v>3219.153348212577</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" s="1">
-        <v>612.7</v>
-      </c>
-      <c r="B239">
-        <v>27480.33584365519</v>
-      </c>
-      <c r="C239">
-        <v>2663.838568316249</v>
-      </c>
-      <c r="D239">
-        <v>20063.43334775827</v>
-      </c>
-      <c r="E239">
-        <v>3691.850051726618</v>
-      </c>
-      <c r="F239">
-        <v>3495.249719002521</v>
+        <v>2960.347169528359</v>
       </c>
     </row>
   </sheetData>
